--- a/Data_Acquisition/Baseline_Search_analysis.xlsx
+++ b/Data_Acquisition/Baseline_Search_analysis.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dimitris\MuscleInsight\Data_Acquisition\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E34CAEAB-8D7B-459D-AC8C-23AFEBCAE948}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0377A184-531E-46F5-A48C-4715C7F842E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1019" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1047" uniqueCount="93">
   <si>
     <t>File Path</t>
   </si>
@@ -55,13 +55,13 @@
     <t>Percent Below 80th</t>
   </si>
   <si>
-    <t>C:/Dimitris/MuscleInsight/Data_Acquisition/class_segments/rest/rest_alexia_ID1.json</t>
+    <t>C:\\Dimitris\\MuscleInsight\\Data_Acquisition\\Stats_for_Baseline_results_json\rest_alexia_ID1.json</t>
   </si>
   <si>
     <t>rest_alexia_ID1</t>
   </si>
   <si>
-    <t>rest</t>
+    <t>Unknown</t>
   </si>
   <si>
     <t>mnf_arv_ratio</t>
@@ -85,211 +85,217 @@
     <t>fluct_mean_diff_values</t>
   </si>
   <si>
-    <t>C:/Dimitris/MuscleInsight/Data_Acquisition/class_segments/rest/rest_alexia_ID2.json</t>
+    <t>C:\\Dimitris\\MuscleInsight\\Data_Acquisition\\Stats_for_Baseline_results_json\rest_alexia_ID2.json</t>
   </si>
   <si>
     <t>rest_alexia_ID2</t>
   </si>
   <si>
-    <t>C:/Dimitris/MuscleInsight/Data_Acquisition/class_segments/rest/rest_alexia_ID3.json</t>
+    <t>C:\\Dimitris\\MuscleInsight\\Data_Acquisition\\Stats_for_Baseline_results_json\rest_alexia_ID3.json</t>
   </si>
   <si>
     <t>rest_alexia_ID3</t>
   </si>
   <si>
-    <t>C:/Dimitris/MuscleInsight/Data_Acquisition/class_segments/rest/rest_brodas_ID1.json</t>
+    <t>C:\\Dimitris\\MuscleInsight\\Data_Acquisition\\Stats_for_Baseline_results_json\rest_brodas_ID1.json</t>
   </si>
   <si>
     <t>rest_brodas_ID1</t>
   </si>
   <si>
-    <t>C:/Dimitris/MuscleInsight/Data_Acquisition/class_segments/rest/rest_brodas_ID2.json</t>
+    <t>C:\\Dimitris\\MuscleInsight\\Data_Acquisition\\Stats_for_Baseline_results_json\rest_brodas_ID2.json</t>
   </si>
   <si>
     <t>rest_brodas_ID2</t>
   </si>
   <si>
-    <t>C:/Dimitris/MuscleInsight/Data_Acquisition/class_segments/rest/rest_brodas_ID3.json</t>
+    <t>C:\\Dimitris\\MuscleInsight\\Data_Acquisition\\Stats_for_Baseline_results_json\rest_brodas_ID3.json</t>
   </si>
   <si>
     <t>rest_brodas_ID3</t>
   </si>
   <si>
-    <t>C:/Dimitris/MuscleInsight/Data_Acquisition/class_segments/rest/rest_egw_ID1.json</t>
+    <t>C:\\Dimitris\\MuscleInsight\\Data_Acquisition\\Stats_for_Baseline_results_json\rest_egw_ID1.json</t>
   </si>
   <si>
     <t>rest_egw_ID1</t>
   </si>
   <si>
-    <t>C:/Dimitris/MuscleInsight/Data_Acquisition/class_segments/rest/rest_egw_ID2.json</t>
+    <t>C:\\Dimitris\\MuscleInsight\\Data_Acquisition\\Stats_for_Baseline_results_json\rest_egw_ID2.json</t>
   </si>
   <si>
     <t>rest_egw_ID2</t>
   </si>
   <si>
-    <t>C:/Dimitris/MuscleInsight/Data_Acquisition/class_segments/rest/rest_egw_ID5.json</t>
+    <t>C:\\Dimitris\\MuscleInsight\\Data_Acquisition\\Stats_for_Baseline_results_json\rest_egw_ID3.json</t>
+  </si>
+  <si>
+    <t>rest_egw_ID3</t>
+  </si>
+  <si>
+    <t>C:\\Dimitris\\MuscleInsight\\Data_Acquisition\\Stats_for_Baseline_results_json\rest_egw_ID5.json</t>
   </si>
   <si>
     <t>rest_egw_ID5</t>
   </si>
   <si>
-    <t>C:/Dimitris/MuscleInsight/Data_Acquisition/class_segments/rest/rest_egw_ID6.json</t>
+    <t>C:\\Dimitris\\MuscleInsight\\Data_Acquisition\\Stats_for_Baseline_results_json\rest_egw_ID6.json</t>
   </si>
   <si>
     <t>rest_egw_ID6</t>
   </si>
   <si>
-    <t>C:/Dimitris/MuscleInsight/Data_Acquisition/class_segments/rest/rest_egw_ID8.json</t>
+    <t>C:\\Dimitris\\MuscleInsight\\Data_Acquisition\\Stats_for_Baseline_results_json\rest_egw_ID7.json</t>
+  </si>
+  <si>
+    <t>rest_egw_ID7</t>
+  </si>
+  <si>
+    <t>C:\\Dimitris\\MuscleInsight\\Data_Acquisition\\Stats_for_Baseline_results_json\rest_egw_ID8.json</t>
   </si>
   <si>
     <t>rest_egw_ID8</t>
   </si>
   <si>
-    <t>C:/Dimitris/MuscleInsight/Data_Acquisition/class_segments/rest/rest_egw_ID7.json</t>
-  </si>
-  <si>
-    <t>rest_egw_ID7</t>
-  </si>
-  <si>
-    <t>C:/Dimitris/MuscleInsight/Data_Acquisition/class_segments/rest/rest_egw_ID9.json</t>
+    <t>C:\\Dimitris\\MuscleInsight\\Data_Acquisition\\Stats_for_Baseline_results_json\rest_egw_ID9.json</t>
   </si>
   <si>
     <t>rest_egw_ID9</t>
   </si>
   <si>
-    <t>C:/Dimitris/MuscleInsight/Data_Acquisition/class_segments/rest/rest_marios_ID1.json</t>
+    <t>C:\\Dimitris\\MuscleInsight\\Data_Acquisition\\Stats_for_Baseline_results_json\rest_marios_ID1.json</t>
   </si>
   <si>
     <t>rest_marios_ID1</t>
   </si>
   <si>
-    <t>C:/Dimitris/MuscleInsight/Data_Acquisition/class_segments/rest/rest_marios_ID2.json</t>
+    <t>C:\\Dimitris\\MuscleInsight\\Data_Acquisition\\Stats_for_Baseline_results_json\rest_marios_ID2.json</t>
   </si>
   <si>
     <t>rest_marios_ID2</t>
   </si>
   <si>
-    <t>C:/Dimitris/MuscleInsight/Data_Acquisition/class_segments/rest/rest_marios_ID3.json</t>
+    <t>C:\\Dimitris\\MuscleInsight\\Data_Acquisition\\Stats_for_Baseline_results_json\rest_marios_ID3.json</t>
   </si>
   <si>
     <t>rest_marios_ID3</t>
   </si>
   <si>
-    <t>C:/Dimitris/MuscleInsight/Data_Acquisition/class_segments/rest/rest_mitsos_ID2.json</t>
+    <t>C:\\Dimitris\\MuscleInsight\\Data_Acquisition\\Stats_for_Baseline_results_json\rest_mitsos_ID2.json</t>
   </si>
   <si>
     <t>rest_mitsos_ID2</t>
   </si>
   <si>
-    <t>C:/Dimitris/MuscleInsight/Data_Acquisition/class_segments/rest/rest_mitsos_ID3.json</t>
+    <t>C:\\Dimitris\\MuscleInsight\\Data_Acquisition\\Stats_for_Baseline_results_json\rest_mitsos_ID3.json</t>
   </si>
   <si>
     <t>rest_mitsos_ID3</t>
   </si>
   <si>
-    <t>C:/Dimitris/MuscleInsight/Data_Acquisition/class_segments/rest/rest_nektarios_ID1.json</t>
+    <t>C:\\Dimitris\\MuscleInsight\\Data_Acquisition\\Stats_for_Baseline_results_json\rest_nektarios_ID1.json</t>
   </si>
   <si>
     <t>rest_nektarios_ID1</t>
   </si>
   <si>
-    <t>C:/Dimitris/MuscleInsight/Data_Acquisition/class_segments/rest/rest_nektarios_ID2.json</t>
+    <t>C:\\Dimitris\\MuscleInsight\\Data_Acquisition\\Stats_for_Baseline_results_json\rest_nektarios_ID2.json</t>
   </si>
   <si>
     <t>rest_nektarios_ID2</t>
   </si>
   <si>
-    <t>C:/Dimitris/MuscleInsight/Data_Acquisition/class_segments/rest/rest_nektarios_ID3.json</t>
+    <t>C:\\Dimitris\\MuscleInsight\\Data_Acquisition\\Stats_for_Baseline_results_json\rest_nektarios_ID3.json</t>
   </si>
   <si>
     <t>rest_nektarios_ID3</t>
   </si>
   <si>
-    <t>C:/Dimitris/MuscleInsight/Data_Acquisition/class_segments/rest/rest_next2_ID1.json</t>
+    <t>C:\\Dimitris\\MuscleInsight\\Data_Acquisition\\Stats_for_Baseline_results_json\rest_next2_ID1.json</t>
   </si>
   <si>
     <t>rest_next2_ID1</t>
   </si>
   <si>
-    <t>C:/Dimitris/MuscleInsight/Data_Acquisition/class_segments/rest/rest_next2_ID2.json</t>
+    <t>C:\\Dimitris\\MuscleInsight\\Data_Acquisition\\Stats_for_Baseline_results_json\rest_next2_ID2.json</t>
   </si>
   <si>
     <t>rest_next2_ID2</t>
   </si>
   <si>
-    <t>C:/Dimitris/MuscleInsight/Data_Acquisition/class_segments/rest/rest_next2_ID3.json</t>
+    <t>C:\\Dimitris\\MuscleInsight\\Data_Acquisition\\Stats_for_Baseline_results_json\rest_next2_ID3.json</t>
   </si>
   <si>
     <t>rest_next2_ID3</t>
   </si>
   <si>
-    <t>C:/Dimitris/MuscleInsight/Data_Acquisition/class_segments/rest/rest_next3_ID1.json</t>
+    <t>C:\\Dimitris\\MuscleInsight\\Data_Acquisition\\Stats_for_Baseline_results_json\rest_next3_ID1.json</t>
   </si>
   <si>
     <t>rest_next3_ID1</t>
   </si>
   <si>
-    <t>C:/Dimitris/MuscleInsight/Data_Acquisition/class_segments/rest/rest_next3_ID2.json</t>
+    <t>C:\\Dimitris\\MuscleInsight\\Data_Acquisition\\Stats_for_Baseline_results_json\rest_next3_ID2.json</t>
   </si>
   <si>
     <t>rest_next3_ID2</t>
   </si>
   <si>
-    <t>C:/Dimitris/MuscleInsight/Data_Acquisition/class_segments/rest/rest_next3_ID3.json</t>
+    <t>C:\\Dimitris\\MuscleInsight\\Data_Acquisition\\Stats_for_Baseline_results_json\rest_next3_ID3.json</t>
   </si>
   <si>
     <t>rest_next3_ID3</t>
   </si>
   <si>
-    <t>C:/Dimitris/MuscleInsight/Data_Acquisition/class_segments/rest/rest_next_ID1.json</t>
+    <t>C:\\Dimitris\\MuscleInsight\\Data_Acquisition\\Stats_for_Baseline_results_json\rest_next_ID1.json</t>
   </si>
   <si>
     <t>rest_next_ID1</t>
   </si>
   <si>
-    <t>C:/Dimitris/MuscleInsight/Data_Acquisition/class_segments/rest/rest_next_ID2.json</t>
+    <t>C:\\Dimitris\\MuscleInsight\\Data_Acquisition\\Stats_for_Baseline_results_json\rest_next_ID2.json</t>
   </si>
   <si>
     <t>rest_next_ID2</t>
   </si>
   <si>
-    <t>C:/Dimitris/MuscleInsight/Data_Acquisition/class_segments/rest/rest_next_ID3.json</t>
+    <t>C:\\Dimitris\\MuscleInsight\\Data_Acquisition\\Stats_for_Baseline_results_json\rest_next_ID3.json</t>
   </si>
   <si>
     <t>rest_next_ID3</t>
   </si>
   <si>
-    <t>C:/Dimitris/MuscleInsight/Data_Acquisition/class_segments/rest/rest_thumios_ID1.json</t>
+    <t>C:\\Dimitris\\MuscleInsight\\Data_Acquisition\\Stats_for_Baseline_results_json\rest_thumios_ID1.json</t>
   </si>
   <si>
     <t>rest_thumios_ID1</t>
   </si>
   <si>
-    <t>C:/Dimitris/MuscleInsight/Data_Acquisition/class_segments/rest/rest_thumios_ID2.json</t>
+    <t>C:\\Dimitris\\MuscleInsight\\Data_Acquisition\\Stats_for_Baseline_results_json\rest_thumios_ID2.json</t>
   </si>
   <si>
     <t>rest_thumios_ID2</t>
   </si>
   <si>
-    <t>C:/Dimitris/MuscleInsight/Data_Acquisition/class_segments/rest/rest_thumios_ID3.json</t>
+    <t>C:\\Dimitris\\MuscleInsight\\Data_Acquisition\\Stats_for_Baseline_results_json\rest_thumios_ID3.json</t>
   </si>
   <si>
     <t>rest_thumios_ID3</t>
   </si>
   <si>
-    <t>C:/Dimitris/MuscleInsight/Data_Acquisition/class_segments/rest/rest_vasilis_ID1.json</t>
+    <t>C:\\Dimitris\\MuscleInsight\\Data_Acquisition\\Stats_for_Baseline_results_json\rest_vasilis_ID1.json</t>
   </si>
   <si>
     <t>rest_vasilis_ID1</t>
   </si>
   <si>
-    <t>C:/Dimitris/MuscleInsight/Data_Acquisition/class_segments/rest/rest_vasilis_ID2.json</t>
+    <t>C:\\Dimitris\\MuscleInsight\\Data_Acquisition\\Stats_for_Baseline_results_json\rest_vasilis_ID2.json</t>
   </si>
   <si>
     <t>rest_vasilis_ID2</t>
   </si>
   <si>
-    <t>C:/Dimitris/MuscleInsight/Data_Acquisition/class_segments/rest/rest_vasilis_ID3.json</t>
+    <t>C:\\Dimitris\\MuscleInsight\\Data_Acquisition\\Stats_for_Baseline_results_json\rest_vasilis_ID3.json</t>
   </si>
   <si>
     <t>rest_vasilis_ID3</t>
@@ -357,6 +363,20 @@
   </cellStyles>
   <dxfs count="3">
     <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
       <font>
         <b/>
         <i val="0"/>
@@ -384,20 +404,6 @@
         <bottom/>
       </border>
     </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-      </border>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -412,20 +418,20 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{5923225F-555C-4978-AA76-7640D30ADDCA}" name="Table1" displayName="Table1" ref="A1:K253" totalsRowShown="0" headerRowDxfId="0" headerRowBorderDxfId="1" tableBorderDxfId="2">
-  <autoFilter ref="A1:K253" xr:uid="{5923225F-555C-4978-AA76-7640D30ADDCA}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{95923132-9E4F-4F66-B1B4-4C03FD1DE8D3}" name="Table1" displayName="Table1" ref="A1:K260" totalsRowShown="0" headerRowDxfId="2" headerRowBorderDxfId="1" tableBorderDxfId="0">
+  <autoFilter ref="A1:K260" xr:uid="{95923132-9E4F-4F66-B1B4-4C03FD1DE8D3}"/>
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{DE72EE84-8E35-42C0-ACA9-5A67551719DE}" name="File Path"/>
-    <tableColumn id="2" xr3:uid="{782952E1-9191-455D-A337-69C3C9A525A5}" name="Participant ID"/>
-    <tableColumn id="3" xr3:uid="{A9D3DE7B-1E7A-46BE-AAF8-D3F6ED2C421D}" name="Phase"/>
-    <tableColumn id="4" xr3:uid="{B991126A-C51A-4B15-8E28-52C485A07C78}" name="Metric"/>
-    <tableColumn id="5" xr3:uid="{1A0E613B-681F-409D-99CD-0D6A3B05DAB7}" name="Mean"/>
-    <tableColumn id="6" xr3:uid="{95291AD7-91D2-4817-8C1B-E35BC4BE6258}" name="Std Dev"/>
-    <tableColumn id="7" xr3:uid="{2390AECF-A526-42D7-8013-2A22EDBE1A42}" name="80th Percentile"/>
-    <tableColumn id="8" xr3:uid="{C3447672-3CCB-4DFA-B2D8-2E02A8B361DB}" name="Max"/>
-    <tableColumn id="9" xr3:uid="{BB609310-CE47-494C-A5B4-519749BC5EB7}" name="Min"/>
-    <tableColumn id="10" xr3:uid="{5E7301F9-309D-43C4-B74F-936EF67CEFD8}" name="Range"/>
-    <tableColumn id="11" xr3:uid="{4EC54869-FBB7-449B-94C6-4F37D0DEDB28}" name="Percent Below 80th"/>
+    <tableColumn id="1" xr3:uid="{EF2B609A-E9BE-40E4-9604-80BB2DA4B4F4}" name="File Path"/>
+    <tableColumn id="2" xr3:uid="{647CDAE9-394C-4407-A8AD-6A5F7B94D40C}" name="Participant ID"/>
+    <tableColumn id="3" xr3:uid="{CEF5BC2F-5225-42A4-856E-BCE5815AA7D7}" name="Phase"/>
+    <tableColumn id="4" xr3:uid="{51788E55-EAE3-43F3-97F2-5C9F493D4715}" name="Metric"/>
+    <tableColumn id="5" xr3:uid="{41C6E724-062D-4E4C-B845-69D9ACF7CAF2}" name="Mean"/>
+    <tableColumn id="6" xr3:uid="{5D4B2733-57FE-4FB1-9DFB-8950CB7C5110}" name="Std Dev"/>
+    <tableColumn id="7" xr3:uid="{B5525810-F352-45FF-8360-93CBE57C9191}" name="80th Percentile"/>
+    <tableColumn id="8" xr3:uid="{EAF86B51-0FDB-40BD-9AD5-AF08FAED36EB}" name="Max"/>
+    <tableColumn id="9" xr3:uid="{80D67EB4-8E76-4412-9C3B-CBFFB7FFBB61}" name="Min"/>
+    <tableColumn id="10" xr3:uid="{68ADC26B-0592-4C21-9A76-53E23D3F9092}" name="Range"/>
+    <tableColumn id="11" xr3:uid="{3F6277ED-706E-41CC-A367-448FBCCBD9FF}" name="Percent Below 80th"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -716,20 +722,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K253"/>
+  <dimension ref="A1:K260"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView tabSelected="1" topLeftCell="A100" workbookViewId="0">
+      <selection activeCell="D104" sqref="D104"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="82.28515625" customWidth="1"/>
-    <col min="2" max="2" width="20.85546875" customWidth="1"/>
-    <col min="4" max="4" width="22.42578125" customWidth="1"/>
-    <col min="6" max="6" width="13" customWidth="1"/>
-    <col min="7" max="7" width="16.5703125" customWidth="1"/>
-    <col min="11" max="11" width="20.28515625" customWidth="1"/>
+    <col min="1" max="1" width="45.7109375" customWidth="1"/>
+    <col min="2" max="2" width="22" customWidth="1"/>
+    <col min="3" max="3" width="20.7109375" customWidth="1"/>
+    <col min="4" max="4" width="23.7109375" customWidth="1"/>
+    <col min="5" max="5" width="21.140625" customWidth="1"/>
+    <col min="6" max="6" width="20.28515625" customWidth="1"/>
+    <col min="7" max="7" width="23" customWidth="1"/>
+    <col min="8" max="8" width="12" customWidth="1"/>
+    <col min="9" max="9" width="12.28515625" customWidth="1"/>
+    <col min="10" max="10" width="15" customWidth="1"/>
+    <col min="11" max="11" width="22.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
@@ -781,22 +792,22 @@
         <v>14</v>
       </c>
       <c r="E2">
-        <v>0.42770000000000002</v>
+        <v>72.721599999999995</v>
       </c>
       <c r="F2">
-        <v>0.2732</v>
+        <v>4.6515000000000004</v>
       </c>
       <c r="G2">
-        <v>0.67</v>
+        <v>76.846299999999999</v>
       </c>
       <c r="H2">
-        <v>1</v>
+        <v>82.465199999999996</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>65.440100000000001</v>
       </c>
       <c r="J2">
-        <v>1</v>
+        <v>17.025099999999998</v>
       </c>
       <c r="K2">
         <v>78.260900000000007</v>
@@ -816,22 +827,22 @@
         <v>15</v>
       </c>
       <c r="E3">
-        <v>0.46729999999999999</v>
+        <v>0.12889999999999999</v>
       </c>
       <c r="F3">
-        <v>0.25940000000000002</v>
+        <v>6.4000000000000003E-3</v>
       </c>
       <c r="G3">
-        <v>0.63900000000000001</v>
+        <v>0.1331</v>
       </c>
       <c r="H3">
-        <v>1</v>
+        <v>0.14199999999999999</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>0.1174</v>
       </c>
       <c r="J3">
-        <v>1</v>
+        <v>2.47E-2</v>
       </c>
       <c r="K3">
         <v>78.260900000000007</v>
@@ -851,22 +862,22 @@
         <v>16</v>
       </c>
       <c r="E4">
-        <v>0.5827</v>
+        <v>243.13040000000001</v>
       </c>
       <c r="F4">
-        <v>0.33</v>
+        <v>20.458500000000001</v>
       </c>
       <c r="G4">
-        <v>0.9</v>
+        <v>262.8</v>
       </c>
       <c r="H4">
-        <v>1</v>
+        <v>269</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>207</v>
       </c>
       <c r="J4">
-        <v>1</v>
+        <v>62</v>
       </c>
       <c r="K4">
         <v>78.260900000000007</v>
@@ -886,22 +897,22 @@
         <v>17</v>
       </c>
       <c r="E5">
-        <v>0.22789999999999999</v>
+        <v>58.521700000000003</v>
       </c>
       <c r="F5">
-        <v>0.28720000000000001</v>
+        <v>9.4771000000000001</v>
       </c>
       <c r="G5">
-        <v>0.33329999999999999</v>
+        <v>62</v>
       </c>
       <c r="H5">
-        <v>1</v>
+        <v>84</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>51</v>
       </c>
       <c r="J5">
-        <v>1</v>
+        <v>33</v>
       </c>
       <c r="K5">
         <v>78.260900000000007</v>
@@ -921,22 +932,22 @@
         <v>18</v>
       </c>
       <c r="E6">
-        <v>0.28560000000000002</v>
+        <v>0.34439999999999998</v>
       </c>
       <c r="F6">
-        <v>0.24260000000000001</v>
+        <v>0.15920000000000001</v>
       </c>
       <c r="G6">
-        <v>0.3967</v>
+        <v>0.4173</v>
       </c>
       <c r="H6">
-        <v>1</v>
+        <v>0.81299999999999994</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>0.157</v>
       </c>
       <c r="J6">
-        <v>1</v>
+        <v>0.65600000000000003</v>
       </c>
       <c r="K6">
         <v>78.260900000000007</v>
@@ -956,22 +967,22 @@
         <v>19</v>
       </c>
       <c r="E7">
-        <v>0.38940000000000002</v>
+        <v>3.0688</v>
       </c>
       <c r="F7">
-        <v>0.25600000000000001</v>
+        <v>0.66120000000000001</v>
       </c>
       <c r="G7">
-        <v>0.57909999999999995</v>
+        <v>3.5585</v>
       </c>
       <c r="H7">
-        <v>1</v>
+        <v>4.6455000000000002</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>2.0632000000000001</v>
       </c>
       <c r="J7">
-        <v>1</v>
+        <v>2.5823</v>
       </c>
       <c r="K7">
         <v>82.608699999999999</v>
@@ -991,22 +1002,22 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>0.37580000000000002</v>
+        <v>4.2799999999999998E-2</v>
       </c>
       <c r="F8">
-        <v>0.2351</v>
+        <v>8.9999999999999993E-3</v>
       </c>
       <c r="G8">
-        <v>0.54579999999999995</v>
+        <v>4.9299999999999997E-2</v>
       </c>
       <c r="H8">
-        <v>1</v>
+        <v>6.6600000000000006E-2</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>2.8500000000000001E-2</v>
       </c>
       <c r="J8">
-        <v>1</v>
+        <v>3.8100000000000002E-2</v>
       </c>
       <c r="K8">
         <v>78.260900000000007</v>
@@ -1026,22 +1037,22 @@
         <v>14</v>
       </c>
       <c r="E9">
-        <v>0.44140000000000001</v>
+        <v>77.959100000000007</v>
       </c>
       <c r="F9">
-        <v>0.21970000000000001</v>
+        <v>5.2438000000000002</v>
       </c>
       <c r="G9">
-        <v>0.63539999999999996</v>
+        <v>82.588300000000004</v>
       </c>
       <c r="H9">
-        <v>1</v>
+        <v>91.290700000000001</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>67.424300000000002</v>
       </c>
       <c r="J9">
-        <v>1</v>
+        <v>23.866299999999999</v>
       </c>
       <c r="K9">
         <v>79.166700000000006</v>
@@ -1061,22 +1072,22 @@
         <v>15</v>
       </c>
       <c r="E10">
-        <v>0.55600000000000005</v>
+        <v>0.1263</v>
       </c>
       <c r="F10">
-        <v>0.2994</v>
+        <v>7.3000000000000001E-3</v>
       </c>
       <c r="G10">
-        <v>0.83499999999999996</v>
+        <v>0.13320000000000001</v>
       </c>
       <c r="H10">
-        <v>1</v>
+        <v>0.13719999999999999</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>0.11269999999999999</v>
       </c>
       <c r="J10">
-        <v>1</v>
+        <v>2.4500000000000001E-2</v>
       </c>
       <c r="K10">
         <v>79.166700000000006</v>
@@ -1096,22 +1107,22 @@
         <v>16</v>
       </c>
       <c r="E11">
-        <v>0.69379999999999997</v>
+        <v>243.41669999999999</v>
       </c>
       <c r="F11">
-        <v>0.22589999999999999</v>
+        <v>28.4648</v>
       </c>
       <c r="G11">
-        <v>0.88100000000000001</v>
+        <v>267</v>
       </c>
       <c r="H11">
-        <v>1</v>
+        <v>282</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>156</v>
       </c>
       <c r="J11">
-        <v>1</v>
+        <v>126</v>
       </c>
       <c r="K11">
         <v>79.166700000000006</v>
@@ -1131,22 +1142,22 @@
         <v>17</v>
       </c>
       <c r="E12">
-        <v>0.21160000000000001</v>
+        <v>59.041699999999999</v>
       </c>
       <c r="F12">
-        <v>0.2213</v>
+        <v>8.4086999999999996</v>
       </c>
       <c r="G12">
-        <v>0.31580000000000003</v>
+        <v>63</v>
       </c>
       <c r="H12">
-        <v>1</v>
+        <v>89</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>51</v>
       </c>
       <c r="J12">
-        <v>1</v>
+        <v>38</v>
       </c>
       <c r="K12">
         <v>83.333299999999994</v>
@@ -1166,22 +1177,22 @@
         <v>18</v>
       </c>
       <c r="E13">
-        <v>0.43809999999999999</v>
+        <v>0.32600000000000001</v>
       </c>
       <c r="F13">
-        <v>0.26910000000000001</v>
+        <v>9.5899999999999999E-2</v>
       </c>
       <c r="G13">
-        <v>0.59340000000000004</v>
+        <v>0.38140000000000002</v>
       </c>
       <c r="H13">
-        <v>1</v>
+        <v>0.52629999999999999</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>0.16980000000000001</v>
       </c>
       <c r="J13">
-        <v>1</v>
+        <v>0.35659999999999997</v>
       </c>
       <c r="K13">
         <v>79.166700000000006</v>
@@ -1201,22 +1212,22 @@
         <v>19</v>
       </c>
       <c r="E14">
-        <v>0.47799999999999998</v>
+        <v>3.2069999999999999</v>
       </c>
       <c r="F14">
-        <v>0.27189999999999998</v>
+        <v>0.78169999999999995</v>
       </c>
       <c r="G14">
-        <v>0.54890000000000005</v>
+        <v>3.4106000000000001</v>
       </c>
       <c r="H14">
-        <v>1</v>
+        <v>4.7077999999999998</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>1.8325</v>
       </c>
       <c r="J14">
-        <v>1</v>
+        <v>2.8754</v>
       </c>
       <c r="K14">
         <v>83.333299999999994</v>
@@ -1236,22 +1247,22 @@
         <v>20</v>
       </c>
       <c r="E15">
-        <v>0.53120000000000001</v>
+        <v>4.5100000000000001E-2</v>
       </c>
       <c r="F15">
-        <v>0.2175</v>
+        <v>5.1999999999999998E-3</v>
       </c>
       <c r="G15">
-        <v>0.69720000000000004</v>
+        <v>4.9099999999999998E-2</v>
       </c>
       <c r="H15">
-        <v>1</v>
+        <v>5.6300000000000003E-2</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>3.2399999999999998E-2</v>
       </c>
       <c r="J15">
-        <v>1</v>
+        <v>2.3900000000000001E-2</v>
       </c>
       <c r="K15">
         <v>79.166700000000006</v>
@@ -1271,22 +1282,22 @@
         <v>14</v>
       </c>
       <c r="E16">
-        <v>0.41849999999999998</v>
+        <v>74.212599999999995</v>
       </c>
       <c r="F16">
-        <v>0.25669999999999998</v>
+        <v>4.5076999999999998</v>
       </c>
       <c r="G16">
-        <v>0.69230000000000003</v>
+        <v>79.019800000000004</v>
       </c>
       <c r="H16">
-        <v>1</v>
+        <v>84.424300000000002</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>66.862200000000001</v>
       </c>
       <c r="J16">
-        <v>1</v>
+        <v>17.562100000000001</v>
       </c>
       <c r="K16">
         <v>79.166700000000006</v>
@@ -1306,22 +1317,22 @@
         <v>15</v>
       </c>
       <c r="E17">
-        <v>0.44790000000000002</v>
+        <v>0.1346</v>
       </c>
       <c r="F17">
-        <v>0.26900000000000002</v>
+        <v>1.12E-2</v>
       </c>
       <c r="G17">
-        <v>0.74009999999999998</v>
+        <v>0.1467</v>
       </c>
       <c r="H17">
-        <v>1</v>
+        <v>0.15759999999999999</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>0.1159</v>
       </c>
       <c r="J17">
-        <v>1</v>
+        <v>4.1700000000000001E-2</v>
       </c>
       <c r="K17">
         <v>79.166700000000006</v>
@@ -1341,22 +1352,22 @@
         <v>16</v>
       </c>
       <c r="E18">
-        <v>0.4879</v>
+        <v>245.08330000000001</v>
       </c>
       <c r="F18">
-        <v>0.2094</v>
+        <v>15.9162</v>
       </c>
       <c r="G18">
-        <v>0.50529999999999997</v>
+        <v>246.4</v>
       </c>
       <c r="H18">
-        <v>1</v>
+        <v>284</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>208</v>
       </c>
       <c r="J18">
-        <v>1</v>
+        <v>76</v>
       </c>
       <c r="K18">
         <v>79.166700000000006</v>
@@ -1376,22 +1387,22 @@
         <v>17</v>
       </c>
       <c r="E19">
-        <v>0.33700000000000002</v>
+        <v>58.75</v>
       </c>
       <c r="F19">
-        <v>0.29330000000000001</v>
+        <v>6.7469000000000001</v>
       </c>
       <c r="G19">
-        <v>0.56520000000000004</v>
+        <v>64</v>
       </c>
       <c r="H19">
-        <v>1</v>
+        <v>74</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>51</v>
       </c>
       <c r="J19">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="K19">
         <v>83.333299999999994</v>
@@ -1411,22 +1422,22 @@
         <v>18</v>
       </c>
       <c r="E20">
-        <v>0.41139999999999999</v>
+        <v>0.33040000000000003</v>
       </c>
       <c r="F20">
-        <v>0.217</v>
+        <v>0.1086</v>
       </c>
       <c r="G20">
-        <v>0.59950000000000003</v>
+        <v>0.42459999999999998</v>
       </c>
       <c r="H20">
-        <v>1</v>
+        <v>0.62509999999999999</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>0.1245</v>
       </c>
       <c r="J20">
-        <v>1</v>
+        <v>0.50060000000000004</v>
       </c>
       <c r="K20">
         <v>79.166700000000006</v>
@@ -1446,22 +1457,22 @@
         <v>19</v>
       </c>
       <c r="E21">
-        <v>0.68640000000000001</v>
+        <v>3.2938000000000001</v>
       </c>
       <c r="F21">
-        <v>0.2702</v>
+        <v>0.58220000000000005</v>
       </c>
       <c r="G21">
-        <v>0.91400000000000003</v>
+        <v>3.7841999999999998</v>
       </c>
       <c r="H21">
-        <v>1</v>
+        <v>3.9695</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>1.8149</v>
       </c>
       <c r="J21">
-        <v>1</v>
+        <v>2.1545999999999998</v>
       </c>
       <c r="K21">
         <v>83.333299999999994</v>
@@ -1481,22 +1492,22 @@
         <v>20</v>
       </c>
       <c r="E22">
-        <v>0.54139999999999999</v>
+        <v>4.3299999999999998E-2</v>
       </c>
       <c r="F22">
-        <v>0.21870000000000001</v>
+        <v>6.7999999999999996E-3</v>
       </c>
       <c r="G22">
-        <v>0.72150000000000003</v>
+        <v>4.8899999999999999E-2</v>
       </c>
       <c r="H22">
-        <v>1</v>
+        <v>5.7599999999999998E-2</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>2.6499999999999999E-2</v>
       </c>
       <c r="J22">
-        <v>1</v>
+        <v>3.1099999999999999E-2</v>
       </c>
       <c r="K22">
         <v>79.166700000000006</v>
@@ -1516,22 +1527,22 @@
         <v>14</v>
       </c>
       <c r="E23">
-        <v>0.39910000000000001</v>
+        <v>85.092799999999997</v>
       </c>
       <c r="F23">
-        <v>0.23139999999999999</v>
+        <v>5.6641000000000004</v>
       </c>
       <c r="G23">
-        <v>0.58909999999999996</v>
+        <v>89.744100000000003</v>
       </c>
       <c r="H23">
-        <v>1</v>
+        <v>99.802899999999994</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>75.324799999999996</v>
       </c>
       <c r="J23">
-        <v>1</v>
+        <v>24.478100000000001</v>
       </c>
       <c r="K23">
         <v>77.777799999999999</v>
@@ -1551,22 +1562,22 @@
         <v>15</v>
       </c>
       <c r="E24">
-        <v>0.65780000000000005</v>
+        <v>0.12180000000000001</v>
       </c>
       <c r="F24">
-        <v>0.25440000000000002</v>
+        <v>9.4999999999999998E-3</v>
       </c>
       <c r="G24">
-        <v>0.87749999999999995</v>
+        <v>0.13</v>
       </c>
       <c r="H24">
-        <v>1</v>
+        <v>0.1346</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>9.7299999999999998E-2</v>
       </c>
       <c r="J24">
-        <v>1</v>
+        <v>3.73E-2</v>
       </c>
       <c r="K24">
         <v>77.777799999999999</v>
@@ -1586,22 +1597,22 @@
         <v>16</v>
       </c>
       <c r="E25">
-        <v>0.51680000000000004</v>
+        <v>239.07409999999999</v>
       </c>
       <c r="F25">
-        <v>0.23769999999999999</v>
+        <v>15.2143</v>
       </c>
       <c r="G25">
-        <v>0.72189999999999999</v>
+        <v>252.2</v>
       </c>
       <c r="H25">
-        <v>1</v>
+        <v>270</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>206</v>
       </c>
       <c r="J25">
-        <v>1</v>
+        <v>64</v>
       </c>
       <c r="K25">
         <v>77.777799999999999</v>
@@ -1621,22 +1632,22 @@
         <v>17</v>
       </c>
       <c r="E26">
-        <v>0.43059999999999998</v>
+        <v>68.222200000000001</v>
       </c>
       <c r="F26">
-        <v>0.26569999999999999</v>
+        <v>10.6296</v>
       </c>
       <c r="G26">
-        <v>0.67</v>
+        <v>77.8</v>
       </c>
       <c r="H26">
-        <v>1</v>
+        <v>91</v>
       </c>
       <c r="I26">
-        <v>0</v>
+        <v>51</v>
       </c>
       <c r="J26">
-        <v>1</v>
+        <v>40</v>
       </c>
       <c r="K26">
         <v>77.777799999999999</v>
@@ -1656,22 +1667,22 @@
         <v>18</v>
       </c>
       <c r="E27">
-        <v>0.43740000000000001</v>
+        <v>0.4078</v>
       </c>
       <c r="F27">
-        <v>0.24690000000000001</v>
+        <v>0.14019999999999999</v>
       </c>
       <c r="G27">
-        <v>0.62390000000000001</v>
+        <v>0.51370000000000005</v>
       </c>
       <c r="H27">
-        <v>1</v>
+        <v>0.72709999999999997</v>
       </c>
       <c r="I27">
-        <v>0</v>
+        <v>0.1595</v>
       </c>
       <c r="J27">
-        <v>1</v>
+        <v>0.56759999999999999</v>
       </c>
       <c r="K27">
         <v>77.777799999999999</v>
@@ -1691,22 +1702,22 @@
         <v>19</v>
       </c>
       <c r="E28">
-        <v>0.46600000000000003</v>
+        <v>3.1511</v>
       </c>
       <c r="F28">
-        <v>0.22500000000000001</v>
+        <v>0.52300000000000002</v>
       </c>
       <c r="G28">
-        <v>0.68620000000000003</v>
+        <v>3.6629999999999998</v>
       </c>
       <c r="H28">
-        <v>1</v>
+        <v>4.3924000000000003</v>
       </c>
       <c r="I28">
-        <v>0</v>
+        <v>2.0678000000000001</v>
       </c>
       <c r="J28">
-        <v>1</v>
+        <v>2.3246000000000002</v>
       </c>
       <c r="K28">
         <v>77.777799999999999</v>
@@ -1726,22 +1737,22 @@
         <v>20</v>
       </c>
       <c r="E29">
-        <v>0.56840000000000002</v>
+        <v>4.6800000000000001E-2</v>
       </c>
       <c r="F29">
-        <v>0.30590000000000001</v>
+        <v>7.7000000000000002E-3</v>
       </c>
       <c r="G29">
-        <v>0.80889999999999995</v>
+        <v>5.28E-2</v>
       </c>
       <c r="H29">
-        <v>1</v>
+        <v>5.7599999999999998E-2</v>
       </c>
       <c r="I29">
-        <v>0</v>
+        <v>3.2500000000000001E-2</v>
       </c>
       <c r="J29">
-        <v>1</v>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="K29">
         <v>77.777799999999999</v>
@@ -1761,22 +1772,22 @@
         <v>14</v>
       </c>
       <c r="E30">
-        <v>0.57389999999999997</v>
+        <v>96.937100000000001</v>
       </c>
       <c r="F30">
-        <v>0.26590000000000003</v>
+        <v>7.9071999999999996</v>
       </c>
       <c r="G30">
-        <v>0.83579999999999999</v>
+        <v>104.7231</v>
       </c>
       <c r="H30">
-        <v>1</v>
+        <v>109.60720000000001</v>
       </c>
       <c r="I30">
-        <v>0</v>
+        <v>79.869500000000002</v>
       </c>
       <c r="J30">
-        <v>1</v>
+        <v>29.7377</v>
       </c>
       <c r="K30">
         <v>79.166700000000006</v>
@@ -1796,22 +1807,22 @@
         <v>15</v>
       </c>
       <c r="E31">
-        <v>0.49730000000000002</v>
+        <v>0.10730000000000001</v>
       </c>
       <c r="F31">
-        <v>0.31109999999999999</v>
+        <v>1.32E-2</v>
       </c>
       <c r="G31">
-        <v>0.8679</v>
+        <v>0.1231</v>
       </c>
       <c r="H31">
-        <v>1</v>
+        <v>0.12870000000000001</v>
       </c>
       <c r="I31">
-        <v>0</v>
+        <v>8.6300000000000002E-2</v>
       </c>
       <c r="J31">
-        <v>1</v>
+        <v>4.24E-2</v>
       </c>
       <c r="K31">
         <v>79.166700000000006</v>
@@ -1831,22 +1842,22 @@
         <v>16</v>
       </c>
       <c r="E32">
-        <v>0.61040000000000005</v>
+        <v>239.45830000000001</v>
       </c>
       <c r="F32">
-        <v>0.24440000000000001</v>
+        <v>15.4002</v>
       </c>
       <c r="G32">
-        <v>0.81269999999999998</v>
+        <v>252.2</v>
       </c>
       <c r="H32">
-        <v>1</v>
+        <v>264</v>
       </c>
       <c r="I32">
-        <v>0</v>
+        <v>201</v>
       </c>
       <c r="J32">
-        <v>1</v>
+        <v>63</v>
       </c>
       <c r="K32">
         <v>79.166700000000006</v>
@@ -1866,22 +1877,22 @@
         <v>17</v>
       </c>
       <c r="E33">
-        <v>0.20910000000000001</v>
+        <v>59.875</v>
       </c>
       <c r="F33">
-        <v>0.24440000000000001</v>
+        <v>12.709300000000001</v>
       </c>
       <c r="G33">
-        <v>0.3231</v>
+        <v>65.8</v>
       </c>
       <c r="H33">
-        <v>1</v>
+        <v>101</v>
       </c>
       <c r="I33">
-        <v>0</v>
+        <v>49</v>
       </c>
       <c r="J33">
-        <v>1</v>
+        <v>52</v>
       </c>
       <c r="K33">
         <v>79.166700000000006</v>
@@ -1901,22 +1912,22 @@
         <v>18</v>
       </c>
       <c r="E34">
-        <v>0.34610000000000002</v>
+        <v>0.71350000000000002</v>
       </c>
       <c r="F34">
-        <v>0.29670000000000002</v>
+        <v>0.27879999999999999</v>
       </c>
       <c r="G34">
-        <v>0.55120000000000002</v>
+        <v>0.90620000000000001</v>
       </c>
       <c r="H34">
-        <v>1</v>
+        <v>1.3279000000000001</v>
       </c>
       <c r="I34">
-        <v>0</v>
+        <v>0.38829999999999998</v>
       </c>
       <c r="J34">
-        <v>1</v>
+        <v>0.93959999999999999</v>
       </c>
       <c r="K34">
         <v>79.166700000000006</v>
@@ -1936,22 +1947,22 @@
         <v>19</v>
       </c>
       <c r="E35">
-        <v>0.34860000000000002</v>
+        <v>4.4539999999999997</v>
       </c>
       <c r="F35">
-        <v>0.3332</v>
+        <v>0.8881</v>
       </c>
       <c r="G35">
-        <v>0.45889999999999997</v>
+        <v>4.7480000000000002</v>
       </c>
       <c r="H35">
-        <v>1</v>
+        <v>6.1904000000000003</v>
       </c>
       <c r="I35">
-        <v>0</v>
+        <v>3.5249000000000001</v>
       </c>
       <c r="J35">
-        <v>1</v>
+        <v>2.6654</v>
       </c>
       <c r="K35">
         <v>83.333299999999994</v>
@@ -1971,22 +1982,22 @@
         <v>20</v>
       </c>
       <c r="E36">
-        <v>0.44359999999999999</v>
+        <v>4.82E-2</v>
       </c>
       <c r="F36">
-        <v>0.28370000000000001</v>
+        <v>1.17E-2</v>
       </c>
       <c r="G36">
-        <v>0.63139999999999996</v>
+        <v>5.5899999999999998E-2</v>
       </c>
       <c r="H36">
-        <v>1</v>
+        <v>7.1099999999999997E-2</v>
       </c>
       <c r="I36">
-        <v>0</v>
+        <v>2.9899999999999999E-2</v>
       </c>
       <c r="J36">
-        <v>1</v>
+        <v>4.1300000000000003E-2</v>
       </c>
       <c r="K36">
         <v>79.166700000000006</v>
@@ -2006,22 +2017,22 @@
         <v>14</v>
       </c>
       <c r="E37">
-        <v>0.49049999999999999</v>
+        <v>91.287499999999994</v>
       </c>
       <c r="F37">
-        <v>0.24229999999999999</v>
+        <v>7.6771000000000003</v>
       </c>
       <c r="G37">
-        <v>0.71060000000000001</v>
+        <v>98.259900000000002</v>
       </c>
       <c r="H37">
-        <v>1</v>
+        <v>107.4318</v>
       </c>
       <c r="I37">
-        <v>0</v>
+        <v>75.744200000000006</v>
       </c>
       <c r="J37">
-        <v>1</v>
+        <v>31.6876</v>
       </c>
       <c r="K37">
         <v>79.166700000000006</v>
@@ -2041,22 +2052,22 @@
         <v>15</v>
       </c>
       <c r="E38">
-        <v>0.3896</v>
+        <v>0.1166</v>
       </c>
       <c r="F38">
-        <v>0.22070000000000001</v>
+        <v>1.1900000000000001E-2</v>
       </c>
       <c r="G38">
-        <v>0.55510000000000004</v>
+        <v>0.1255</v>
       </c>
       <c r="H38">
-        <v>1</v>
+        <v>0.14940000000000001</v>
       </c>
       <c r="I38">
-        <v>0</v>
+        <v>9.5600000000000004E-2</v>
       </c>
       <c r="J38">
-        <v>1</v>
+        <v>5.3800000000000001E-2</v>
       </c>
       <c r="K38">
         <v>79.166700000000006</v>
@@ -2076,22 +2087,22 @@
         <v>16</v>
       </c>
       <c r="E39">
-        <v>0.56030000000000002</v>
+        <v>256.5</v>
       </c>
       <c r="F39">
-        <v>0.24510000000000001</v>
+        <v>14.2156</v>
       </c>
       <c r="G39">
-        <v>0.77239999999999998</v>
+        <v>268.8</v>
       </c>
       <c r="H39">
-        <v>1</v>
+        <v>282</v>
       </c>
       <c r="I39">
-        <v>0</v>
+        <v>224</v>
       </c>
       <c r="J39">
-        <v>1</v>
+        <v>58</v>
       </c>
       <c r="K39">
         <v>79.166700000000006</v>
@@ -2111,22 +2122,22 @@
         <v>17</v>
       </c>
       <c r="E40">
-        <v>0.44030000000000002</v>
+        <v>70.375</v>
       </c>
       <c r="F40">
-        <v>0.27979999999999999</v>
+        <v>12.311299999999999</v>
       </c>
       <c r="G40">
-        <v>0.65449999999999997</v>
+        <v>79.8</v>
       </c>
       <c r="H40">
-        <v>1</v>
+        <v>95</v>
       </c>
       <c r="I40">
-        <v>0</v>
+        <v>51</v>
       </c>
       <c r="J40">
-        <v>1</v>
+        <v>44</v>
       </c>
       <c r="K40">
         <v>79.166700000000006</v>
@@ -2146,22 +2157,22 @@
         <v>18</v>
       </c>
       <c r="E41">
-        <v>0.56189999999999996</v>
+        <v>0.67090000000000005</v>
       </c>
       <c r="F41">
-        <v>0.2306</v>
+        <v>0.1767</v>
       </c>
       <c r="G41">
-        <v>0.79920000000000002</v>
+        <v>0.8528</v>
       </c>
       <c r="H41">
-        <v>1</v>
+        <v>1.0065999999999999</v>
       </c>
       <c r="I41">
-        <v>0</v>
+        <v>0.2404</v>
       </c>
       <c r="J41">
-        <v>1</v>
+        <v>0.76619999999999999</v>
       </c>
       <c r="K41">
         <v>79.166700000000006</v>
@@ -2181,22 +2192,22 @@
         <v>19</v>
       </c>
       <c r="E42">
-        <v>0.59050000000000002</v>
+        <v>4.1040999999999999</v>
       </c>
       <c r="F42">
-        <v>0.29520000000000002</v>
+        <v>0.88060000000000005</v>
       </c>
       <c r="G42">
-        <v>0.81379999999999997</v>
+        <v>4.7705000000000002</v>
       </c>
       <c r="H42">
-        <v>1</v>
+        <v>5.3259999999999996</v>
       </c>
       <c r="I42">
-        <v>0</v>
+        <v>2.3424999999999998</v>
       </c>
       <c r="J42">
-        <v>1</v>
+        <v>2.9836</v>
       </c>
       <c r="K42">
         <v>83.333299999999994</v>
@@ -2216,22 +2227,22 @@
         <v>20</v>
       </c>
       <c r="E43">
-        <v>0.65229999999999999</v>
+        <v>5.6099999999999997E-2</v>
       </c>
       <c r="F43">
-        <v>0.23719999999999999</v>
+        <v>7.9000000000000008E-3</v>
       </c>
       <c r="G43">
-        <v>0.85129999999999995</v>
+        <v>6.2700000000000006E-2</v>
       </c>
       <c r="H43">
-        <v>1</v>
+        <v>6.7699999999999996E-2</v>
       </c>
       <c r="I43">
-        <v>0</v>
+        <v>3.4200000000000001E-2</v>
       </c>
       <c r="J43">
-        <v>1</v>
+        <v>3.3399999999999999E-2</v>
       </c>
       <c r="K43">
         <v>79.166700000000006</v>
@@ -2251,22 +2262,22 @@
         <v>14</v>
       </c>
       <c r="E44">
-        <v>0.66559999999999997</v>
+        <v>97.455100000000002</v>
       </c>
       <c r="F44">
-        <v>0.23119999999999999</v>
+        <v>23.644400000000001</v>
       </c>
       <c r="G44">
-        <v>0.77580000000000005</v>
+        <v>108.723</v>
       </c>
       <c r="H44">
-        <v>1</v>
+        <v>131.64590000000001</v>
       </c>
       <c r="I44">
-        <v>0</v>
+        <v>29.3995</v>
       </c>
       <c r="J44">
-        <v>1</v>
+        <v>102.24639999999999</v>
       </c>
       <c r="K44">
         <v>81.25</v>
@@ -2286,22 +2297,22 @@
         <v>15</v>
       </c>
       <c r="E45">
-        <v>0.19</v>
+        <v>0.1321</v>
       </c>
       <c r="F45">
-        <v>0.2392</v>
+        <v>6.0999999999999999E-2</v>
       </c>
       <c r="G45">
-        <v>0.17449999999999999</v>
+        <v>0.12820000000000001</v>
       </c>
       <c r="H45">
-        <v>1</v>
+        <v>0.33850000000000002</v>
       </c>
       <c r="I45">
-        <v>0</v>
+        <v>8.3699999999999997E-2</v>
       </c>
       <c r="J45">
-        <v>1</v>
+        <v>0.25480000000000003</v>
       </c>
       <c r="K45">
         <v>81.25</v>
@@ -2321,22 +2332,22 @@
         <v>16</v>
       </c>
       <c r="E46">
-        <v>0.51770000000000005</v>
+        <v>249.3125</v>
       </c>
       <c r="F46">
-        <v>0.22359999999999999</v>
+        <v>16.5443</v>
       </c>
       <c r="G46">
-        <v>0.6351</v>
+        <v>258</v>
       </c>
       <c r="H46">
-        <v>1</v>
+        <v>285</v>
       </c>
       <c r="I46">
-        <v>0</v>
+        <v>211</v>
       </c>
       <c r="J46">
-        <v>1</v>
+        <v>74</v>
       </c>
       <c r="K46">
         <v>81.25</v>
@@ -2356,22 +2367,22 @@
         <v>17</v>
       </c>
       <c r="E47">
-        <v>0.41909999999999997</v>
+        <v>81.5</v>
       </c>
       <c r="F47">
-        <v>0.22220000000000001</v>
+        <v>15.1121</v>
       </c>
       <c r="G47">
-        <v>0.52939999999999998</v>
+        <v>89</v>
       </c>
       <c r="H47">
-        <v>1</v>
+        <v>121</v>
       </c>
       <c r="I47">
-        <v>0</v>
+        <v>53</v>
       </c>
       <c r="J47">
-        <v>1</v>
+        <v>68</v>
       </c>
       <c r="K47">
         <v>87.5</v>
@@ -2391,22 +2402,22 @@
         <v>18</v>
       </c>
       <c r="E48">
-        <v>0.19769999999999999</v>
+        <v>3.7403</v>
       </c>
       <c r="F48">
-        <v>0.307</v>
+        <v>5.3464999999999998</v>
       </c>
       <c r="G48">
-        <v>0.59670000000000001</v>
+        <v>10.6889</v>
       </c>
       <c r="H48">
-        <v>1</v>
+        <v>17.7117</v>
       </c>
       <c r="I48">
-        <v>0</v>
+        <v>0.29849999999999999</v>
       </c>
       <c r="J48">
-        <v>1</v>
+        <v>17.4131</v>
       </c>
       <c r="K48">
         <v>81.25</v>
@@ -2426,22 +2437,22 @@
         <v>19</v>
       </c>
       <c r="E49">
-        <v>0.29320000000000002</v>
+        <v>11.1729</v>
       </c>
       <c r="F49">
-        <v>0.4093</v>
+        <v>11.244899999999999</v>
       </c>
       <c r="G49">
-        <v>0.99990000000000001</v>
+        <v>30.590399999999999</v>
       </c>
       <c r="H49">
-        <v>1</v>
+        <v>30.591799999999999</v>
       </c>
       <c r="I49">
-        <v>0</v>
+        <v>3.1194000000000002</v>
       </c>
       <c r="J49">
-        <v>1</v>
+        <v>27.4725</v>
       </c>
       <c r="K49">
         <v>87.5</v>
@@ -2461,22 +2472,22 @@
         <v>20</v>
       </c>
       <c r="E50">
-        <v>0.27550000000000002</v>
+        <v>7.5899999999999995E-2</v>
       </c>
       <c r="F50">
-        <v>0.27010000000000001</v>
+        <v>4.2200000000000001E-2</v>
       </c>
       <c r="G50">
-        <v>0.45169999999999999</v>
+        <v>0.10349999999999999</v>
       </c>
       <c r="H50">
-        <v>1</v>
+        <v>0.18909999999999999</v>
       </c>
       <c r="I50">
-        <v>0</v>
+        <v>3.2899999999999999E-2</v>
       </c>
       <c r="J50">
-        <v>1</v>
+        <v>0.15620000000000001</v>
       </c>
       <c r="K50">
         <v>81.25</v>
@@ -2496,22 +2507,22 @@
         <v>14</v>
       </c>
       <c r="E51">
-        <v>0.52659999999999996</v>
+        <v>67.125500000000002</v>
       </c>
       <c r="F51">
-        <v>0.40339999999999998</v>
+        <v>20.531600000000001</v>
       </c>
       <c r="G51">
-        <v>0.97670000000000001</v>
+        <v>90.036299999999997</v>
       </c>
       <c r="H51">
-        <v>1</v>
+        <v>91.22</v>
       </c>
       <c r="I51">
-        <v>0</v>
+        <v>40.324399999999997</v>
       </c>
       <c r="J51">
-        <v>1</v>
+        <v>50.895499999999998</v>
       </c>
       <c r="K51">
         <v>77.777799999999999</v>
@@ -2531,22 +2542,22 @@
         <v>15</v>
       </c>
       <c r="E52">
-        <v>0.38229999999999997</v>
+        <v>0.18759999999999999</v>
       </c>
       <c r="F52">
-        <v>0.42009999999999997</v>
+        <v>8.4599999999999995E-2</v>
       </c>
       <c r="G52">
-        <v>0.94879999999999998</v>
+        <v>0.30170000000000002</v>
       </c>
       <c r="H52">
-        <v>1</v>
+        <v>0.312</v>
       </c>
       <c r="I52">
-        <v>0</v>
+        <v>0.1106</v>
       </c>
       <c r="J52">
-        <v>1</v>
+        <v>0.2014</v>
       </c>
       <c r="K52">
         <v>77.777799999999999</v>
@@ -2566,22 +2577,22 @@
         <v>16</v>
       </c>
       <c r="E53">
-        <v>0.50529999999999997</v>
+        <v>244.88890000000001</v>
       </c>
       <c r="F53">
-        <v>0.32140000000000002</v>
+        <v>23.463699999999999</v>
       </c>
       <c r="G53">
-        <v>0.84930000000000005</v>
+        <v>270</v>
       </c>
       <c r="H53">
-        <v>1</v>
+        <v>281</v>
       </c>
       <c r="I53">
-        <v>0</v>
+        <v>208</v>
       </c>
       <c r="J53">
-        <v>1</v>
+        <v>73</v>
       </c>
       <c r="K53">
         <v>88.888900000000007</v>
@@ -2601,22 +2612,22 @@
         <v>17</v>
       </c>
       <c r="E54">
-        <v>0.48480000000000001</v>
+        <v>89.666700000000006</v>
       </c>
       <c r="F54">
-        <v>0.24940000000000001</v>
+        <v>13.7194</v>
       </c>
       <c r="G54">
-        <v>0.55269999999999997</v>
+        <v>93.4</v>
       </c>
       <c r="H54">
-        <v>1</v>
+        <v>118</v>
       </c>
       <c r="I54">
-        <v>0</v>
+        <v>63</v>
       </c>
       <c r="J54">
-        <v>1</v>
+        <v>55</v>
       </c>
       <c r="K54">
         <v>77.777799999999999</v>
@@ -2636,22 +2647,22 @@
         <v>18</v>
       </c>
       <c r="E55">
-        <v>0.33739999999999998</v>
+        <v>46.909300000000002</v>
       </c>
       <c r="F55">
-        <v>0.46579999999999999</v>
+        <v>63.964199999999998</v>
       </c>
       <c r="G55">
-        <v>0.99270000000000003</v>
+        <v>136.90450000000001</v>
       </c>
       <c r="H55">
-        <v>1</v>
+        <v>137.90780000000001</v>
       </c>
       <c r="I55">
-        <v>0</v>
+        <v>0.57389999999999997</v>
       </c>
       <c r="J55">
-        <v>1</v>
+        <v>137.3339</v>
       </c>
       <c r="K55">
         <v>77.777799999999999</v>
@@ -2671,22 +2682,22 @@
         <v>19</v>
       </c>
       <c r="E56">
-        <v>0.35770000000000002</v>
+        <v>33.454700000000003</v>
       </c>
       <c r="F56">
-        <v>0.4556</v>
+        <v>38.030299999999997</v>
       </c>
       <c r="G56">
-        <v>0.99939999999999996</v>
+        <v>87.018799999999999</v>
       </c>
       <c r="H56">
-        <v>1</v>
+        <v>87.066699999999997</v>
       </c>
       <c r="I56">
-        <v>0</v>
+        <v>3.6008</v>
       </c>
       <c r="J56">
-        <v>1</v>
+        <v>83.465800000000002</v>
       </c>
       <c r="K56">
         <v>77.777799999999999</v>
@@ -2706,22 +2717,22 @@
         <v>20</v>
       </c>
       <c r="E57">
-        <v>0.33939999999999998</v>
+        <v>0.1565</v>
       </c>
       <c r="F57">
-        <v>0.43669999999999998</v>
+        <v>0.1293</v>
       </c>
       <c r="G57">
-        <v>0.93289999999999995</v>
+        <v>0.3322</v>
       </c>
       <c r="H57">
-        <v>1</v>
+        <v>0.35199999999999998</v>
       </c>
       <c r="I57">
-        <v>0</v>
+        <v>5.6099999999999997E-2</v>
       </c>
       <c r="J57">
-        <v>1</v>
+        <v>0.29599999999999999</v>
       </c>
       <c r="K57">
         <v>77.777799999999999</v>
@@ -2741,25 +2752,25 @@
         <v>14</v>
       </c>
       <c r="E58">
-        <v>0.48899999999999999</v>
+        <v>96.124700000000004</v>
       </c>
       <c r="F58">
-        <v>0.3024</v>
+        <v>0</v>
       </c>
       <c r="G58">
-        <v>0.76529999999999998</v>
+        <v>96.124700000000004</v>
       </c>
       <c r="H58">
-        <v>1</v>
+        <v>96.124700000000004</v>
       </c>
       <c r="I58">
+        <v>96.124700000000004</v>
+      </c>
+      <c r="J58">
         <v>0</v>
       </c>
-      <c r="J58">
-        <v>1</v>
-      </c>
       <c r="K58">
-        <v>79.166700000000006</v>
+        <v>100</v>
       </c>
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.25">
@@ -2776,25 +2787,25 @@
         <v>15</v>
       </c>
       <c r="E59">
-        <v>0.51070000000000004</v>
+        <v>0.1221</v>
       </c>
       <c r="F59">
-        <v>0.24429999999999999</v>
+        <v>0</v>
       </c>
       <c r="G59">
-        <v>0.74399999999999999</v>
+        <v>0.1221</v>
       </c>
       <c r="H59">
-        <v>1</v>
+        <v>0.1221</v>
       </c>
       <c r="I59">
+        <v>0.1221</v>
+      </c>
+      <c r="J59">
         <v>0</v>
       </c>
-      <c r="J59">
-        <v>1</v>
-      </c>
       <c r="K59">
-        <v>79.166700000000006</v>
+        <v>100</v>
       </c>
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.25">
@@ -2811,25 +2822,25 @@
         <v>16</v>
       </c>
       <c r="E60">
-        <v>0.52780000000000005</v>
+        <v>267</v>
       </c>
       <c r="F60">
-        <v>0.2606</v>
+        <v>0</v>
       </c>
       <c r="G60">
-        <v>0.73970000000000002</v>
+        <v>267</v>
       </c>
       <c r="H60">
-        <v>1</v>
+        <v>267</v>
       </c>
       <c r="I60">
+        <v>267</v>
+      </c>
+      <c r="J60">
         <v>0</v>
       </c>
-      <c r="J60">
-        <v>1</v>
-      </c>
       <c r="K60">
-        <v>79.166700000000006</v>
+        <v>100</v>
       </c>
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.25">
@@ -2846,25 +2857,25 @@
         <v>17</v>
       </c>
       <c r="E61">
-        <v>0.40849999999999997</v>
+        <v>95</v>
       </c>
       <c r="F61">
-        <v>0.26540000000000002</v>
+        <v>0</v>
       </c>
       <c r="G61">
-        <v>0.55120000000000002</v>
+        <v>95</v>
       </c>
       <c r="H61">
-        <v>1</v>
+        <v>95</v>
       </c>
       <c r="I61">
+        <v>95</v>
+      </c>
+      <c r="J61">
         <v>0</v>
       </c>
-      <c r="J61">
-        <v>1</v>
-      </c>
       <c r="K61">
-        <v>79.166700000000006</v>
+        <v>100</v>
       </c>
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.25">
@@ -2881,25 +2892,25 @@
         <v>18</v>
       </c>
       <c r="E62">
-        <v>0.42199999999999999</v>
+        <v>1.0959000000000001</v>
       </c>
       <c r="F62">
-        <v>0.26429999999999998</v>
+        <v>0</v>
       </c>
       <c r="G62">
-        <v>0.6724</v>
+        <v>1.0959000000000001</v>
       </c>
       <c r="H62">
-        <v>1</v>
+        <v>1.0959000000000001</v>
       </c>
       <c r="I62">
+        <v>1.0959000000000001</v>
+      </c>
+      <c r="J62">
         <v>0</v>
       </c>
-      <c r="J62">
-        <v>1</v>
-      </c>
       <c r="K62">
-        <v>79.166700000000006</v>
+        <v>100</v>
       </c>
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.25">
@@ -2916,25 +2927,25 @@
         <v>19</v>
       </c>
       <c r="E63">
-        <v>0.58799999999999997</v>
+        <v>5.4086999999999996</v>
       </c>
       <c r="F63">
-        <v>0.30270000000000002</v>
+        <v>0</v>
       </c>
       <c r="G63">
-        <v>0.83160000000000001</v>
+        <v>5.4086999999999996</v>
       </c>
       <c r="H63">
-        <v>1</v>
+        <v>5.4086999999999996</v>
       </c>
       <c r="I63">
+        <v>5.4086999999999996</v>
+      </c>
+      <c r="J63">
         <v>0</v>
       </c>
-      <c r="J63">
-        <v>1</v>
-      </c>
       <c r="K63">
-        <v>83.333299999999994</v>
+        <v>100</v>
       </c>
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.25">
@@ -2951,25 +2962,25 @@
         <v>20</v>
       </c>
       <c r="E64">
-        <v>0.432</v>
+        <v>6.5600000000000006E-2</v>
       </c>
       <c r="F64">
-        <v>0.26419999999999999</v>
+        <v>0</v>
       </c>
       <c r="G64">
-        <v>0.63829999999999998</v>
+        <v>6.5600000000000006E-2</v>
       </c>
       <c r="H64">
-        <v>1</v>
+        <v>6.5600000000000006E-2</v>
       </c>
       <c r="I64">
+        <v>6.5600000000000006E-2</v>
+      </c>
+      <c r="J64">
         <v>0</v>
       </c>
-      <c r="J64">
-        <v>1</v>
-      </c>
       <c r="K64">
-        <v>79.166700000000006</v>
+        <v>100</v>
       </c>
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.25">
@@ -2986,25 +2997,25 @@
         <v>14</v>
       </c>
       <c r="E65">
-        <v>0.61299999999999999</v>
+        <v>35.578899999999997</v>
       </c>
       <c r="F65">
-        <v>0.28589999999999999</v>
+        <v>4.9202000000000004</v>
       </c>
       <c r="G65">
-        <v>0.80379999999999996</v>
+        <v>40.073799999999999</v>
       </c>
       <c r="H65">
-        <v>1</v>
+        <v>43.893000000000001</v>
       </c>
       <c r="I65">
-        <v>0</v>
+        <v>27.6235</v>
       </c>
       <c r="J65">
-        <v>1</v>
+        <v>16.269400000000001</v>
       </c>
       <c r="K65">
-        <v>77.777799999999999</v>
+        <v>79.166700000000006</v>
       </c>
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.25">
@@ -3021,25 +3032,25 @@
         <v>15</v>
       </c>
       <c r="E66">
-        <v>0.51749999999999996</v>
+        <v>0.2384</v>
       </c>
       <c r="F66">
-        <v>0.25259999999999999</v>
+        <v>1.9300000000000001E-2</v>
       </c>
       <c r="G66">
-        <v>0.63959999999999995</v>
+        <v>0.25679999999999997</v>
       </c>
       <c r="H66">
-        <v>1</v>
+        <v>0.27700000000000002</v>
       </c>
       <c r="I66">
-        <v>0</v>
+        <v>0.19800000000000001</v>
       </c>
       <c r="J66">
-        <v>1</v>
+        <v>7.9000000000000001E-2</v>
       </c>
       <c r="K66">
-        <v>77.777799999999999</v>
+        <v>79.166700000000006</v>
       </c>
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.25">
@@ -3056,25 +3067,25 @@
         <v>16</v>
       </c>
       <c r="E67">
-        <v>0.56850000000000001</v>
+        <v>239.25</v>
       </c>
       <c r="F67">
-        <v>0.27629999999999999</v>
+        <v>16.419599999999999</v>
       </c>
       <c r="G67">
-        <v>0.71160000000000001</v>
+        <v>252.6</v>
       </c>
       <c r="H67">
-        <v>1</v>
+        <v>269</v>
       </c>
       <c r="I67">
-        <v>0</v>
+        <v>206</v>
       </c>
       <c r="J67">
-        <v>1</v>
+        <v>63</v>
       </c>
       <c r="K67">
-        <v>77.777799999999999</v>
+        <v>79.166700000000006</v>
       </c>
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.25">
@@ -3091,25 +3102,25 @@
         <v>17</v>
       </c>
       <c r="E68">
-        <v>0.47220000000000001</v>
+        <v>60.75</v>
       </c>
       <c r="F68">
-        <v>0.27250000000000002</v>
+        <v>10.882899999999999</v>
       </c>
       <c r="G68">
-        <v>0.63329999999999997</v>
+        <v>66.599999999999994</v>
       </c>
       <c r="H68">
-        <v>1</v>
+        <v>85</v>
       </c>
       <c r="I68">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="J68">
-        <v>1</v>
+        <v>41</v>
       </c>
       <c r="K68">
-        <v>77.777799999999999</v>
+        <v>79.166700000000006</v>
       </c>
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.25">
@@ -3126,25 +3137,25 @@
         <v>18</v>
       </c>
       <c r="E69">
-        <v>0.53939999999999999</v>
+        <v>2.4207000000000001</v>
       </c>
       <c r="F69">
-        <v>0.33850000000000002</v>
+        <v>0.73260000000000003</v>
       </c>
       <c r="G69">
-        <v>0.90180000000000005</v>
+        <v>3.1147</v>
       </c>
       <c r="H69">
-        <v>1</v>
+        <v>4.0228000000000002</v>
       </c>
       <c r="I69">
-        <v>0</v>
+        <v>1.2511000000000001</v>
       </c>
       <c r="J69">
-        <v>1</v>
+        <v>2.7717999999999998</v>
       </c>
       <c r="K69">
-        <v>77.777799999999999</v>
+        <v>79.166700000000006</v>
       </c>
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.25">
@@ -3161,25 +3172,25 @@
         <v>19</v>
       </c>
       <c r="E70">
-        <v>0.57269999999999999</v>
+        <v>8.6003000000000007</v>
       </c>
       <c r="F70">
-        <v>0.3906</v>
+        <v>1.9254</v>
       </c>
       <c r="G70">
-        <v>0.99829999999999997</v>
+        <v>10.1496</v>
       </c>
       <c r="H70">
-        <v>1</v>
+        <v>11.2204</v>
       </c>
       <c r="I70">
-        <v>0</v>
+        <v>4.8601999999999999</v>
       </c>
       <c r="J70">
-        <v>1</v>
+        <v>6.3601999999999999</v>
       </c>
       <c r="K70">
-        <v>77.777799999999999</v>
+        <v>83.333299999999994</v>
       </c>
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.25">
@@ -3196,25 +3207,25 @@
         <v>20</v>
       </c>
       <c r="E71">
-        <v>0.54890000000000005</v>
+        <v>9.6199999999999994E-2</v>
       </c>
       <c r="F71">
-        <v>0.30570000000000003</v>
+        <v>1.6400000000000001E-2</v>
       </c>
       <c r="G71">
-        <v>0.83299999999999996</v>
+        <v>0.109</v>
       </c>
       <c r="H71">
-        <v>1</v>
+        <v>0.13150000000000001</v>
       </c>
       <c r="I71">
-        <v>0</v>
+        <v>6.9400000000000003E-2</v>
       </c>
       <c r="J71">
-        <v>1</v>
+        <v>6.2100000000000002E-2</v>
       </c>
       <c r="K71">
-        <v>77.777799999999999</v>
+        <v>79.166700000000006</v>
       </c>
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.25">
@@ -3231,25 +3242,25 @@
         <v>14</v>
       </c>
       <c r="E72">
-        <v>0.4708</v>
+        <v>86.843400000000003</v>
       </c>
       <c r="F72">
-        <v>0.30030000000000001</v>
+        <v>3.6960999999999999</v>
       </c>
       <c r="G72">
-        <v>0.66990000000000005</v>
+        <v>89.310400000000001</v>
       </c>
       <c r="H72">
-        <v>1</v>
+        <v>91.846599999999995</v>
       </c>
       <c r="I72">
-        <v>0</v>
+        <v>78.918499999999995</v>
       </c>
       <c r="J72">
-        <v>1</v>
+        <v>12.928100000000001</v>
       </c>
       <c r="K72">
-        <v>81.25</v>
+        <v>77.777799999999999</v>
       </c>
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.25">
@@ -3266,25 +3277,25 @@
         <v>15</v>
       </c>
       <c r="E73">
-        <v>0.41249999999999998</v>
+        <v>0.11749999999999999</v>
       </c>
       <c r="F73">
-        <v>0.26450000000000001</v>
+        <v>5.4000000000000003E-3</v>
       </c>
       <c r="G73">
-        <v>0.5968</v>
+        <v>0.1201</v>
       </c>
       <c r="H73">
-        <v>1</v>
+        <v>0.12770000000000001</v>
       </c>
       <c r="I73">
-        <v>0</v>
+        <v>0.1065</v>
       </c>
       <c r="J73">
-        <v>1</v>
+        <v>2.12E-2</v>
       </c>
       <c r="K73">
-        <v>81.25</v>
+        <v>77.777799999999999</v>
       </c>
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.25">
@@ -3301,25 +3312,25 @@
         <v>16</v>
       </c>
       <c r="E74">
-        <v>0.4743</v>
+        <v>242.4444</v>
       </c>
       <c r="F74">
-        <v>0.28129999999999999</v>
+        <v>11.880100000000001</v>
       </c>
       <c r="G74">
-        <v>0.61760000000000004</v>
+        <v>248.6</v>
       </c>
       <c r="H74">
-        <v>1</v>
+        <v>261</v>
       </c>
       <c r="I74">
-        <v>0</v>
+        <v>218</v>
       </c>
       <c r="J74">
-        <v>1</v>
+        <v>43</v>
       </c>
       <c r="K74">
-        <v>81.25</v>
+        <v>77.777799999999999</v>
       </c>
     </row>
     <row r="75" spans="1:11" x14ac:dyDescent="0.25">
@@ -3336,25 +3347,25 @@
         <v>17</v>
       </c>
       <c r="E75">
-        <v>0.67100000000000004</v>
+        <v>85</v>
       </c>
       <c r="F75">
-        <v>0.25280000000000002</v>
+        <v>9.8093000000000004</v>
       </c>
       <c r="G75">
-        <v>0.81130000000000002</v>
+        <v>90.8</v>
       </c>
       <c r="H75">
-        <v>1</v>
+        <v>104</v>
       </c>
       <c r="I75">
-        <v>0</v>
+        <v>68</v>
       </c>
       <c r="J75">
-        <v>1</v>
+        <v>36</v>
       </c>
       <c r="K75">
-        <v>81.25</v>
+        <v>77.777799999999999</v>
       </c>
     </row>
     <row r="76" spans="1:11" x14ac:dyDescent="0.25">
@@ -3371,25 +3382,25 @@
         <v>18</v>
       </c>
       <c r="E76">
-        <v>0.57820000000000005</v>
+        <v>1.1153</v>
       </c>
       <c r="F76">
-        <v>0.29780000000000001</v>
+        <v>0.34410000000000002</v>
       </c>
       <c r="G76">
-        <v>0.71740000000000004</v>
+        <v>1.4837</v>
       </c>
       <c r="H76">
-        <v>1</v>
+        <v>1.5835999999999999</v>
       </c>
       <c r="I76">
-        <v>0</v>
+        <v>0.56679999999999997</v>
       </c>
       <c r="J76">
-        <v>1</v>
+        <v>1.0166999999999999</v>
       </c>
       <c r="K76">
-        <v>81.25</v>
+        <v>77.777799999999999</v>
       </c>
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.25">
@@ -3406,25 +3417,25 @@
         <v>19</v>
       </c>
       <c r="E77">
-        <v>0.63470000000000004</v>
+        <v>6.8219000000000003</v>
       </c>
       <c r="F77">
-        <v>0.32079999999999997</v>
+        <v>2.0434999999999999</v>
       </c>
       <c r="G77">
-        <v>0.99639999999999995</v>
+        <v>9.0484000000000009</v>
       </c>
       <c r="H77">
-        <v>1</v>
+        <v>9.0571000000000002</v>
       </c>
       <c r="I77">
-        <v>0</v>
+        <v>3.8258000000000001</v>
       </c>
       <c r="J77">
-        <v>1</v>
+        <v>5.2313000000000001</v>
       </c>
       <c r="K77">
-        <v>93.75</v>
+        <v>77.777799999999999</v>
       </c>
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.25">
@@ -3441,25 +3452,25 @@
         <v>20</v>
       </c>
       <c r="E78">
-        <v>0.64610000000000001</v>
+        <v>6.0299999999999999E-2</v>
       </c>
       <c r="F78">
-        <v>0.27660000000000001</v>
+        <v>5.5999999999999999E-3</v>
       </c>
       <c r="G78">
-        <v>0.81989999999999996</v>
+        <v>6.5500000000000003E-2</v>
       </c>
       <c r="H78">
-        <v>1</v>
+        <v>6.8599999999999994E-2</v>
       </c>
       <c r="I78">
-        <v>0</v>
+        <v>5.0200000000000002E-2</v>
       </c>
       <c r="J78">
-        <v>1</v>
+        <v>1.84E-2</v>
       </c>
       <c r="K78">
-        <v>81.25</v>
+        <v>77.777799999999999</v>
       </c>
     </row>
     <row r="79" spans="1:11" x14ac:dyDescent="0.25">
@@ -3476,22 +3487,22 @@
         <v>14</v>
       </c>
       <c r="E79">
-        <v>0.57010000000000005</v>
+        <v>104.089</v>
       </c>
       <c r="F79">
-        <v>0.2762</v>
+        <v>12.7098</v>
       </c>
       <c r="G79">
-        <v>0.82730000000000004</v>
+        <v>115.92270000000001</v>
       </c>
       <c r="H79">
-        <v>1</v>
+        <v>123.8685</v>
       </c>
       <c r="I79">
-        <v>0</v>
+        <v>77.8596</v>
       </c>
       <c r="J79">
-        <v>1</v>
+        <v>46.008899999999997</v>
       </c>
       <c r="K79">
         <v>78.571399999999997</v>
@@ -3511,22 +3522,22 @@
         <v>15</v>
       </c>
       <c r="E80">
-        <v>0.433</v>
+        <v>0.1106</v>
       </c>
       <c r="F80">
-        <v>0.28370000000000001</v>
+        <v>1.4999999999999999E-2</v>
       </c>
       <c r="G80">
-        <v>0.71160000000000001</v>
+        <v>0.12529999999999999</v>
       </c>
       <c r="H80">
-        <v>1</v>
+        <v>0.14050000000000001</v>
       </c>
       <c r="I80">
-        <v>0</v>
+        <v>8.77E-2</v>
       </c>
       <c r="J80">
-        <v>1</v>
+        <v>5.28E-2</v>
       </c>
       <c r="K80">
         <v>78.571399999999997</v>
@@ -3546,22 +3557,22 @@
         <v>16</v>
       </c>
       <c r="E81">
-        <v>0.58379999999999999</v>
+        <v>250.1071</v>
       </c>
       <c r="F81">
-        <v>0.2399</v>
+        <v>13.1972</v>
       </c>
       <c r="G81">
-        <v>0.79269999999999996</v>
+        <v>261.60000000000002</v>
       </c>
       <c r="H81">
-        <v>1</v>
+        <v>273</v>
       </c>
       <c r="I81">
-        <v>0</v>
+        <v>218</v>
       </c>
       <c r="J81">
-        <v>1</v>
+        <v>55</v>
       </c>
       <c r="K81">
         <v>78.571399999999997</v>
@@ -3581,22 +3592,22 @@
         <v>17</v>
       </c>
       <c r="E82">
-        <v>0.53810000000000002</v>
+        <v>82.678600000000003</v>
       </c>
       <c r="F82">
-        <v>0.2384</v>
+        <v>10.4917</v>
       </c>
       <c r="G82">
-        <v>0.76819999999999999</v>
+        <v>92.8</v>
       </c>
       <c r="H82">
-        <v>1</v>
+        <v>103</v>
       </c>
       <c r="I82">
-        <v>0</v>
+        <v>59</v>
       </c>
       <c r="J82">
-        <v>1</v>
+        <v>44</v>
       </c>
       <c r="K82">
         <v>78.571399999999997</v>
@@ -3616,22 +3627,22 @@
         <v>18</v>
       </c>
       <c r="E83">
-        <v>0.41980000000000001</v>
+        <v>0.93740000000000001</v>
       </c>
       <c r="F83">
-        <v>0.2472</v>
+        <v>0.2208</v>
       </c>
       <c r="G83">
-        <v>0.59650000000000003</v>
+        <v>1.0952</v>
       </c>
       <c r="H83">
-        <v>1</v>
+        <v>1.4556</v>
       </c>
       <c r="I83">
-        <v>0</v>
+        <v>0.5625</v>
       </c>
       <c r="J83">
-        <v>1</v>
+        <v>0.89300000000000002</v>
       </c>
       <c r="K83">
         <v>78.571399999999997</v>
@@ -3651,22 +3662,22 @@
         <v>19</v>
       </c>
       <c r="E84">
-        <v>0.45569999999999999</v>
+        <v>5.4305000000000003</v>
       </c>
       <c r="F84">
-        <v>0.33379999999999999</v>
+        <v>1.1353</v>
       </c>
       <c r="G84">
-        <v>0.8569</v>
+        <v>6.7949000000000002</v>
       </c>
       <c r="H84">
-        <v>1</v>
+        <v>7.2816000000000001</v>
       </c>
       <c r="I84">
-        <v>0</v>
+        <v>3.8809</v>
       </c>
       <c r="J84">
-        <v>1</v>
+        <v>3.4007000000000001</v>
       </c>
       <c r="K84">
         <v>85.714299999999994</v>
@@ -3686,22 +3697,22 @@
         <v>20</v>
       </c>
       <c r="E85">
-        <v>0.49840000000000001</v>
+        <v>5.96E-2</v>
       </c>
       <c r="F85">
-        <v>0.245</v>
+        <v>8.8999999999999999E-3</v>
       </c>
       <c r="G85">
-        <v>0.71540000000000004</v>
+        <v>6.7400000000000002E-2</v>
       </c>
       <c r="H85">
-        <v>1</v>
+        <v>7.7700000000000005E-2</v>
       </c>
       <c r="I85">
-        <v>0</v>
+        <v>4.1500000000000002E-2</v>
       </c>
       <c r="J85">
-        <v>1</v>
+        <v>3.6200000000000003E-2</v>
       </c>
       <c r="K85">
         <v>78.571399999999997</v>
@@ -3721,22 +3732,22 @@
         <v>14</v>
       </c>
       <c r="E86">
-        <v>0.61170000000000002</v>
+        <v>92.930300000000003</v>
       </c>
       <c r="F86">
-        <v>0.30680000000000002</v>
+        <v>8.4891000000000005</v>
       </c>
       <c r="G86">
-        <v>0.96630000000000005</v>
+        <v>98.559200000000004</v>
       </c>
       <c r="H86">
-        <v>1</v>
+        <v>107.89</v>
       </c>
       <c r="I86">
-        <v>0</v>
+        <v>79.623800000000003</v>
       </c>
       <c r="J86">
-        <v>1</v>
+        <v>28.266100000000002</v>
       </c>
       <c r="K86">
         <v>81.25</v>
@@ -3756,22 +3767,22 @@
         <v>15</v>
       </c>
       <c r="E87">
-        <v>0.37869999999999998</v>
+        <v>0.1186</v>
       </c>
       <c r="F87">
-        <v>0.25600000000000001</v>
+        <v>1.41E-2</v>
       </c>
       <c r="G87">
-        <v>0.51290000000000002</v>
+        <v>0.12839999999999999</v>
       </c>
       <c r="H87">
-        <v>1</v>
+        <v>0.14990000000000001</v>
       </c>
       <c r="I87">
-        <v>0</v>
+        <v>9.6699999999999994E-2</v>
       </c>
       <c r="J87">
-        <v>1</v>
+        <v>5.3199999999999997E-2</v>
       </c>
       <c r="K87">
         <v>81.25</v>
@@ -3791,22 +3802,22 @@
         <v>16</v>
       </c>
       <c r="E88">
-        <v>0.57369999999999999</v>
+        <v>245.125</v>
       </c>
       <c r="F88">
-        <v>0.28599999999999998</v>
+        <v>9.5647000000000002</v>
       </c>
       <c r="G88">
-        <v>0.76</v>
+        <v>250</v>
       </c>
       <c r="H88">
-        <v>1</v>
+        <v>263</v>
       </c>
       <c r="I88">
-        <v>0</v>
+        <v>229</v>
       </c>
       <c r="J88">
-        <v>1</v>
+        <v>34</v>
       </c>
       <c r="K88">
         <v>81.25</v>
@@ -3826,22 +3837,22 @@
         <v>17</v>
       </c>
       <c r="E89">
-        <v>0.55000000000000004</v>
+        <v>81.5625</v>
       </c>
       <c r="F89">
-        <v>0.31950000000000001</v>
+        <v>13.397600000000001</v>
       </c>
       <c r="G89">
-        <v>0.8</v>
+        <v>89</v>
       </c>
       <c r="H89">
-        <v>1</v>
+        <v>99</v>
       </c>
       <c r="I89">
-        <v>0</v>
+        <v>46</v>
       </c>
       <c r="J89">
-        <v>1</v>
+        <v>53</v>
       </c>
       <c r="K89">
         <v>81.25</v>
@@ -3861,22 +3872,22 @@
         <v>18</v>
       </c>
       <c r="E90">
-        <v>0.49459999999999998</v>
+        <v>1.2367999999999999</v>
       </c>
       <c r="F90">
-        <v>0.29530000000000001</v>
+        <v>0.4446</v>
       </c>
       <c r="G90">
-        <v>0.81689999999999996</v>
+        <v>1.4448000000000001</v>
       </c>
       <c r="H90">
-        <v>1</v>
+        <v>1.8667</v>
       </c>
       <c r="I90">
-        <v>0</v>
+        <v>0.3735</v>
       </c>
       <c r="J90">
-        <v>1</v>
+        <v>1.4932000000000001</v>
       </c>
       <c r="K90">
         <v>81.25</v>
@@ -3896,25 +3907,25 @@
         <v>19</v>
       </c>
       <c r="E91">
-        <v>0.47770000000000001</v>
+        <v>6.2047999999999996</v>
       </c>
       <c r="F91">
-        <v>0.32879999999999998</v>
+        <v>1.7777000000000001</v>
       </c>
       <c r="G91">
-        <v>0.99229999999999996</v>
+        <v>8.2089999999999996</v>
       </c>
       <c r="H91">
-        <v>1</v>
+        <v>8.2288999999999994</v>
       </c>
       <c r="I91">
-        <v>0</v>
+        <v>2.6875</v>
       </c>
       <c r="J91">
-        <v>1</v>
+        <v>5.5414000000000003</v>
       </c>
       <c r="K91">
-        <v>81.25</v>
+        <v>93.75</v>
       </c>
     </row>
     <row r="92" spans="1:11" x14ac:dyDescent="0.25">
@@ -3931,22 +3942,22 @@
         <v>20</v>
       </c>
       <c r="E92">
-        <v>0.56640000000000001</v>
+        <v>6.93E-2</v>
       </c>
       <c r="F92">
-        <v>0.28849999999999998</v>
+        <v>1.1299999999999999E-2</v>
       </c>
       <c r="G92">
-        <v>0.89659999999999995</v>
+        <v>7.6399999999999996E-2</v>
       </c>
       <c r="H92">
-        <v>1</v>
+        <v>8.3799999999999999E-2</v>
       </c>
       <c r="I92">
-        <v>0</v>
+        <v>4.2900000000000001E-2</v>
       </c>
       <c r="J92">
-        <v>1</v>
+        <v>4.0800000000000003E-2</v>
       </c>
       <c r="K92">
         <v>81.25</v>
@@ -3966,25 +3977,25 @@
         <v>14</v>
       </c>
       <c r="E93">
-        <v>0.4143</v>
+        <v>103.0831</v>
       </c>
       <c r="F93">
-        <v>0.26519999999999999</v>
+        <v>12.114000000000001</v>
       </c>
       <c r="G93">
-        <v>0.5544</v>
+        <v>117.0852</v>
       </c>
       <c r="H93">
-        <v>1</v>
+        <v>118.4145</v>
       </c>
       <c r="I93">
-        <v>0</v>
+        <v>78.930400000000006</v>
       </c>
       <c r="J93">
-        <v>1</v>
+        <v>39.484099999999998</v>
       </c>
       <c r="K93">
-        <v>78.260900000000007</v>
+        <v>81.25</v>
       </c>
     </row>
     <row r="94" spans="1:11" x14ac:dyDescent="0.25">
@@ -4001,25 +4012,25 @@
         <v>15</v>
       </c>
       <c r="E94">
-        <v>0.4924</v>
+        <v>0.1101</v>
       </c>
       <c r="F94">
-        <v>0.2326</v>
+        <v>1.4200000000000001E-2</v>
       </c>
       <c r="G94">
-        <v>0.68979999999999997</v>
+        <v>0.1176</v>
       </c>
       <c r="H94">
-        <v>1</v>
+        <v>0.14449999999999999</v>
       </c>
       <c r="I94">
-        <v>0</v>
+        <v>8.9200000000000002E-2</v>
       </c>
       <c r="J94">
-        <v>1</v>
+        <v>5.5300000000000002E-2</v>
       </c>
       <c r="K94">
-        <v>78.260900000000007</v>
+        <v>81.25</v>
       </c>
     </row>
     <row r="95" spans="1:11" x14ac:dyDescent="0.25">
@@ -4036,25 +4047,25 @@
         <v>16</v>
       </c>
       <c r="E95">
-        <v>0.42320000000000002</v>
+        <v>234.6875</v>
       </c>
       <c r="F95">
-        <v>0.23980000000000001</v>
+        <v>14.299099999999999</v>
       </c>
       <c r="G95">
-        <v>0.56330000000000002</v>
+        <v>244</v>
       </c>
       <c r="H95">
-        <v>1</v>
+        <v>256</v>
       </c>
       <c r="I95">
-        <v>0</v>
+        <v>206</v>
       </c>
       <c r="J95">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="K95">
-        <v>78.260900000000007</v>
+        <v>81.25</v>
       </c>
     </row>
     <row r="96" spans="1:11" x14ac:dyDescent="0.25">
@@ -4071,25 +4082,25 @@
         <v>17</v>
       </c>
       <c r="E96">
-        <v>0.16669999999999999</v>
+        <v>82.75</v>
       </c>
       <c r="F96">
-        <v>0.25219999999999998</v>
+        <v>7.9882999999999997</v>
       </c>
       <c r="G96">
-        <v>0.2</v>
+        <v>89</v>
       </c>
       <c r="H96">
-        <v>1</v>
+        <v>94</v>
       </c>
       <c r="I96">
-        <v>0</v>
+        <v>69</v>
       </c>
       <c r="J96">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="K96">
-        <v>78.260900000000007</v>
+        <v>81.25</v>
       </c>
     </row>
     <row r="97" spans="1:11" x14ac:dyDescent="0.25">
@@ -4106,25 +4117,25 @@
         <v>18</v>
       </c>
       <c r="E97">
-        <v>0.25650000000000001</v>
+        <v>1.1768000000000001</v>
       </c>
       <c r="F97">
-        <v>0.30530000000000002</v>
+        <v>0.4904</v>
       </c>
       <c r="G97">
-        <v>0.51570000000000005</v>
+        <v>1.7121</v>
       </c>
       <c r="H97">
-        <v>1</v>
+        <v>2.0163000000000002</v>
       </c>
       <c r="I97">
-        <v>0</v>
+        <v>0.3553</v>
       </c>
       <c r="J97">
-        <v>1</v>
+        <v>1.661</v>
       </c>
       <c r="K97">
-        <v>78.260900000000007</v>
+        <v>81.25</v>
       </c>
     </row>
     <row r="98" spans="1:11" x14ac:dyDescent="0.25">
@@ -4141,25 +4152,25 @@
         <v>19</v>
       </c>
       <c r="E98">
-        <v>0.4214</v>
+        <v>6.0483000000000002</v>
       </c>
       <c r="F98">
-        <v>0.36449999999999999</v>
+        <v>2.1154999999999999</v>
       </c>
       <c r="G98">
-        <v>0.86599999999999999</v>
+        <v>9.3589000000000002</v>
       </c>
       <c r="H98">
-        <v>1</v>
+        <v>9.4086999999999996</v>
       </c>
       <c r="I98">
-        <v>0</v>
+        <v>2.9750999999999999</v>
       </c>
       <c r="J98">
-        <v>1</v>
+        <v>6.4336000000000002</v>
       </c>
       <c r="K98">
-        <v>78.260900000000007</v>
+        <v>81.25</v>
       </c>
     </row>
     <row r="99" spans="1:11" x14ac:dyDescent="0.25">
@@ -4176,25 +4187,25 @@
         <v>20</v>
       </c>
       <c r="E99">
-        <v>0.30030000000000001</v>
+        <v>6.5699999999999995E-2</v>
       </c>
       <c r="F99">
-        <v>0.26079999999999998</v>
+        <v>1.32E-2</v>
       </c>
       <c r="G99">
-        <v>0.51759999999999995</v>
+        <v>8.0699999999999994E-2</v>
       </c>
       <c r="H99">
-        <v>1</v>
+        <v>8.5400000000000004E-2</v>
       </c>
       <c r="I99">
-        <v>0</v>
+        <v>3.9800000000000002E-2</v>
       </c>
       <c r="J99">
-        <v>1</v>
+        <v>4.5600000000000002E-2</v>
       </c>
       <c r="K99">
-        <v>78.260900000000007</v>
+        <v>81.25</v>
       </c>
     </row>
     <row r="100" spans="1:11" x14ac:dyDescent="0.25">
@@ -4211,25 +4222,25 @@
         <v>14</v>
       </c>
       <c r="E100">
-        <v>0.71709999999999996</v>
+        <v>56.136699999999998</v>
       </c>
       <c r="F100">
-        <v>0.30149999999999999</v>
+        <v>5.0132000000000003</v>
       </c>
       <c r="G100">
-        <v>0.93669999999999998</v>
+        <v>58.784500000000001</v>
       </c>
       <c r="H100">
-        <v>1</v>
+        <v>67.207800000000006</v>
       </c>
       <c r="I100">
-        <v>0</v>
+        <v>48.304600000000001</v>
       </c>
       <c r="J100">
-        <v>1</v>
+        <v>18.903199999999998</v>
       </c>
       <c r="K100">
-        <v>80</v>
+        <v>78.260900000000007</v>
       </c>
     </row>
     <row r="101" spans="1:11" x14ac:dyDescent="0.25">
@@ -4246,25 +4257,25 @@
         <v>15</v>
       </c>
       <c r="E101">
-        <v>0.21659999999999999</v>
+        <v>0.15859999999999999</v>
       </c>
       <c r="F101">
-        <v>0.29099999999999998</v>
+        <v>1.4500000000000001E-2</v>
       </c>
       <c r="G101">
-        <v>0.2462</v>
+        <v>0.17100000000000001</v>
       </c>
       <c r="H101">
-        <v>1</v>
+        <v>0.1903</v>
       </c>
       <c r="I101">
-        <v>0</v>
+        <v>0.12790000000000001</v>
       </c>
       <c r="J101">
-        <v>1</v>
+        <v>6.2399999999999997E-2</v>
       </c>
       <c r="K101">
-        <v>80</v>
+        <v>78.260900000000007</v>
       </c>
     </row>
     <row r="102" spans="1:11" x14ac:dyDescent="0.25">
@@ -4281,25 +4292,25 @@
         <v>16</v>
       </c>
       <c r="E102">
-        <v>0.45079999999999998</v>
+        <v>243.3913</v>
       </c>
       <c r="F102">
-        <v>0.34039999999999998</v>
+        <v>14.385199999999999</v>
       </c>
       <c r="G102">
-        <v>0.72699999999999998</v>
+        <v>251.8</v>
       </c>
       <c r="H102">
-        <v>1</v>
+        <v>278</v>
       </c>
       <c r="I102">
-        <v>0</v>
+        <v>218</v>
       </c>
       <c r="J102">
-        <v>1</v>
+        <v>60</v>
       </c>
       <c r="K102">
-        <v>80</v>
+        <v>78.260900000000007</v>
       </c>
     </row>
     <row r="103" spans="1:11" x14ac:dyDescent="0.25">
@@ -4316,25 +4327,25 @@
         <v>17</v>
       </c>
       <c r="E103">
-        <v>0.38169999999999998</v>
+        <v>54</v>
       </c>
       <c r="F103">
-        <v>0.31480000000000002</v>
+        <v>4.5396999999999998</v>
       </c>
       <c r="G103">
-        <v>0.69410000000000005</v>
+        <v>54.6</v>
       </c>
       <c r="H103">
-        <v>1</v>
+        <v>69</v>
       </c>
       <c r="I103">
-        <v>0</v>
+        <v>51</v>
       </c>
       <c r="J103">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="K103">
-        <v>80</v>
+        <v>78.260900000000007</v>
       </c>
     </row>
     <row r="104" spans="1:11" x14ac:dyDescent="0.25">
@@ -4351,25 +4362,25 @@
         <v>18</v>
       </c>
       <c r="E104">
-        <v>0.14729999999999999</v>
+        <v>0.97430000000000005</v>
       </c>
       <c r="F104">
-        <v>0.32629999999999998</v>
+        <v>0.57050000000000001</v>
       </c>
       <c r="G104">
-        <v>5.8000000000000003E-2</v>
+        <v>1.4585999999999999</v>
       </c>
       <c r="H104">
-        <v>1</v>
+        <v>2.3635000000000002</v>
       </c>
       <c r="I104">
-        <v>0</v>
+        <v>0.495</v>
       </c>
       <c r="J104">
-        <v>1</v>
+        <v>1.8685</v>
       </c>
       <c r="K104">
-        <v>80</v>
+        <v>78.260900000000007</v>
       </c>
     </row>
     <row r="105" spans="1:11" x14ac:dyDescent="0.25">
@@ -4386,25 +4397,25 @@
         <v>19</v>
       </c>
       <c r="E105">
-        <v>0.2036</v>
+        <v>5.1037999999999997</v>
       </c>
       <c r="F105">
-        <v>0.32429999999999998</v>
+        <v>1.1756</v>
       </c>
       <c r="G105">
-        <v>0.21490000000000001</v>
+        <v>6.5378999999999996</v>
       </c>
       <c r="H105">
-        <v>1</v>
+        <v>6.9701000000000004</v>
       </c>
       <c r="I105">
-        <v>0</v>
+        <v>3.7444999999999999</v>
       </c>
       <c r="J105">
-        <v>1</v>
+        <v>3.2256</v>
       </c>
       <c r="K105">
-        <v>80</v>
+        <v>78.260900000000007</v>
       </c>
     </row>
     <row r="106" spans="1:11" x14ac:dyDescent="0.25">
@@ -4421,25 +4432,25 @@
         <v>20</v>
       </c>
       <c r="E106">
-        <v>0.19109999999999999</v>
+        <v>6.1899999999999997E-2</v>
       </c>
       <c r="F106">
-        <v>0.28999999999999998</v>
+        <v>1.72E-2</v>
       </c>
       <c r="G106">
-        <v>0.21859999999999999</v>
+        <v>7.6300000000000007E-2</v>
       </c>
       <c r="H106">
-        <v>1</v>
+        <v>0.1081</v>
       </c>
       <c r="I106">
-        <v>0</v>
+        <v>4.2099999999999999E-2</v>
       </c>
       <c r="J106">
-        <v>1</v>
+        <v>6.6000000000000003E-2</v>
       </c>
       <c r="K106">
-        <v>80</v>
+        <v>78.260900000000007</v>
       </c>
     </row>
     <row r="107" spans="1:11" x14ac:dyDescent="0.25">
@@ -4456,25 +4467,25 @@
         <v>14</v>
       </c>
       <c r="E107">
-        <v>0.6149</v>
+        <v>56.922800000000002</v>
       </c>
       <c r="F107">
-        <v>0.30570000000000003</v>
+        <v>13.857900000000001</v>
       </c>
       <c r="G107">
-        <v>0.88800000000000001</v>
+        <v>67.015299999999996</v>
       </c>
       <c r="H107">
-        <v>1</v>
+        <v>69.925600000000003</v>
       </c>
       <c r="I107">
-        <v>0</v>
+        <v>23.9636</v>
       </c>
       <c r="J107">
-        <v>1</v>
+        <v>45.962000000000003</v>
       </c>
       <c r="K107">
-        <v>78.125</v>
+        <v>80</v>
       </c>
     </row>
     <row r="108" spans="1:11" x14ac:dyDescent="0.25">
@@ -4491,25 +4502,25 @@
         <v>15</v>
       </c>
       <c r="E108">
-        <v>0.2944</v>
+        <v>0.1673</v>
       </c>
       <c r="F108">
-        <v>0.29380000000000001</v>
+        <v>5.7799999999999997E-2</v>
       </c>
       <c r="G108">
-        <v>0.53500000000000003</v>
+        <v>0.17319999999999999</v>
       </c>
       <c r="H108">
-        <v>1</v>
+        <v>0.32300000000000001</v>
       </c>
       <c r="I108">
-        <v>0</v>
+        <v>0.12429999999999999</v>
       </c>
       <c r="J108">
-        <v>1</v>
+        <v>0.1988</v>
       </c>
       <c r="K108">
-        <v>78.125</v>
+        <v>80</v>
       </c>
     </row>
     <row r="109" spans="1:11" x14ac:dyDescent="0.25">
@@ -4526,25 +4537,25 @@
         <v>16</v>
       </c>
       <c r="E109">
-        <v>0.5524</v>
+        <v>229.4</v>
       </c>
       <c r="F109">
-        <v>0.248</v>
+        <v>21.446999999999999</v>
       </c>
       <c r="G109">
-        <v>0.77849999999999997</v>
+        <v>246.8</v>
       </c>
       <c r="H109">
-        <v>1</v>
+        <v>264</v>
       </c>
       <c r="I109">
-        <v>0</v>
+        <v>201</v>
       </c>
       <c r="J109">
-        <v>1</v>
+        <v>63</v>
       </c>
       <c r="K109">
-        <v>78.125</v>
+        <v>80</v>
       </c>
     </row>
     <row r="110" spans="1:11" x14ac:dyDescent="0.25">
@@ -4561,25 +4572,25 @@
         <v>17</v>
       </c>
       <c r="E110">
-        <v>0.34050000000000002</v>
+        <v>63.466700000000003</v>
       </c>
       <c r="F110">
-        <v>0.191</v>
+        <v>16.0535</v>
       </c>
       <c r="G110">
-        <v>0.47370000000000001</v>
+        <v>79.400000000000006</v>
       </c>
       <c r="H110">
-        <v>1</v>
+        <v>95</v>
       </c>
       <c r="I110">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="J110">
-        <v>1</v>
+        <v>51</v>
       </c>
       <c r="K110">
-        <v>81.25</v>
+        <v>80</v>
       </c>
     </row>
     <row r="111" spans="1:11" x14ac:dyDescent="0.25">
@@ -4596,25 +4607,25 @@
         <v>18</v>
       </c>
       <c r="E111">
-        <v>0.1996</v>
+        <v>4.5091000000000001</v>
       </c>
       <c r="F111">
-        <v>0.29630000000000001</v>
+        <v>9.4898000000000007</v>
       </c>
       <c r="G111">
-        <v>0.20469999999999999</v>
+        <v>1.9125000000000001</v>
       </c>
       <c r="H111">
-        <v>1</v>
+        <v>29.304300000000001</v>
       </c>
       <c r="I111">
-        <v>0</v>
+        <v>0.22450000000000001</v>
       </c>
       <c r="J111">
-        <v>1</v>
+        <v>29.079799999999999</v>
       </c>
       <c r="K111">
-        <v>78.125</v>
+        <v>80</v>
       </c>
     </row>
     <row r="112" spans="1:11" x14ac:dyDescent="0.25">
@@ -4631,25 +4642,25 @@
         <v>19</v>
       </c>
       <c r="E112">
-        <v>0.31159999999999999</v>
+        <v>8.1325000000000003</v>
       </c>
       <c r="F112">
-        <v>0.2777</v>
+        <v>9.1972000000000005</v>
       </c>
       <c r="G112">
-        <v>0.32419999999999999</v>
+        <v>8.4514999999999993</v>
       </c>
       <c r="H112">
-        <v>1</v>
+        <v>30.717500000000001</v>
       </c>
       <c r="I112">
-        <v>0</v>
+        <v>2.3584000000000001</v>
       </c>
       <c r="J112">
-        <v>1</v>
+        <v>28.359000000000002</v>
       </c>
       <c r="K112">
-        <v>78.125</v>
+        <v>80</v>
       </c>
     </row>
     <row r="113" spans="1:11" x14ac:dyDescent="0.25">
@@ -4666,25 +4677,25 @@
         <v>20</v>
       </c>
       <c r="E113">
-        <v>0.48220000000000002</v>
+        <v>7.4700000000000003E-2</v>
       </c>
       <c r="F113">
-        <v>0.3014</v>
+        <v>4.7300000000000002E-2</v>
       </c>
       <c r="G113">
-        <v>0.78659999999999997</v>
+        <v>7.9200000000000007E-2</v>
       </c>
       <c r="H113">
-        <v>1</v>
+        <v>0.20660000000000001</v>
       </c>
       <c r="I113">
-        <v>0</v>
+        <v>4.3499999999999997E-2</v>
       </c>
       <c r="J113">
-        <v>1</v>
+        <v>0.16309999999999999</v>
       </c>
       <c r="K113">
-        <v>78.125</v>
+        <v>80</v>
       </c>
     </row>
     <row r="114" spans="1:11" x14ac:dyDescent="0.25">
@@ -4701,25 +4712,25 @@
         <v>14</v>
       </c>
       <c r="E114">
-        <v>0.55300000000000005</v>
+        <v>56.307099999999998</v>
       </c>
       <c r="F114">
-        <v>0.30109999999999998</v>
+        <v>12.7712</v>
       </c>
       <c r="G114">
-        <v>0.89190000000000003</v>
+        <v>67.715100000000007</v>
       </c>
       <c r="H114">
-        <v>1</v>
+        <v>72.394199999999998</v>
       </c>
       <c r="I114">
-        <v>0</v>
+        <v>30.618200000000002</v>
       </c>
       <c r="J114">
-        <v>1</v>
+        <v>41.776000000000003</v>
       </c>
       <c r="K114">
-        <v>76.470600000000005</v>
+        <v>78.125</v>
       </c>
     </row>
     <row r="115" spans="1:11" x14ac:dyDescent="0.25">
@@ -4736,25 +4747,25 @@
         <v>15</v>
       </c>
       <c r="E115">
-        <v>0.48870000000000002</v>
+        <v>0.17979999999999999</v>
       </c>
       <c r="F115">
-        <v>0.2545</v>
+        <v>5.1299999999999998E-2</v>
       </c>
       <c r="G115">
-        <v>0.68220000000000003</v>
+        <v>0.2218</v>
       </c>
       <c r="H115">
-        <v>1</v>
+        <v>0.30299999999999999</v>
       </c>
       <c r="I115">
-        <v>0</v>
+        <v>0.1285</v>
       </c>
       <c r="J115">
-        <v>1</v>
+        <v>0.17449999999999999</v>
       </c>
       <c r="K115">
-        <v>76.470600000000005</v>
+        <v>78.125</v>
       </c>
     </row>
     <row r="116" spans="1:11" x14ac:dyDescent="0.25">
@@ -4771,25 +4782,25 @@
         <v>16</v>
       </c>
       <c r="E116">
-        <v>0.72729999999999995</v>
+        <v>240.90620000000001</v>
       </c>
       <c r="F116">
-        <v>0.24490000000000001</v>
+        <v>16.119399999999999</v>
       </c>
       <c r="G116">
-        <v>0.92730000000000001</v>
+        <v>255.6</v>
       </c>
       <c r="H116">
-        <v>1</v>
+        <v>270</v>
       </c>
       <c r="I116">
-        <v>0</v>
+        <v>205</v>
       </c>
       <c r="J116">
-        <v>1</v>
+        <v>65</v>
       </c>
       <c r="K116">
-        <v>82.352900000000005</v>
+        <v>78.125</v>
       </c>
     </row>
     <row r="117" spans="1:11" x14ac:dyDescent="0.25">
@@ -4806,25 +4817,25 @@
         <v>17</v>
       </c>
       <c r="E117">
-        <v>0.3856</v>
+        <v>57.875</v>
       </c>
       <c r="F117">
-        <v>0.3024</v>
+        <v>14.518800000000001</v>
       </c>
       <c r="G117">
-        <v>0.75560000000000005</v>
+        <v>68</v>
       </c>
       <c r="H117">
-        <v>1</v>
+        <v>108</v>
       </c>
       <c r="I117">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="J117">
-        <v>1</v>
+        <v>76</v>
       </c>
       <c r="K117">
-        <v>76.470600000000005</v>
+        <v>81.25</v>
       </c>
     </row>
     <row r="118" spans="1:11" x14ac:dyDescent="0.25">
@@ -4841,25 +4852,25 @@
         <v>18</v>
       </c>
       <c r="E118">
-        <v>0.56899999999999995</v>
+        <v>3.992</v>
       </c>
       <c r="F118">
-        <v>0.29420000000000002</v>
+        <v>5.5453999999999999</v>
       </c>
       <c r="G118">
-        <v>0.86209999999999998</v>
+        <v>4.0869</v>
       </c>
       <c r="H118">
-        <v>1</v>
+        <v>18.972999999999999</v>
       </c>
       <c r="I118">
-        <v>0</v>
+        <v>0.25540000000000002</v>
       </c>
       <c r="J118">
-        <v>1</v>
+        <v>18.717600000000001</v>
       </c>
       <c r="K118">
-        <v>76.470600000000005</v>
+        <v>78.125</v>
       </c>
     </row>
     <row r="119" spans="1:11" x14ac:dyDescent="0.25">
@@ -4876,25 +4887,25 @@
         <v>19</v>
       </c>
       <c r="E119">
-        <v>0.40739999999999998</v>
+        <v>9.8233999999999995</v>
       </c>
       <c r="F119">
-        <v>0.3382</v>
+        <v>6.3102</v>
       </c>
       <c r="G119">
-        <v>0.86099999999999999</v>
+        <v>10.1114</v>
       </c>
       <c r="H119">
-        <v>1</v>
+        <v>25.465399999999999</v>
       </c>
       <c r="I119">
-        <v>0</v>
+        <v>2.7442000000000002</v>
       </c>
       <c r="J119">
-        <v>1</v>
+        <v>22.7212</v>
       </c>
       <c r="K119">
-        <v>76.470600000000005</v>
+        <v>78.125</v>
       </c>
     </row>
     <row r="120" spans="1:11" x14ac:dyDescent="0.25">
@@ -4911,25 +4922,25 @@
         <v>20</v>
       </c>
       <c r="E120">
-        <v>0.51149999999999995</v>
+        <v>8.6699999999999999E-2</v>
       </c>
       <c r="F120">
-        <v>0.23250000000000001</v>
+        <v>2.7300000000000001E-2</v>
       </c>
       <c r="G120">
-        <v>0.72419999999999995</v>
+        <v>0.1143</v>
       </c>
       <c r="H120">
-        <v>1</v>
+        <v>0.13370000000000001</v>
       </c>
       <c r="I120">
-        <v>0</v>
+        <v>4.2999999999999997E-2</v>
       </c>
       <c r="J120">
-        <v>1</v>
+        <v>9.0700000000000003E-2</v>
       </c>
       <c r="K120">
-        <v>76.470600000000005</v>
+        <v>78.125</v>
       </c>
     </row>
     <row r="121" spans="1:11" x14ac:dyDescent="0.25">
@@ -4946,25 +4957,25 @@
         <v>14</v>
       </c>
       <c r="E121">
-        <v>0.5363</v>
+        <v>80.229100000000003</v>
       </c>
       <c r="F121">
-        <v>0.3644</v>
+        <v>8.6760000000000002</v>
       </c>
       <c r="G121">
-        <v>0.81179999999999997</v>
+        <v>89.994399999999999</v>
       </c>
       <c r="H121">
-        <v>1</v>
+        <v>93.107900000000001</v>
       </c>
       <c r="I121">
-        <v>0</v>
+        <v>64.298000000000002</v>
       </c>
       <c r="J121">
-        <v>1</v>
+        <v>28.809899999999999</v>
       </c>
       <c r="K121">
-        <v>75</v>
+        <v>76.470600000000005</v>
       </c>
     </row>
     <row r="122" spans="1:11" x14ac:dyDescent="0.25">
@@ -4981,25 +4992,25 @@
         <v>15</v>
       </c>
       <c r="E122">
-        <v>0.5373</v>
+        <v>0.12839999999999999</v>
       </c>
       <c r="F122">
-        <v>0.36980000000000002</v>
+        <v>1.2699999999999999E-2</v>
       </c>
       <c r="G122">
-        <v>0.83120000000000005</v>
+        <v>0.13800000000000001</v>
       </c>
       <c r="H122">
-        <v>1</v>
+        <v>0.15390000000000001</v>
       </c>
       <c r="I122">
-        <v>0</v>
+        <v>0.10390000000000001</v>
       </c>
       <c r="J122">
-        <v>1</v>
+        <v>0.05</v>
       </c>
       <c r="K122">
-        <v>75</v>
+        <v>76.470600000000005</v>
       </c>
     </row>
     <row r="123" spans="1:11" x14ac:dyDescent="0.25">
@@ -5016,25 +5027,25 @@
         <v>16</v>
       </c>
       <c r="E123">
-        <v>0.56579999999999997</v>
+        <v>244</v>
       </c>
       <c r="F123">
-        <v>0.3639</v>
+        <v>13.4689</v>
       </c>
       <c r="G123">
-        <v>0.82630000000000003</v>
+        <v>255</v>
       </c>
       <c r="H123">
-        <v>1</v>
+        <v>259</v>
       </c>
       <c r="I123">
-        <v>0</v>
+        <v>204</v>
       </c>
       <c r="J123">
-        <v>1</v>
+        <v>55</v>
       </c>
       <c r="K123">
-        <v>75</v>
+        <v>82.352900000000005</v>
       </c>
     </row>
     <row r="124" spans="1:11" x14ac:dyDescent="0.25">
@@ -5051,25 +5062,25 @@
         <v>17</v>
       </c>
       <c r="E124">
-        <v>0.36020000000000002</v>
+        <v>67.823499999999996</v>
       </c>
       <c r="F124">
-        <v>0.39860000000000001</v>
+        <v>16.332000000000001</v>
       </c>
       <c r="G124">
-        <v>0.63390000000000002</v>
+        <v>87.8</v>
       </c>
       <c r="H124">
-        <v>1</v>
+        <v>101</v>
       </c>
       <c r="I124">
-        <v>0</v>
+        <v>47</v>
       </c>
       <c r="J124">
-        <v>1</v>
+        <v>54</v>
       </c>
       <c r="K124">
-        <v>75</v>
+        <v>76.470600000000005</v>
       </c>
     </row>
     <row r="125" spans="1:11" x14ac:dyDescent="0.25">
@@ -5086,25 +5097,25 @@
         <v>18</v>
       </c>
       <c r="E125">
-        <v>0.72550000000000003</v>
+        <v>1.1113</v>
       </c>
       <c r="F125">
-        <v>0.4194</v>
+        <v>0.49099999999999999</v>
       </c>
       <c r="G125">
-        <v>0.97370000000000001</v>
+        <v>1.6005</v>
       </c>
       <c r="H125">
-        <v>1</v>
+        <v>1.8307</v>
       </c>
       <c r="I125">
-        <v>0</v>
+        <v>0.16159999999999999</v>
       </c>
       <c r="J125">
-        <v>1</v>
+        <v>1.6691</v>
       </c>
       <c r="K125">
-        <v>75</v>
+        <v>76.470600000000005</v>
       </c>
     </row>
     <row r="126" spans="1:11" x14ac:dyDescent="0.25">
@@ -5121,25 +5132,25 @@
         <v>19</v>
       </c>
       <c r="E126">
-        <v>0.74880000000000002</v>
+        <v>5.6317000000000004</v>
       </c>
       <c r="F126">
-        <v>0.43230000000000002</v>
+        <v>2.5661</v>
       </c>
       <c r="G126">
-        <v>1</v>
+        <v>9.0731000000000002</v>
       </c>
       <c r="H126">
-        <v>1</v>
+        <v>10.128</v>
       </c>
       <c r="I126">
-        <v>0</v>
+        <v>2.5409999999999999</v>
       </c>
       <c r="J126">
-        <v>1</v>
+        <v>7.5869999999999997</v>
       </c>
       <c r="K126">
-        <v>100</v>
+        <v>76.470600000000005</v>
       </c>
     </row>
     <row r="127" spans="1:11" x14ac:dyDescent="0.25">
@@ -5156,25 +5167,25 @@
         <v>20</v>
       </c>
       <c r="E127">
-        <v>0.31640000000000001</v>
+        <v>0.06</v>
       </c>
       <c r="F127">
-        <v>0.3992</v>
+        <v>1.44E-2</v>
       </c>
       <c r="G127">
-        <v>0.50119999999999998</v>
+        <v>7.3200000000000001E-2</v>
       </c>
       <c r="H127">
-        <v>1</v>
+        <v>9.0399999999999994E-2</v>
       </c>
       <c r="I127">
-        <v>0</v>
+        <v>2.8299999999999999E-2</v>
       </c>
       <c r="J127">
-        <v>1</v>
+        <v>6.2100000000000002E-2</v>
       </c>
       <c r="K127">
-        <v>75</v>
+        <v>76.470600000000005</v>
       </c>
     </row>
     <row r="128" spans="1:11" x14ac:dyDescent="0.25">
@@ -5191,25 +5202,25 @@
         <v>14</v>
       </c>
       <c r="E128">
-        <v>0.33129999999999998</v>
+        <v>73.216099999999997</v>
       </c>
       <c r="F128">
-        <v>0.2417</v>
+        <v>7.7286999999999999</v>
       </c>
       <c r="G128">
-        <v>0.51539999999999997</v>
+        <v>79.058199999999999</v>
       </c>
       <c r="H128">
-        <v>1</v>
+        <v>83.050899999999999</v>
       </c>
       <c r="I128">
-        <v>0</v>
+        <v>61.840400000000002</v>
       </c>
       <c r="J128">
-        <v>1</v>
+        <v>21.2105</v>
       </c>
       <c r="K128">
-        <v>78.260900000000007</v>
+        <v>75</v>
       </c>
     </row>
     <row r="129" spans="1:11" x14ac:dyDescent="0.25">
@@ -5226,25 +5237,25 @@
         <v>15</v>
       </c>
       <c r="E129">
-        <v>0.44940000000000002</v>
+        <v>0.1389</v>
       </c>
       <c r="F129">
-        <v>0.27160000000000001</v>
+        <v>2.0299999999999999E-2</v>
       </c>
       <c r="G129">
-        <v>0.6522</v>
+        <v>0.155</v>
       </c>
       <c r="H129">
-        <v>1</v>
+        <v>0.16420000000000001</v>
       </c>
       <c r="I129">
-        <v>0</v>
+        <v>0.1095</v>
       </c>
       <c r="J129">
-        <v>1</v>
+        <v>5.4800000000000001E-2</v>
       </c>
       <c r="K129">
-        <v>78.260900000000007</v>
+        <v>75</v>
       </c>
     </row>
     <row r="130" spans="1:11" x14ac:dyDescent="0.25">
@@ -5261,25 +5272,25 @@
         <v>16</v>
       </c>
       <c r="E130">
-        <v>0.4874</v>
+        <v>240.5</v>
       </c>
       <c r="F130">
-        <v>0.19159999999999999</v>
+        <v>13.8293</v>
       </c>
       <c r="G130">
-        <v>0.6421</v>
+        <v>250.4</v>
       </c>
       <c r="H130">
-        <v>1</v>
+        <v>257</v>
       </c>
       <c r="I130">
-        <v>0</v>
+        <v>219</v>
       </c>
       <c r="J130">
-        <v>1</v>
+        <v>38</v>
       </c>
       <c r="K130">
-        <v>78.260900000000007</v>
+        <v>75</v>
       </c>
     </row>
     <row r="131" spans="1:11" x14ac:dyDescent="0.25">
@@ -5296,25 +5307,25 @@
         <v>17</v>
       </c>
       <c r="E131">
-        <v>0.54479999999999995</v>
+        <v>67.25</v>
       </c>
       <c r="F131">
-        <v>0.23860000000000001</v>
+        <v>23.5199</v>
       </c>
       <c r="G131">
-        <v>0.70589999999999997</v>
+        <v>83.4</v>
       </c>
       <c r="H131">
-        <v>1</v>
+        <v>105</v>
       </c>
       <c r="I131">
-        <v>0</v>
+        <v>46</v>
       </c>
       <c r="J131">
-        <v>1</v>
+        <v>59</v>
       </c>
       <c r="K131">
-        <v>82.608699999999999</v>
+        <v>75</v>
       </c>
     </row>
     <row r="132" spans="1:11" x14ac:dyDescent="0.25">
@@ -5331,25 +5342,25 @@
         <v>18</v>
       </c>
       <c r="E132">
-        <v>0.2225</v>
+        <v>1.4369000000000001</v>
       </c>
       <c r="F132">
-        <v>0.30399999999999999</v>
+        <v>0.3957</v>
       </c>
       <c r="G132">
-        <v>0.2089</v>
+        <v>1.6711</v>
       </c>
       <c r="H132">
-        <v>1</v>
+        <v>1.6959</v>
       </c>
       <c r="I132">
-        <v>0</v>
+        <v>0.75239999999999996</v>
       </c>
       <c r="J132">
-        <v>1</v>
+        <v>0.94350000000000001</v>
       </c>
       <c r="K132">
-        <v>78.260900000000007</v>
+        <v>75</v>
       </c>
     </row>
     <row r="133" spans="1:11" x14ac:dyDescent="0.25">
@@ -5366,25 +5377,25 @@
         <v>19</v>
       </c>
       <c r="E133">
-        <v>0.21709999999999999</v>
+        <v>5.7488999999999999</v>
       </c>
       <c r="F133">
-        <v>0.30509999999999998</v>
+        <v>0.9052</v>
       </c>
       <c r="G133">
-        <v>0.1535</v>
+        <v>6.2747999999999999</v>
       </c>
       <c r="H133">
-        <v>1</v>
+        <v>6.2747999999999999</v>
       </c>
       <c r="I133">
-        <v>0</v>
+        <v>4.181</v>
       </c>
       <c r="J133">
-        <v>1</v>
+        <v>2.0937999999999999</v>
       </c>
       <c r="K133">
-        <v>86.956500000000005</v>
+        <v>100</v>
       </c>
     </row>
     <row r="134" spans="1:11" x14ac:dyDescent="0.25">
@@ -5401,25 +5412,25 @@
         <v>20</v>
       </c>
       <c r="E134">
-        <v>0.39989999999999998</v>
+        <v>6.3700000000000007E-2</v>
       </c>
       <c r="F134">
-        <v>0.2505</v>
+        <v>0.01</v>
       </c>
       <c r="G134">
-        <v>0.4652</v>
+        <v>6.83E-2</v>
       </c>
       <c r="H134">
-        <v>1</v>
+        <v>8.09E-2</v>
       </c>
       <c r="I134">
-        <v>0</v>
+        <v>5.5800000000000002E-2</v>
       </c>
       <c r="J134">
-        <v>1</v>
+        <v>2.5100000000000001E-2</v>
       </c>
       <c r="K134">
-        <v>78.260900000000007</v>
+        <v>75</v>
       </c>
     </row>
     <row r="135" spans="1:11" x14ac:dyDescent="0.25">
@@ -5436,25 +5447,25 @@
         <v>14</v>
       </c>
       <c r="E135">
-        <v>0.57889999999999997</v>
+        <v>84.912400000000005</v>
       </c>
       <c r="F135">
-        <v>0.31909999999999999</v>
+        <v>6.0328999999999997</v>
       </c>
       <c r="G135">
-        <v>0.82779999999999998</v>
+        <v>89.508700000000005</v>
       </c>
       <c r="H135">
-        <v>1</v>
+        <v>101.6074</v>
       </c>
       <c r="I135">
-        <v>0</v>
+        <v>76.642700000000005</v>
       </c>
       <c r="J135">
-        <v>1</v>
+        <v>24.964700000000001</v>
       </c>
       <c r="K135">
-        <v>79.166700000000006</v>
+        <v>78.260900000000007</v>
       </c>
     </row>
     <row r="136" spans="1:11" x14ac:dyDescent="0.25">
@@ -5471,25 +5482,25 @@
         <v>15</v>
       </c>
       <c r="E136">
-        <v>0.43</v>
+        <v>0.1177</v>
       </c>
       <c r="F136">
-        <v>0.27329999999999999</v>
+        <v>1.12E-2</v>
       </c>
       <c r="G136">
-        <v>0.68330000000000002</v>
+        <v>0.12609999999999999</v>
       </c>
       <c r="H136">
-        <v>1</v>
+        <v>0.14050000000000001</v>
       </c>
       <c r="I136">
-        <v>0</v>
+        <v>9.9199999999999997E-2</v>
       </c>
       <c r="J136">
-        <v>1</v>
+        <v>4.1300000000000003E-2</v>
       </c>
       <c r="K136">
-        <v>79.166700000000006</v>
+        <v>78.260900000000007</v>
       </c>
     </row>
     <row r="137" spans="1:11" x14ac:dyDescent="0.25">
@@ -5506,25 +5517,25 @@
         <v>16</v>
       </c>
       <c r="E137">
-        <v>0.69840000000000002</v>
+        <v>245.04349999999999</v>
       </c>
       <c r="F137">
-        <v>0.2283</v>
+        <v>14.5587</v>
       </c>
       <c r="G137">
-        <v>0.92049999999999998</v>
+        <v>256.8</v>
       </c>
       <c r="H137">
-        <v>1</v>
+        <v>284</v>
       </c>
       <c r="I137">
-        <v>0</v>
+        <v>208</v>
       </c>
       <c r="J137">
-        <v>1</v>
+        <v>76</v>
       </c>
       <c r="K137">
-        <v>87.5</v>
+        <v>78.260900000000007</v>
       </c>
     </row>
     <row r="138" spans="1:11" x14ac:dyDescent="0.25">
@@ -5541,25 +5552,25 @@
         <v>17</v>
       </c>
       <c r="E138">
-        <v>0.5252</v>
+        <v>80.782600000000002</v>
       </c>
       <c r="F138">
-        <v>0.24510000000000001</v>
+        <v>12.168900000000001</v>
       </c>
       <c r="G138">
-        <v>0.73750000000000004</v>
+        <v>89</v>
       </c>
       <c r="H138">
-        <v>1</v>
+        <v>104</v>
       </c>
       <c r="I138">
-        <v>0</v>
+        <v>53</v>
       </c>
       <c r="J138">
-        <v>1</v>
+        <v>51</v>
       </c>
       <c r="K138">
-        <v>79.166700000000006</v>
+        <v>82.608699999999999</v>
       </c>
     </row>
     <row r="139" spans="1:11" x14ac:dyDescent="0.25">
@@ -5576,25 +5587,25 @@
         <v>18</v>
       </c>
       <c r="E139">
-        <v>0.18010000000000001</v>
+        <v>0.60719999999999996</v>
       </c>
       <c r="F139">
-        <v>0.2671</v>
+        <v>0.56159999999999999</v>
       </c>
       <c r="G139">
-        <v>0.31469999999999998</v>
+        <v>0.58209999999999995</v>
       </c>
       <c r="H139">
-        <v>1</v>
+        <v>2.0438000000000001</v>
       </c>
       <c r="I139">
-        <v>0</v>
+        <v>0.1961</v>
       </c>
       <c r="J139">
-        <v>1</v>
+        <v>1.8476999999999999</v>
       </c>
       <c r="K139">
-        <v>79.166700000000006</v>
+        <v>78.260900000000007</v>
       </c>
     </row>
     <row r="140" spans="1:11" x14ac:dyDescent="0.25">
@@ -5611,25 +5622,25 @@
         <v>19</v>
       </c>
       <c r="E140">
-        <v>0.2359</v>
+        <v>4.4276</v>
       </c>
       <c r="F140">
-        <v>0.26390000000000002</v>
+        <v>2.8925000000000001</v>
       </c>
       <c r="G140">
-        <v>0.39379999999999998</v>
+        <v>3.8241000000000001</v>
       </c>
       <c r="H140">
-        <v>1</v>
+        <v>11.851000000000001</v>
       </c>
       <c r="I140">
-        <v>0</v>
+        <v>2.3691</v>
       </c>
       <c r="J140">
-        <v>1</v>
+        <v>9.4818999999999996</v>
       </c>
       <c r="K140">
-        <v>79.166700000000006</v>
+        <v>86.956500000000005</v>
       </c>
     </row>
     <row r="141" spans="1:11" x14ac:dyDescent="0.25">
@@ -5646,25 +5657,25 @@
         <v>20</v>
       </c>
       <c r="E141">
-        <v>0.40239999999999998</v>
+        <v>4.5600000000000002E-2</v>
       </c>
       <c r="F141">
-        <v>0.30719999999999997</v>
+        <v>8.8999999999999999E-3</v>
       </c>
       <c r="G141">
-        <v>0.69679999999999997</v>
+        <v>4.7899999999999998E-2</v>
       </c>
       <c r="H141">
-        <v>1</v>
+        <v>6.6799999999999998E-2</v>
       </c>
       <c r="I141">
-        <v>0</v>
+        <v>3.1399999999999997E-2</v>
       </c>
       <c r="J141">
-        <v>1</v>
+        <v>3.5400000000000001E-2</v>
       </c>
       <c r="K141">
-        <v>79.166700000000006</v>
+        <v>78.260900000000007</v>
       </c>
     </row>
     <row r="142" spans="1:11" x14ac:dyDescent="0.25">
@@ -5681,25 +5692,25 @@
         <v>14</v>
       </c>
       <c r="E142">
-        <v>0.44979999999999998</v>
+        <v>90.738299999999995</v>
       </c>
       <c r="F142">
-        <v>0.27360000000000001</v>
+        <v>10.320499999999999</v>
       </c>
       <c r="G142">
-        <v>0.67689999999999995</v>
+        <v>98.788600000000002</v>
       </c>
       <c r="H142">
-        <v>1</v>
+        <v>104.3569</v>
       </c>
       <c r="I142">
-        <v>0</v>
+        <v>72.016499999999994</v>
       </c>
       <c r="J142">
-        <v>1</v>
+        <v>32.340400000000002</v>
       </c>
       <c r="K142">
-        <v>80</v>
+        <v>79.166700000000006</v>
       </c>
     </row>
     <row r="143" spans="1:11" x14ac:dyDescent="0.25">
@@ -5716,25 +5727,25 @@
         <v>15</v>
       </c>
       <c r="E143">
-        <v>0.44879999999999998</v>
+        <v>0.1178</v>
       </c>
       <c r="F143">
-        <v>0.22850000000000001</v>
+        <v>1.4E-2</v>
       </c>
       <c r="G143">
-        <v>0.5847</v>
+        <v>0.1308</v>
       </c>
       <c r="H143">
-        <v>1</v>
+        <v>0.14710000000000001</v>
       </c>
       <c r="I143">
-        <v>0</v>
+        <v>9.5799999999999996E-2</v>
       </c>
       <c r="J143">
-        <v>1</v>
+        <v>5.1299999999999998E-2</v>
       </c>
       <c r="K143">
-        <v>80</v>
+        <v>79.166700000000006</v>
       </c>
     </row>
     <row r="144" spans="1:11" x14ac:dyDescent="0.25">
@@ -5751,25 +5762,25 @@
         <v>16</v>
       </c>
       <c r="E144">
-        <v>0.76429999999999998</v>
+        <v>251.45830000000001</v>
       </c>
       <c r="F144">
-        <v>0.20860000000000001</v>
+        <v>20.093499999999999</v>
       </c>
       <c r="G144">
-        <v>0.87839999999999996</v>
+        <v>271</v>
       </c>
       <c r="H144">
-        <v>1</v>
+        <v>278</v>
       </c>
       <c r="I144">
-        <v>0</v>
+        <v>190</v>
       </c>
       <c r="J144">
-        <v>1</v>
+        <v>88</v>
       </c>
       <c r="K144">
-        <v>80</v>
+        <v>87.5</v>
       </c>
     </row>
     <row r="145" spans="1:11" x14ac:dyDescent="0.25">
@@ -5786,25 +5797,25 @@
         <v>17</v>
       </c>
       <c r="E145">
-        <v>0.45179999999999998</v>
+        <v>79.208299999999994</v>
       </c>
       <c r="F145">
-        <v>0.2722</v>
+        <v>11.765000000000001</v>
       </c>
       <c r="G145">
-        <v>0.71830000000000005</v>
+        <v>89.4</v>
       </c>
       <c r="H145">
-        <v>1</v>
+        <v>102</v>
       </c>
       <c r="I145">
-        <v>0</v>
+        <v>54</v>
       </c>
       <c r="J145">
-        <v>1</v>
+        <v>48</v>
       </c>
       <c r="K145">
-        <v>84</v>
+        <v>79.166700000000006</v>
       </c>
     </row>
     <row r="146" spans="1:11" x14ac:dyDescent="0.25">
@@ -5821,25 +5832,25 @@
         <v>18</v>
       </c>
       <c r="E146">
-        <v>0.49830000000000002</v>
+        <v>1.2181</v>
       </c>
       <c r="F146">
-        <v>0.28560000000000002</v>
+        <v>1.3967000000000001</v>
       </c>
       <c r="G146">
-        <v>0.75829999999999997</v>
+        <v>1.9217</v>
       </c>
       <c r="H146">
-        <v>1</v>
+        <v>5.5053999999999998</v>
       </c>
       <c r="I146">
-        <v>0</v>
+        <v>0.27639999999999998</v>
       </c>
       <c r="J146">
-        <v>1</v>
+        <v>5.2290000000000001</v>
       </c>
       <c r="K146">
-        <v>80</v>
+        <v>79.166700000000006</v>
       </c>
     </row>
     <row r="147" spans="1:11" x14ac:dyDescent="0.25">
@@ -5856,25 +5867,25 @@
         <v>19</v>
       </c>
       <c r="E147">
-        <v>0.62919999999999998</v>
+        <v>6.0109000000000004</v>
       </c>
       <c r="F147">
-        <v>0.26769999999999999</v>
+        <v>3.9156</v>
       </c>
       <c r="G147">
-        <v>0.9516</v>
+        <v>8.3529</v>
       </c>
       <c r="H147">
-        <v>1</v>
+        <v>17.346800000000002</v>
       </c>
       <c r="I147">
-        <v>0</v>
+        <v>2.5110999999999999</v>
       </c>
       <c r="J147">
-        <v>1</v>
+        <v>14.835800000000001</v>
       </c>
       <c r="K147">
-        <v>84</v>
+        <v>79.166700000000006</v>
       </c>
     </row>
     <row r="148" spans="1:11" x14ac:dyDescent="0.25">
@@ -5891,25 +5902,25 @@
         <v>20</v>
       </c>
       <c r="E148">
-        <v>0.53059999999999996</v>
+        <v>5.67E-2</v>
       </c>
       <c r="F148">
-        <v>0.2742</v>
+        <v>1.4999999999999999E-2</v>
       </c>
       <c r="G148">
-        <v>0.77959999999999996</v>
+        <v>7.1099999999999997E-2</v>
       </c>
       <c r="H148">
-        <v>1</v>
+        <v>8.5900000000000004E-2</v>
       </c>
       <c r="I148">
-        <v>0</v>
+        <v>3.6999999999999998E-2</v>
       </c>
       <c r="J148">
-        <v>1</v>
+        <v>4.8899999999999999E-2</v>
       </c>
       <c r="K148">
-        <v>80</v>
+        <v>79.166700000000006</v>
       </c>
     </row>
     <row r="149" spans="1:11" x14ac:dyDescent="0.25">
@@ -5926,22 +5937,22 @@
         <v>14</v>
       </c>
       <c r="E149">
-        <v>0.45850000000000002</v>
+        <v>109.9325</v>
       </c>
       <c r="F149">
-        <v>0.29430000000000001</v>
+        <v>10.407999999999999</v>
       </c>
       <c r="G149">
-        <v>0.69469999999999998</v>
+        <v>118.5735</v>
       </c>
       <c r="H149">
-        <v>1</v>
+        <v>130.86760000000001</v>
       </c>
       <c r="I149">
-        <v>0</v>
+        <v>92.820700000000002</v>
       </c>
       <c r="J149">
-        <v>1</v>
+        <v>38.046900000000001</v>
       </c>
       <c r="K149">
         <v>80</v>
@@ -5961,22 +5972,22 @@
         <v>15</v>
       </c>
       <c r="E150">
-        <v>0.52629999999999999</v>
+        <v>0.1042</v>
       </c>
       <c r="F150">
-        <v>0.2389</v>
+        <v>1.44E-2</v>
       </c>
       <c r="G150">
-        <v>0.78820000000000001</v>
+        <v>0.1128</v>
       </c>
       <c r="H150">
-        <v>1</v>
+        <v>0.13900000000000001</v>
       </c>
       <c r="I150">
-        <v>0</v>
+        <v>7.5899999999999995E-2</v>
       </c>
       <c r="J150">
-        <v>1</v>
+        <v>6.3100000000000003E-2</v>
       </c>
       <c r="K150">
         <v>80</v>
@@ -5996,22 +6007,22 @@
         <v>16</v>
       </c>
       <c r="E151">
-        <v>0.47699999999999998</v>
+        <v>259.95999999999998</v>
       </c>
       <c r="F151">
-        <v>0.26629999999999998</v>
+        <v>21.2744</v>
       </c>
       <c r="G151">
-        <v>0.6593</v>
+        <v>271.60000000000002</v>
       </c>
       <c r="H151">
-        <v>1</v>
+        <v>284</v>
       </c>
       <c r="I151">
-        <v>0</v>
+        <v>182</v>
       </c>
       <c r="J151">
-        <v>1</v>
+        <v>102</v>
       </c>
       <c r="K151">
         <v>80</v>
@@ -6031,25 +6042,25 @@
         <v>17</v>
       </c>
       <c r="E152">
-        <v>0.49220000000000003</v>
+        <v>84.08</v>
       </c>
       <c r="F152">
-        <v>0.2384</v>
+        <v>19.324400000000001</v>
       </c>
       <c r="G152">
-        <v>0.61950000000000005</v>
+        <v>103</v>
       </c>
       <c r="H152">
-        <v>1</v>
+        <v>123</v>
       </c>
       <c r="I152">
-        <v>0</v>
+        <v>52</v>
       </c>
       <c r="J152">
-        <v>1</v>
+        <v>71</v>
       </c>
       <c r="K152">
-        <v>80</v>
+        <v>84</v>
       </c>
     </row>
     <row r="153" spans="1:11" x14ac:dyDescent="0.25">
@@ -6066,22 +6077,22 @@
         <v>18</v>
       </c>
       <c r="E153">
-        <v>0.47</v>
+        <v>0.66220000000000001</v>
       </c>
       <c r="F153">
-        <v>0.3553</v>
+        <v>0.28789999999999999</v>
       </c>
       <c r="G153">
-        <v>0.91839999999999999</v>
+        <v>0.92430000000000001</v>
       </c>
       <c r="H153">
-        <v>1</v>
+        <v>1.1679999999999999</v>
       </c>
       <c r="I153">
-        <v>0</v>
+        <v>0.1598</v>
       </c>
       <c r="J153">
-        <v>1</v>
+        <v>1.0082</v>
       </c>
       <c r="K153">
         <v>80</v>
@@ -6101,25 +6112,25 @@
         <v>19</v>
       </c>
       <c r="E154">
-        <v>0.50539999999999996</v>
+        <v>4.1967999999999996</v>
       </c>
       <c r="F154">
-        <v>0.37690000000000001</v>
+        <v>0.84899999999999998</v>
       </c>
       <c r="G154">
-        <v>0.98399999999999999</v>
+        <v>5.2191999999999998</v>
       </c>
       <c r="H154">
-        <v>1</v>
+        <v>5.3726000000000003</v>
       </c>
       <c r="I154">
-        <v>0</v>
+        <v>2.2014</v>
       </c>
       <c r="J154">
-        <v>1</v>
+        <v>3.1711999999999998</v>
       </c>
       <c r="K154">
-        <v>80</v>
+        <v>84</v>
       </c>
     </row>
     <row r="155" spans="1:11" x14ac:dyDescent="0.25">
@@ -6136,22 +6147,22 @@
         <v>20</v>
       </c>
       <c r="E155">
-        <v>0.40079999999999999</v>
+        <v>4.7800000000000002E-2</v>
       </c>
       <c r="F155">
-        <v>0.25690000000000002</v>
+        <v>1.0500000000000001E-2</v>
       </c>
       <c r="G155">
-        <v>0.55979999999999996</v>
+        <v>5.74E-2</v>
       </c>
       <c r="H155">
-        <v>1</v>
+        <v>6.5799999999999997E-2</v>
       </c>
       <c r="I155">
-        <v>0</v>
+        <v>2.75E-2</v>
       </c>
       <c r="J155">
-        <v>1</v>
+        <v>3.8300000000000001E-2</v>
       </c>
       <c r="K155">
         <v>80</v>
@@ -6171,22 +6182,22 @@
         <v>14</v>
       </c>
       <c r="E156">
-        <v>0.34689999999999999</v>
+        <v>88.102500000000006</v>
       </c>
       <c r="F156">
-        <v>0.25359999999999999</v>
+        <v>7.16</v>
       </c>
       <c r="G156">
-        <v>0.56769999999999998</v>
+        <v>93.848500000000001</v>
       </c>
       <c r="H156">
-        <v>1</v>
+        <v>101.2747</v>
       </c>
       <c r="I156">
-        <v>0</v>
+        <v>76.948400000000007</v>
       </c>
       <c r="J156">
-        <v>1</v>
+        <v>24.3262</v>
       </c>
       <c r="K156">
         <v>80</v>
@@ -6206,22 +6217,22 @@
         <v>15</v>
       </c>
       <c r="E157">
-        <v>0.56589999999999996</v>
+        <v>0.11700000000000001</v>
       </c>
       <c r="F157">
-        <v>0.24</v>
+        <v>1.14E-2</v>
       </c>
       <c r="G157">
-        <v>0.7883</v>
+        <v>0.1295</v>
       </c>
       <c r="H157">
-        <v>1</v>
+        <v>0.13969999999999999</v>
       </c>
       <c r="I157">
-        <v>0</v>
+        <v>9.1800000000000007E-2</v>
       </c>
       <c r="J157">
-        <v>1</v>
+        <v>4.7800000000000002E-2</v>
       </c>
       <c r="K157">
         <v>80</v>
@@ -6241,22 +6252,22 @@
         <v>16</v>
       </c>
       <c r="E158">
-        <v>0.57389999999999997</v>
+        <v>244.76</v>
       </c>
       <c r="F158">
-        <v>0.20760000000000001</v>
+        <v>14.378500000000001</v>
       </c>
       <c r="G158">
-        <v>0.70609999999999995</v>
+        <v>254.6</v>
       </c>
       <c r="H158">
-        <v>1</v>
+        <v>273</v>
       </c>
       <c r="I158">
-        <v>0</v>
+        <v>219</v>
       </c>
       <c r="J158">
-        <v>1</v>
+        <v>54</v>
       </c>
       <c r="K158">
         <v>80</v>
@@ -6276,22 +6287,22 @@
         <v>17</v>
       </c>
       <c r="E159">
-        <v>0.64580000000000004</v>
+        <v>72.36</v>
       </c>
       <c r="F159">
-        <v>0.2883</v>
+        <v>19.552800000000001</v>
       </c>
       <c r="G159">
-        <v>0.85799999999999998</v>
+        <v>82.8</v>
       </c>
       <c r="H159">
-        <v>1</v>
+        <v>114</v>
       </c>
       <c r="I159">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="J159">
-        <v>1</v>
+        <v>82</v>
       </c>
       <c r="K159">
         <v>80</v>
@@ -6311,22 +6322,22 @@
         <v>18</v>
       </c>
       <c r="E160">
-        <v>0.2387</v>
+        <v>0.79320000000000002</v>
       </c>
       <c r="F160">
-        <v>0.33179999999999998</v>
+        <v>0.39219999999999999</v>
       </c>
       <c r="G160">
-        <v>0.22900000000000001</v>
+        <v>1.2882</v>
       </c>
       <c r="H160">
-        <v>1</v>
+        <v>1.3783000000000001</v>
       </c>
       <c r="I160">
-        <v>0</v>
+        <v>0.27450000000000002</v>
       </c>
       <c r="J160">
-        <v>1</v>
+        <v>1.1037999999999999</v>
       </c>
       <c r="K160">
         <v>80</v>
@@ -6346,22 +6357,22 @@
         <v>19</v>
       </c>
       <c r="E161">
-        <v>0.30299999999999999</v>
+        <v>4.9409000000000001</v>
       </c>
       <c r="F161">
-        <v>0.31559999999999999</v>
+        <v>1.9179999999999999</v>
       </c>
       <c r="G161">
-        <v>0.27239999999999998</v>
+        <v>7.3765999999999998</v>
       </c>
       <c r="H161">
-        <v>1</v>
+        <v>7.4581999999999997</v>
       </c>
       <c r="I161">
-        <v>0</v>
+        <v>2.3685999999999998</v>
       </c>
       <c r="J161">
-        <v>1</v>
+        <v>5.0895999999999999</v>
       </c>
       <c r="K161">
         <v>80</v>
@@ -6381,22 +6392,22 @@
         <v>20</v>
       </c>
       <c r="E162">
-        <v>0.41099999999999998</v>
+        <v>5.4899999999999997E-2</v>
       </c>
       <c r="F162">
-        <v>0.28089999999999998</v>
+        <v>9.7999999999999997E-3</v>
       </c>
       <c r="G162">
-        <v>0.65890000000000004</v>
+        <v>6.0900000000000003E-2</v>
       </c>
       <c r="H162">
-        <v>1</v>
+        <v>7.7600000000000002E-2</v>
       </c>
       <c r="I162">
-        <v>0</v>
+        <v>3.9699999999999999E-2</v>
       </c>
       <c r="J162">
-        <v>1</v>
+        <v>3.7999999999999999E-2</v>
       </c>
       <c r="K162">
         <v>80</v>
@@ -6416,25 +6427,25 @@
         <v>14</v>
       </c>
       <c r="E163">
-        <v>0.4738</v>
+        <v>87.235799999999998</v>
       </c>
       <c r="F163">
-        <v>0.29039999999999999</v>
+        <v>10.7605</v>
       </c>
       <c r="G163">
-        <v>0.69530000000000003</v>
+        <v>96.604200000000006</v>
       </c>
       <c r="H163">
-        <v>1</v>
+        <v>114.94199999999999</v>
       </c>
       <c r="I163">
-        <v>0</v>
+        <v>72.5184</v>
       </c>
       <c r="J163">
-        <v>1</v>
+        <v>42.4236</v>
       </c>
       <c r="K163">
-        <v>77.777799999999999</v>
+        <v>80</v>
       </c>
     </row>
     <row r="164" spans="1:11" x14ac:dyDescent="0.25">
@@ -6451,25 +6462,25 @@
         <v>15</v>
       </c>
       <c r="E164">
-        <v>0.42349999999999999</v>
+        <v>0.12039999999999999</v>
       </c>
       <c r="F164">
-        <v>0.26340000000000002</v>
+        <v>1.7399999999999999E-2</v>
       </c>
       <c r="G164">
-        <v>0.65720000000000001</v>
+        <v>0.13650000000000001</v>
       </c>
       <c r="H164">
-        <v>1</v>
+        <v>0.15179999999999999</v>
       </c>
       <c r="I164">
-        <v>0</v>
+        <v>7.9399999999999998E-2</v>
       </c>
       <c r="J164">
-        <v>1</v>
+        <v>7.2400000000000006E-2</v>
       </c>
       <c r="K164">
-        <v>77.777799999999999</v>
+        <v>80</v>
       </c>
     </row>
     <row r="165" spans="1:11" x14ac:dyDescent="0.25">
@@ -6486,25 +6497,25 @@
         <v>16</v>
       </c>
       <c r="E165">
-        <v>0.68479999999999996</v>
+        <v>245.88</v>
       </c>
       <c r="F165">
-        <v>0.2334</v>
+        <v>13.7006</v>
       </c>
       <c r="G165">
-        <v>0.82609999999999995</v>
+        <v>254.6</v>
       </c>
       <c r="H165">
-        <v>1</v>
+        <v>274</v>
       </c>
       <c r="I165">
-        <v>0</v>
+        <v>208</v>
       </c>
       <c r="J165">
-        <v>1</v>
+        <v>66</v>
       </c>
       <c r="K165">
-        <v>81.481499999999997</v>
+        <v>80</v>
       </c>
     </row>
     <row r="166" spans="1:11" x14ac:dyDescent="0.25">
@@ -6521,25 +6532,25 @@
         <v>17</v>
       </c>
       <c r="E166">
-        <v>0.43149999999999999</v>
+        <v>75.56</v>
       </c>
       <c r="F166">
-        <v>0.2419</v>
+        <v>19.893899999999999</v>
       </c>
       <c r="G166">
-        <v>0.6</v>
+        <v>90.2</v>
       </c>
       <c r="H166">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="I166">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="J166">
-        <v>1</v>
+        <v>69</v>
       </c>
       <c r="K166">
-        <v>81.481499999999997</v>
+        <v>80</v>
       </c>
     </row>
     <row r="167" spans="1:11" x14ac:dyDescent="0.25">
@@ -6556,25 +6567,25 @@
         <v>18</v>
       </c>
       <c r="E167">
-        <v>0.32240000000000002</v>
+        <v>1.4934000000000001</v>
       </c>
       <c r="F167">
-        <v>0.28610000000000002</v>
+        <v>1.8352999999999999</v>
       </c>
       <c r="G167">
-        <v>0.56530000000000002</v>
+        <v>1.4397</v>
       </c>
       <c r="H167">
-        <v>1</v>
+        <v>5.7046999999999999</v>
       </c>
       <c r="I167">
-        <v>0</v>
+        <v>0.17319999999999999</v>
       </c>
       <c r="J167">
-        <v>1</v>
+        <v>5.5315000000000003</v>
       </c>
       <c r="K167">
-        <v>77.777799999999999</v>
+        <v>80</v>
       </c>
     </row>
     <row r="168" spans="1:11" x14ac:dyDescent="0.25">
@@ -6591,25 +6602,25 @@
         <v>19</v>
       </c>
       <c r="E168">
-        <v>0.43530000000000002</v>
+        <v>6.8460000000000001</v>
       </c>
       <c r="F168">
-        <v>0.29120000000000001</v>
+        <v>5.2089999999999996</v>
       </c>
       <c r="G168">
-        <v>0.67910000000000004</v>
+        <v>6.3411999999999997</v>
       </c>
       <c r="H168">
-        <v>1</v>
+        <v>18.350200000000001</v>
       </c>
       <c r="I168">
-        <v>0</v>
+        <v>1.8444</v>
       </c>
       <c r="J168">
-        <v>1</v>
+        <v>16.505800000000001</v>
       </c>
       <c r="K168">
-        <v>77.777799999999999</v>
+        <v>80</v>
       </c>
     </row>
     <row r="169" spans="1:11" x14ac:dyDescent="0.25">
@@ -6626,25 +6637,25 @@
         <v>20</v>
       </c>
       <c r="E169">
-        <v>0.36280000000000001</v>
+        <v>5.62E-2</v>
       </c>
       <c r="F169">
-        <v>0.27439999999999998</v>
+        <v>2.01E-2</v>
       </c>
       <c r="G169">
-        <v>0.64659999999999995</v>
+        <v>7.3899999999999993E-2</v>
       </c>
       <c r="H169">
-        <v>1</v>
+        <v>9.8199999999999996E-2</v>
       </c>
       <c r="I169">
-        <v>0</v>
+        <v>2.6800000000000001E-2</v>
       </c>
       <c r="J169">
-        <v>1</v>
+        <v>7.1400000000000005E-2</v>
       </c>
       <c r="K169">
-        <v>77.777799999999999</v>
+        <v>80</v>
       </c>
     </row>
     <row r="170" spans="1:11" x14ac:dyDescent="0.25">
@@ -6661,25 +6672,25 @@
         <v>14</v>
       </c>
       <c r="E170">
-        <v>0.3291</v>
+        <v>105.66679999999999</v>
       </c>
       <c r="F170">
-        <v>0.25509999999999999</v>
+        <v>12.815300000000001</v>
       </c>
       <c r="G170">
-        <v>0.52439999999999998</v>
+        <v>115.44199999999999</v>
       </c>
       <c r="H170">
-        <v>1</v>
+        <v>128.88890000000001</v>
       </c>
       <c r="I170">
-        <v>0</v>
+        <v>84.754800000000003</v>
       </c>
       <c r="J170">
-        <v>1</v>
+        <v>44.134099999999997</v>
       </c>
       <c r="K170">
-        <v>80</v>
+        <v>77.777799999999999</v>
       </c>
     </row>
     <row r="171" spans="1:11" x14ac:dyDescent="0.25">
@@ -6696,25 +6707,25 @@
         <v>15</v>
       </c>
       <c r="E171">
-        <v>0.55759999999999998</v>
+        <v>0.1012</v>
       </c>
       <c r="F171">
-        <v>0.21560000000000001</v>
+        <v>1.55E-2</v>
       </c>
       <c r="G171">
-        <v>0.71040000000000003</v>
+        <v>0.1149</v>
       </c>
       <c r="H171">
-        <v>1</v>
+        <v>0.1351</v>
       </c>
       <c r="I171">
-        <v>0</v>
+        <v>7.6300000000000007E-2</v>
       </c>
       <c r="J171">
-        <v>1</v>
+        <v>5.8799999999999998E-2</v>
       </c>
       <c r="K171">
-        <v>80</v>
+        <v>77.777799999999999</v>
       </c>
     </row>
     <row r="172" spans="1:11" x14ac:dyDescent="0.25">
@@ -6731,25 +6742,25 @@
         <v>16</v>
       </c>
       <c r="E172">
-        <v>0.64200000000000002</v>
+        <v>244</v>
       </c>
       <c r="F172">
-        <v>0.21820000000000001</v>
+        <v>21.473500000000001</v>
       </c>
       <c r="G172">
-        <v>0.85189999999999999</v>
+        <v>257</v>
       </c>
       <c r="H172">
-        <v>1</v>
+        <v>273</v>
       </c>
       <c r="I172">
-        <v>0</v>
+        <v>181</v>
       </c>
       <c r="J172">
-        <v>1</v>
+        <v>92</v>
       </c>
       <c r="K172">
-        <v>84</v>
+        <v>81.481499999999997</v>
       </c>
     </row>
     <row r="173" spans="1:11" x14ac:dyDescent="0.25">
@@ -6766,25 +6777,25 @@
         <v>17</v>
       </c>
       <c r="E173">
-        <v>0.72819999999999996</v>
+        <v>79.888900000000007</v>
       </c>
       <c r="F173">
-        <v>0.218</v>
+        <v>14.512700000000001</v>
       </c>
       <c r="G173">
-        <v>0.89390000000000003</v>
+        <v>90</v>
       </c>
       <c r="H173">
-        <v>1</v>
+        <v>114</v>
       </c>
       <c r="I173">
-        <v>0</v>
+        <v>54</v>
       </c>
       <c r="J173">
-        <v>1</v>
+        <v>60</v>
       </c>
       <c r="K173">
-        <v>80</v>
+        <v>81.481499999999997</v>
       </c>
     </row>
     <row r="174" spans="1:11" x14ac:dyDescent="0.25">
@@ -6801,25 +6812,25 @@
         <v>18</v>
       </c>
       <c r="E174">
-        <v>0.36030000000000001</v>
+        <v>0.4491</v>
       </c>
       <c r="F174">
-        <v>0.28910000000000002</v>
+        <v>0.21</v>
       </c>
       <c r="G174">
-        <v>0.58409999999999995</v>
+        <v>0.62739999999999996</v>
       </c>
       <c r="H174">
-        <v>1</v>
+        <v>0.94640000000000002</v>
       </c>
       <c r="I174">
-        <v>0</v>
+        <v>0.21249999999999999</v>
       </c>
       <c r="J174">
-        <v>1</v>
+        <v>0.7339</v>
       </c>
       <c r="K174">
-        <v>80</v>
+        <v>77.777799999999999</v>
       </c>
     </row>
     <row r="175" spans="1:11" x14ac:dyDescent="0.25">
@@ -6836,25 +6847,25 @@
         <v>19</v>
       </c>
       <c r="E175">
-        <v>0.30130000000000001</v>
+        <v>3.4836</v>
       </c>
       <c r="F175">
-        <v>0.32940000000000003</v>
+        <v>0.84340000000000004</v>
       </c>
       <c r="G175">
-        <v>0.37030000000000002</v>
+        <v>4.1897000000000002</v>
       </c>
       <c r="H175">
-        <v>1</v>
+        <v>5.1192000000000002</v>
       </c>
       <c r="I175">
-        <v>0</v>
+        <v>2.2227999999999999</v>
       </c>
       <c r="J175">
-        <v>1</v>
+        <v>2.8963999999999999</v>
       </c>
       <c r="K175">
-        <v>80</v>
+        <v>77.777799999999999</v>
       </c>
     </row>
     <row r="176" spans="1:11" x14ac:dyDescent="0.25">
@@ -6871,25 +6882,25 @@
         <v>20</v>
       </c>
       <c r="E176">
-        <v>0.55010000000000003</v>
+        <v>5.0799999999999998E-2</v>
       </c>
       <c r="F176">
-        <v>0.26329999999999998</v>
+        <v>1.2999999999999999E-2</v>
       </c>
       <c r="G176">
-        <v>0.75349999999999995</v>
+        <v>6.4299999999999996E-2</v>
       </c>
       <c r="H176">
-        <v>1</v>
+        <v>8.1000000000000003E-2</v>
       </c>
       <c r="I176">
-        <v>0</v>
+        <v>3.3599999999999998E-2</v>
       </c>
       <c r="J176">
-        <v>1</v>
+        <v>4.7500000000000001E-2</v>
       </c>
       <c r="K176">
-        <v>80</v>
+        <v>77.777799999999999</v>
       </c>
     </row>
     <row r="177" spans="1:11" x14ac:dyDescent="0.25">
@@ -6906,25 +6917,25 @@
         <v>14</v>
       </c>
       <c r="E177">
-        <v>0.51319999999999999</v>
+        <v>102.0692</v>
       </c>
       <c r="F177">
-        <v>0.24160000000000001</v>
+        <v>7.9916</v>
       </c>
       <c r="G177">
-        <v>0.64700000000000002</v>
+        <v>108.1878</v>
       </c>
       <c r="H177">
-        <v>1</v>
+        <v>123.08459999999999</v>
       </c>
       <c r="I177">
-        <v>0</v>
+        <v>91.760499999999993</v>
       </c>
       <c r="J177">
-        <v>1</v>
+        <v>31.324100000000001</v>
       </c>
       <c r="K177">
-        <v>80.769199999999998</v>
+        <v>80</v>
       </c>
     </row>
     <row r="178" spans="1:11" x14ac:dyDescent="0.25">
@@ -6941,25 +6952,25 @@
         <v>15</v>
       </c>
       <c r="E178">
-        <v>0.47139999999999999</v>
+        <v>0.1056</v>
       </c>
       <c r="F178">
-        <v>0.2344</v>
+        <v>6.7999999999999996E-3</v>
       </c>
       <c r="G178">
-        <v>0.61150000000000004</v>
+        <v>0.1105</v>
       </c>
       <c r="H178">
-        <v>1</v>
+        <v>0.1196</v>
       </c>
       <c r="I178">
-        <v>0</v>
+        <v>8.7999999999999995E-2</v>
       </c>
       <c r="J178">
-        <v>1</v>
+        <v>3.1600000000000003E-2</v>
       </c>
       <c r="K178">
-        <v>80.769199999999998</v>
+        <v>80</v>
       </c>
     </row>
     <row r="179" spans="1:11" x14ac:dyDescent="0.25">
@@ -6976,25 +6987,25 @@
         <v>16</v>
       </c>
       <c r="E179">
-        <v>0.43430000000000002</v>
+        <v>255</v>
       </c>
       <c r="F179">
-        <v>0.23130000000000001</v>
+        <v>17.677099999999999</v>
       </c>
       <c r="G179">
-        <v>0.56920000000000004</v>
+        <v>272</v>
       </c>
       <c r="H179">
-        <v>1</v>
+        <v>284</v>
       </c>
       <c r="I179">
-        <v>0</v>
+        <v>203</v>
       </c>
       <c r="J179">
-        <v>1</v>
+        <v>81</v>
       </c>
       <c r="K179">
-        <v>80.769199999999998</v>
+        <v>84</v>
       </c>
     </row>
     <row r="180" spans="1:11" x14ac:dyDescent="0.25">
@@ -7011,25 +7022,25 @@
         <v>17</v>
       </c>
       <c r="E180">
-        <v>0.58150000000000002</v>
+        <v>91.36</v>
       </c>
       <c r="F180">
-        <v>0.2429</v>
+        <v>21.367000000000001</v>
       </c>
       <c r="G180">
-        <v>0.79659999999999997</v>
+        <v>107.6</v>
       </c>
       <c r="H180">
-        <v>1</v>
+        <v>118</v>
       </c>
       <c r="I180">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="J180">
-        <v>1</v>
+        <v>98</v>
       </c>
       <c r="K180">
-        <v>84.615399999999994</v>
+        <v>80</v>
       </c>
     </row>
     <row r="181" spans="1:11" x14ac:dyDescent="0.25">
@@ -7046,25 +7057,25 @@
         <v>18</v>
       </c>
       <c r="E181">
-        <v>0.35549999999999998</v>
+        <v>0.65380000000000005</v>
       </c>
       <c r="F181">
-        <v>0.26900000000000002</v>
+        <v>0.2157</v>
       </c>
       <c r="G181">
-        <v>0.53159999999999996</v>
+        <v>0.82079999999999997</v>
       </c>
       <c r="H181">
-        <v>1</v>
+        <v>1.1311</v>
       </c>
       <c r="I181">
-        <v>0</v>
+        <v>0.38500000000000001</v>
       </c>
       <c r="J181">
-        <v>1</v>
+        <v>0.74619999999999997</v>
       </c>
       <c r="K181">
-        <v>80.769199999999998</v>
+        <v>80</v>
       </c>
     </row>
     <row r="182" spans="1:11" x14ac:dyDescent="0.25">
@@ -7081,25 +7092,25 @@
         <v>19</v>
       </c>
       <c r="E182">
-        <v>0.60719999999999996</v>
+        <v>4.7096999999999998</v>
       </c>
       <c r="F182">
-        <v>0.2913</v>
+        <v>1.5057</v>
       </c>
       <c r="G182">
-        <v>0.88060000000000005</v>
+        <v>5.0251999999999999</v>
       </c>
       <c r="H182">
-        <v>1</v>
+        <v>7.9035000000000002</v>
       </c>
       <c r="I182">
-        <v>0</v>
+        <v>3.3323999999999998</v>
       </c>
       <c r="J182">
-        <v>1</v>
+        <v>4.5709999999999997</v>
       </c>
       <c r="K182">
-        <v>84.615399999999994</v>
+        <v>80</v>
       </c>
     </row>
     <row r="183" spans="1:11" x14ac:dyDescent="0.25">
@@ -7116,25 +7127,25 @@
         <v>20</v>
       </c>
       <c r="E183">
-        <v>0.40429999999999999</v>
+        <v>5.0900000000000001E-2</v>
       </c>
       <c r="F183">
-        <v>0.22919999999999999</v>
+        <v>7.4000000000000003E-3</v>
       </c>
       <c r="G183">
-        <v>0.4945</v>
+        <v>5.67E-2</v>
       </c>
       <c r="H183">
-        <v>1</v>
+        <v>6.3700000000000007E-2</v>
       </c>
       <c r="I183">
-        <v>0</v>
+        <v>3.5400000000000001E-2</v>
       </c>
       <c r="J183">
-        <v>1</v>
+        <v>2.8299999999999999E-2</v>
       </c>
       <c r="K183">
-        <v>80.769199999999998</v>
+        <v>80</v>
       </c>
     </row>
     <row r="184" spans="1:11" x14ac:dyDescent="0.25">
@@ -7151,25 +7162,25 @@
         <v>14</v>
       </c>
       <c r="E184">
-        <v>0.56820000000000004</v>
+        <v>101.1357</v>
       </c>
       <c r="F184">
-        <v>0.30299999999999999</v>
+        <v>7.66</v>
       </c>
       <c r="G184">
-        <v>0.83430000000000004</v>
+        <v>105.37649999999999</v>
       </c>
       <c r="H184">
-        <v>1</v>
+        <v>116.56699999999999</v>
       </c>
       <c r="I184">
-        <v>0</v>
+        <v>84.866500000000002</v>
       </c>
       <c r="J184">
-        <v>1</v>
+        <v>31.700600000000001</v>
       </c>
       <c r="K184">
-        <v>78.260900000000007</v>
+        <v>80.769199999999998</v>
       </c>
     </row>
     <row r="185" spans="1:11" x14ac:dyDescent="0.25">
@@ -7186,25 +7197,25 @@
         <v>15</v>
       </c>
       <c r="E185">
-        <v>0.43709999999999999</v>
+        <v>0.10639999999999999</v>
       </c>
       <c r="F185">
-        <v>0.35060000000000002</v>
+        <v>9.7000000000000003E-3</v>
       </c>
       <c r="G185">
-        <v>0.90180000000000005</v>
+        <v>0.11219999999999999</v>
       </c>
       <c r="H185">
-        <v>1</v>
+        <v>0.1283</v>
       </c>
       <c r="I185">
-        <v>0</v>
+        <v>8.6800000000000002E-2</v>
       </c>
       <c r="J185">
-        <v>1</v>
+        <v>4.1599999999999998E-2</v>
       </c>
       <c r="K185">
-        <v>78.260900000000007</v>
+        <v>80.769199999999998</v>
       </c>
     </row>
     <row r="186" spans="1:11" x14ac:dyDescent="0.25">
@@ -7221,25 +7232,25 @@
         <v>16</v>
       </c>
       <c r="E186">
-        <v>0.43609999999999999</v>
+        <v>241.23079999999999</v>
       </c>
       <c r="F186">
-        <v>0.1946</v>
+        <v>15.0366</v>
       </c>
       <c r="G186">
-        <v>0.57579999999999998</v>
+        <v>250</v>
       </c>
       <c r="H186">
-        <v>1</v>
+        <v>278</v>
       </c>
       <c r="I186">
-        <v>0</v>
+        <v>213</v>
       </c>
       <c r="J186">
-        <v>1</v>
+        <v>65</v>
       </c>
       <c r="K186">
-        <v>82.608699999999999</v>
+        <v>80.769199999999998</v>
       </c>
     </row>
     <row r="187" spans="1:11" x14ac:dyDescent="0.25">
@@ -7256,25 +7267,25 @@
         <v>17</v>
       </c>
       <c r="E187">
-        <v>0.55600000000000005</v>
+        <v>88.307699999999997</v>
       </c>
       <c r="F187">
-        <v>0.27310000000000001</v>
+        <v>14.333299999999999</v>
       </c>
       <c r="G187">
-        <v>0.78720000000000001</v>
+        <v>101</v>
       </c>
       <c r="H187">
-        <v>1</v>
+        <v>113</v>
       </c>
       <c r="I187">
-        <v>0</v>
+        <v>54</v>
       </c>
       <c r="J187">
-        <v>1</v>
+        <v>59</v>
       </c>
       <c r="K187">
-        <v>78.260900000000007</v>
+        <v>84.615399999999994</v>
       </c>
     </row>
     <row r="188" spans="1:11" x14ac:dyDescent="0.25">
@@ -7291,25 +7302,25 @@
         <v>18</v>
       </c>
       <c r="E188">
-        <v>0.2288</v>
+        <v>0.64229999999999998</v>
       </c>
       <c r="F188">
-        <v>0.3659</v>
+        <v>0.2591</v>
       </c>
       <c r="G188">
-        <v>0.29509999999999997</v>
+        <v>0.81200000000000006</v>
       </c>
       <c r="H188">
-        <v>1</v>
+        <v>1.2630999999999999</v>
       </c>
       <c r="I188">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="J188">
-        <v>1</v>
+        <v>0.96309999999999996</v>
       </c>
       <c r="K188">
-        <v>78.260900000000007</v>
+        <v>80.769199999999998</v>
       </c>
     </row>
     <row r="189" spans="1:11" x14ac:dyDescent="0.25">
@@ -7326,25 +7337,25 @@
         <v>19</v>
       </c>
       <c r="E189">
-        <v>0.25819999999999999</v>
+        <v>4.2542</v>
       </c>
       <c r="F189">
-        <v>0.3624</v>
+        <v>0.61360000000000003</v>
       </c>
       <c r="G189">
-        <v>0.36770000000000003</v>
+        <v>4.8299000000000003</v>
       </c>
       <c r="H189">
-        <v>1</v>
+        <v>5.0815000000000001</v>
       </c>
       <c r="I189">
-        <v>0</v>
+        <v>2.9752000000000001</v>
       </c>
       <c r="J189">
-        <v>1</v>
+        <v>2.1063000000000001</v>
       </c>
       <c r="K189">
-        <v>78.260900000000007</v>
+        <v>84.615399999999994</v>
       </c>
     </row>
     <row r="190" spans="1:11" x14ac:dyDescent="0.25">
@@ -7361,25 +7372,25 @@
         <v>20</v>
       </c>
       <c r="E190">
-        <v>0.26469999999999999</v>
+        <v>5.3499999999999999E-2</v>
       </c>
       <c r="F190">
-        <v>0.32879999999999998</v>
+        <v>1.0699999999999999E-2</v>
       </c>
       <c r="G190">
-        <v>0.41889999999999999</v>
+        <v>5.7700000000000001E-2</v>
       </c>
       <c r="H190">
-        <v>1</v>
+        <v>8.1199999999999994E-2</v>
       </c>
       <c r="I190">
-        <v>0</v>
+        <v>3.4599999999999999E-2</v>
       </c>
       <c r="J190">
-        <v>1</v>
+        <v>4.6600000000000003E-2</v>
       </c>
       <c r="K190">
-        <v>78.260900000000007</v>
+        <v>80.769199999999998</v>
       </c>
     </row>
     <row r="191" spans="1:11" x14ac:dyDescent="0.25">
@@ -7396,25 +7407,25 @@
         <v>14</v>
       </c>
       <c r="E191">
-        <v>0.51590000000000003</v>
+        <v>91.287000000000006</v>
       </c>
       <c r="F191">
-        <v>0.30320000000000003</v>
+        <v>11.3466</v>
       </c>
       <c r="G191">
-        <v>0.81069999999999998</v>
+        <v>101.253</v>
       </c>
       <c r="H191">
-        <v>1</v>
+        <v>107.4579</v>
       </c>
       <c r="I191">
-        <v>0</v>
+        <v>70.007800000000003</v>
       </c>
       <c r="J191">
-        <v>1</v>
+        <v>37.450099999999999</v>
       </c>
       <c r="K191">
-        <v>80.769199999999998</v>
+        <v>78.260900000000007</v>
       </c>
     </row>
     <row r="192" spans="1:11" x14ac:dyDescent="0.25">
@@ -7431,25 +7442,25 @@
         <v>15</v>
       </c>
       <c r="E192">
-        <v>0.25850000000000001</v>
+        <v>0.125</v>
       </c>
       <c r="F192">
-        <v>0.27610000000000001</v>
+        <v>3.09E-2</v>
       </c>
       <c r="G192">
-        <v>0.36259999999999998</v>
+        <v>0.16600000000000001</v>
       </c>
       <c r="H192">
-        <v>1</v>
+        <v>0.17460000000000001</v>
       </c>
       <c r="I192">
-        <v>0</v>
+        <v>8.6499999999999994E-2</v>
       </c>
       <c r="J192">
-        <v>1</v>
+        <v>8.8099999999999998E-2</v>
       </c>
       <c r="K192">
-        <v>80.769199999999998</v>
+        <v>78.260900000000007</v>
       </c>
     </row>
     <row r="193" spans="1:11" x14ac:dyDescent="0.25">
@@ -7466,25 +7477,25 @@
         <v>16</v>
       </c>
       <c r="E193">
-        <v>0.48720000000000002</v>
+        <v>246.7826</v>
       </c>
       <c r="F193">
-        <v>0.27279999999999999</v>
+        <v>12.8468</v>
       </c>
       <c r="G193">
-        <v>0.70830000000000004</v>
+        <v>256</v>
       </c>
       <c r="H193">
-        <v>1</v>
+        <v>284</v>
       </c>
       <c r="I193">
-        <v>0</v>
+        <v>218</v>
       </c>
       <c r="J193">
-        <v>1</v>
+        <v>66</v>
       </c>
       <c r="K193">
-        <v>80.769199999999998</v>
+        <v>82.608699999999999</v>
       </c>
     </row>
     <row r="194" spans="1:11" x14ac:dyDescent="0.25">
@@ -7501,25 +7512,25 @@
         <v>17</v>
       </c>
       <c r="E194">
-        <v>0.50670000000000004</v>
+        <v>85.130399999999995</v>
       </c>
       <c r="F194">
-        <v>0.2351</v>
+        <v>12.8344</v>
       </c>
       <c r="G194">
-        <v>0.66669999999999996</v>
+        <v>96</v>
       </c>
       <c r="H194">
-        <v>1</v>
+        <v>106</v>
       </c>
       <c r="I194">
-        <v>0</v>
+        <v>59</v>
       </c>
       <c r="J194">
-        <v>1</v>
+        <v>47</v>
       </c>
       <c r="K194">
-        <v>80.769199999999998</v>
+        <v>78.260900000000007</v>
       </c>
     </row>
     <row r="195" spans="1:11" x14ac:dyDescent="0.25">
@@ -7536,25 +7547,25 @@
         <v>18</v>
       </c>
       <c r="E195">
-        <v>0.15840000000000001</v>
+        <v>4.2211999999999996</v>
       </c>
       <c r="F195">
-        <v>0.35799999999999998</v>
+        <v>6.1147</v>
       </c>
       <c r="G195">
-        <v>1.61E-2</v>
+        <v>5.3293999999999997</v>
       </c>
       <c r="H195">
-        <v>1</v>
+        <v>17.11</v>
       </c>
       <c r="I195">
-        <v>0</v>
+        <v>0.39839999999999998</v>
       </c>
       <c r="J195">
-        <v>1</v>
+        <v>16.7117</v>
       </c>
       <c r="K195">
-        <v>80.769199999999998</v>
+        <v>78.260900000000007</v>
       </c>
     </row>
     <row r="196" spans="1:11" x14ac:dyDescent="0.25">
@@ -7571,25 +7582,25 @@
         <v>19</v>
       </c>
       <c r="E196">
-        <v>0.18029999999999999</v>
+        <v>10.7555</v>
       </c>
       <c r="F196">
-        <v>0.35</v>
+        <v>10.787699999999999</v>
       </c>
       <c r="G196">
-        <v>5.8200000000000002E-2</v>
+        <v>14.0143</v>
       </c>
       <c r="H196">
-        <v>1</v>
+        <v>32.837600000000002</v>
       </c>
       <c r="I196">
-        <v>0</v>
+        <v>3.0695000000000001</v>
       </c>
       <c r="J196">
-        <v>1</v>
+        <v>29.7681</v>
       </c>
       <c r="K196">
-        <v>80.769199999999998</v>
+        <v>78.260900000000007</v>
       </c>
     </row>
     <row r="197" spans="1:11" x14ac:dyDescent="0.25">
@@ -7606,25 +7617,25 @@
         <v>20</v>
       </c>
       <c r="E197">
-        <v>0.21820000000000001</v>
+        <v>6.8199999999999997E-2</v>
       </c>
       <c r="F197">
-        <v>0.32019999999999998</v>
+        <v>3.2300000000000002E-2</v>
       </c>
       <c r="G197">
-        <v>0.1593</v>
+        <v>8.3299999999999999E-2</v>
       </c>
       <c r="H197">
-        <v>1</v>
+        <v>0.1404</v>
       </c>
       <c r="I197">
-        <v>0</v>
+        <v>4.2200000000000001E-2</v>
       </c>
       <c r="J197">
-        <v>1</v>
+        <v>9.8199999999999996E-2</v>
       </c>
       <c r="K197">
-        <v>80.769199999999998</v>
+        <v>78.260900000000007</v>
       </c>
     </row>
     <row r="198" spans="1:11" x14ac:dyDescent="0.25">
@@ -7641,25 +7652,25 @@
         <v>14</v>
       </c>
       <c r="E198">
-        <v>0.32379999999999998</v>
+        <v>66.148600000000002</v>
       </c>
       <c r="F198">
-        <v>0.3024</v>
+        <v>12.421200000000001</v>
       </c>
       <c r="G198">
-        <v>0.64670000000000005</v>
+        <v>78.221599999999995</v>
       </c>
       <c r="H198">
-        <v>1</v>
+        <v>85.976500000000001</v>
       </c>
       <c r="I198">
-        <v>0</v>
+        <v>45.014600000000002</v>
       </c>
       <c r="J198">
-        <v>1</v>
+        <v>40.9619</v>
       </c>
       <c r="K198">
-        <v>80</v>
+        <v>80.769199999999998</v>
       </c>
     </row>
     <row r="199" spans="1:11" x14ac:dyDescent="0.25">
@@ -7676,25 +7687,25 @@
         <v>15</v>
       </c>
       <c r="E199">
-        <v>0.56110000000000004</v>
+        <v>0.16120000000000001</v>
       </c>
       <c r="F199">
-        <v>0.29880000000000001</v>
+        <v>5.2499999999999998E-2</v>
       </c>
       <c r="G199">
-        <v>0.83950000000000002</v>
+        <v>0.18090000000000001</v>
       </c>
       <c r="H199">
-        <v>1</v>
+        <v>0.30209999999999998</v>
       </c>
       <c r="I199">
-        <v>0</v>
+        <v>0.112</v>
       </c>
       <c r="J199">
-        <v>1</v>
+        <v>0.19009999999999999</v>
       </c>
       <c r="K199">
-        <v>80</v>
+        <v>80.769199999999998</v>
       </c>
     </row>
     <row r="200" spans="1:11" x14ac:dyDescent="0.25">
@@ -7711,25 +7722,25 @@
         <v>16</v>
       </c>
       <c r="E200">
-        <v>0.4924</v>
+        <v>237.07689999999999</v>
       </c>
       <c r="F200">
-        <v>0.22239999999999999</v>
+        <v>19.642800000000001</v>
       </c>
       <c r="G200">
-        <v>0.6714</v>
+        <v>253</v>
       </c>
       <c r="H200">
-        <v>1</v>
+        <v>274</v>
       </c>
       <c r="I200">
-        <v>0</v>
+        <v>202</v>
       </c>
       <c r="J200">
-        <v>1</v>
+        <v>72</v>
       </c>
       <c r="K200">
-        <v>80</v>
+        <v>80.769199999999998</v>
       </c>
     </row>
     <row r="201" spans="1:11" x14ac:dyDescent="0.25">
@@ -7746,25 +7757,25 @@
         <v>17</v>
       </c>
       <c r="E201">
-        <v>0.43</v>
+        <v>67</v>
       </c>
       <c r="F201">
-        <v>0.24959999999999999</v>
+        <v>17.630800000000001</v>
       </c>
       <c r="G201">
-        <v>0.61329999999999996</v>
+        <v>79</v>
       </c>
       <c r="H201">
-        <v>1</v>
+        <v>104</v>
       </c>
       <c r="I201">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="J201">
-        <v>1</v>
+        <v>75</v>
       </c>
       <c r="K201">
-        <v>80</v>
+        <v>80.769199999999998</v>
       </c>
     </row>
     <row r="202" spans="1:11" x14ac:dyDescent="0.25">
@@ -7781,25 +7792,25 @@
         <v>18</v>
       </c>
       <c r="E202">
-        <v>0.57079999999999997</v>
+        <v>27.8688</v>
       </c>
       <c r="F202">
-        <v>0.23530000000000001</v>
+        <v>62.161000000000001</v>
       </c>
       <c r="G202">
-        <v>0.74309999999999998</v>
+        <v>3.1587000000000001</v>
       </c>
       <c r="H202">
-        <v>1</v>
+        <v>174.0103</v>
       </c>
       <c r="I202">
-        <v>0</v>
+        <v>0.37009999999999998</v>
       </c>
       <c r="J202">
-        <v>1</v>
+        <v>173.6403</v>
       </c>
       <c r="K202">
-        <v>80</v>
+        <v>80.769199999999998</v>
       </c>
     </row>
     <row r="203" spans="1:11" x14ac:dyDescent="0.25">
@@ -7816,25 +7827,25 @@
         <v>19</v>
       </c>
       <c r="E203">
-        <v>0.41439999999999999</v>
+        <v>22.046299999999999</v>
       </c>
       <c r="F203">
-        <v>0.23630000000000001</v>
+        <v>35.916800000000002</v>
       </c>
       <c r="G203">
-        <v>0.45689999999999997</v>
+        <v>9.5155999999999992</v>
       </c>
       <c r="H203">
-        <v>1</v>
+        <v>106.1644</v>
       </c>
       <c r="I203">
-        <v>0</v>
+        <v>3.5474000000000001</v>
       </c>
       <c r="J203">
-        <v>1</v>
+        <v>102.617</v>
       </c>
       <c r="K203">
-        <v>80</v>
+        <v>80.769199999999998</v>
       </c>
     </row>
     <row r="204" spans="1:11" x14ac:dyDescent="0.25">
@@ -7851,25 +7862,25 @@
         <v>20</v>
       </c>
       <c r="E204">
-        <v>0.63870000000000005</v>
+        <v>0.1111</v>
       </c>
       <c r="F204">
-        <v>0.27329999999999999</v>
+        <v>0.10349999999999999</v>
       </c>
       <c r="G204">
-        <v>0.88390000000000002</v>
+        <v>9.2100000000000001E-2</v>
       </c>
       <c r="H204">
-        <v>1</v>
+        <v>0.36380000000000001</v>
       </c>
       <c r="I204">
-        <v>0</v>
+        <v>4.0599999999999997E-2</v>
       </c>
       <c r="J204">
-        <v>1</v>
+        <v>0.32319999999999999</v>
       </c>
       <c r="K204">
-        <v>80</v>
+        <v>80.769199999999998</v>
       </c>
     </row>
     <row r="205" spans="1:11" x14ac:dyDescent="0.25">
@@ -7886,25 +7897,25 @@
         <v>14</v>
       </c>
       <c r="E205">
-        <v>0.41620000000000001</v>
+        <v>89.146299999999997</v>
       </c>
       <c r="F205">
-        <v>0.2833</v>
+        <v>12.6577</v>
       </c>
       <c r="G205">
-        <v>0.66620000000000001</v>
+        <v>102.6601</v>
       </c>
       <c r="H205">
-        <v>1</v>
+        <v>117.4461</v>
       </c>
       <c r="I205">
-        <v>0</v>
+        <v>75.593699999999998</v>
       </c>
       <c r="J205">
-        <v>1</v>
+        <v>41.852400000000003</v>
       </c>
       <c r="K205">
-        <v>78.947400000000002</v>
+        <v>80</v>
       </c>
     </row>
     <row r="206" spans="1:11" x14ac:dyDescent="0.25">
@@ -7921,25 +7932,25 @@
         <v>15</v>
       </c>
       <c r="E206">
-        <v>0.5917</v>
+        <v>0.1133</v>
       </c>
       <c r="F206">
-        <v>0.27529999999999999</v>
+        <v>1.5800000000000002E-2</v>
       </c>
       <c r="G206">
-        <v>0.81830000000000003</v>
+        <v>0.128</v>
       </c>
       <c r="H206">
-        <v>1</v>
+        <v>0.13650000000000001</v>
       </c>
       <c r="I206">
-        <v>0</v>
+        <v>8.3599999999999994E-2</v>
       </c>
       <c r="J206">
-        <v>1</v>
+        <v>5.2900000000000003E-2</v>
       </c>
       <c r="K206">
-        <v>78.947400000000002</v>
+        <v>80</v>
       </c>
     </row>
     <row r="207" spans="1:11" x14ac:dyDescent="0.25">
@@ -7956,25 +7967,25 @@
         <v>16</v>
       </c>
       <c r="E207">
-        <v>0.435</v>
+        <v>241.36</v>
       </c>
       <c r="F207">
-        <v>0.23730000000000001</v>
+        <v>18.6845</v>
       </c>
       <c r="G207">
-        <v>0.5736</v>
+        <v>256.39999999999998</v>
       </c>
       <c r="H207">
-        <v>1</v>
+        <v>284</v>
       </c>
       <c r="I207">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="J207">
-        <v>1</v>
+        <v>84</v>
       </c>
       <c r="K207">
-        <v>78.947400000000002</v>
+        <v>80</v>
       </c>
     </row>
     <row r="208" spans="1:11" x14ac:dyDescent="0.25">
@@ -7991,25 +8002,25 @@
         <v>17</v>
       </c>
       <c r="E208">
-        <v>0.501</v>
+        <v>79.8</v>
       </c>
       <c r="F208">
-        <v>0.25330000000000003</v>
+        <v>14.9773</v>
       </c>
       <c r="G208">
-        <v>0.6885</v>
+        <v>90.8</v>
       </c>
       <c r="H208">
-        <v>1</v>
+        <v>114</v>
       </c>
       <c r="I208">
-        <v>0</v>
+        <v>54</v>
       </c>
       <c r="J208">
-        <v>1</v>
+        <v>60</v>
       </c>
       <c r="K208">
-        <v>78.947400000000002</v>
+        <v>80</v>
       </c>
     </row>
     <row r="209" spans="1:11" x14ac:dyDescent="0.25">
@@ -8026,25 +8037,25 @@
         <v>18</v>
       </c>
       <c r="E209">
-        <v>0.5071</v>
+        <v>0.5222</v>
       </c>
       <c r="F209">
-        <v>0.26329999999999998</v>
+        <v>0.1646</v>
       </c>
       <c r="G209">
-        <v>0.76290000000000002</v>
+        <v>0.64270000000000005</v>
       </c>
       <c r="H209">
-        <v>1</v>
+        <v>0.82240000000000002</v>
       </c>
       <c r="I209">
-        <v>0</v>
+        <v>0.1229</v>
       </c>
       <c r="J209">
-        <v>1</v>
+        <v>0.69950000000000001</v>
       </c>
       <c r="K209">
-        <v>78.947400000000002</v>
+        <v>80</v>
       </c>
     </row>
     <row r="210" spans="1:11" x14ac:dyDescent="0.25">
@@ -8061,25 +8072,25 @@
         <v>19</v>
       </c>
       <c r="E210">
-        <v>0.60919999999999996</v>
+        <v>3.9550999999999998</v>
       </c>
       <c r="F210">
-        <v>0.32150000000000001</v>
+        <v>1.2557</v>
       </c>
       <c r="G210">
-        <v>0.80300000000000005</v>
+        <v>4.1803999999999997</v>
       </c>
       <c r="H210">
-        <v>1</v>
+        <v>7.0664999999999996</v>
       </c>
       <c r="I210">
-        <v>0</v>
+        <v>1.7528999999999999</v>
       </c>
       <c r="J210">
-        <v>1</v>
+        <v>5.3135000000000003</v>
       </c>
       <c r="K210">
-        <v>78.947400000000002</v>
+        <v>80</v>
       </c>
     </row>
     <row r="211" spans="1:11" x14ac:dyDescent="0.25">
@@ -8096,25 +8107,25 @@
         <v>20</v>
       </c>
       <c r="E211">
-        <v>0.35249999999999998</v>
+        <v>5.2299999999999999E-2</v>
       </c>
       <c r="F211">
-        <v>0.3014</v>
+        <v>1.04E-2</v>
       </c>
       <c r="G211">
-        <v>0.53959999999999997</v>
+        <v>6.1600000000000002E-2</v>
       </c>
       <c r="H211">
-        <v>1</v>
+        <v>6.6000000000000003E-2</v>
       </c>
       <c r="I211">
-        <v>0</v>
+        <v>2.81E-2</v>
       </c>
       <c r="J211">
-        <v>1</v>
+        <v>3.7999999999999999E-2</v>
       </c>
       <c r="K211">
-        <v>78.947400000000002</v>
+        <v>80</v>
       </c>
     </row>
     <row r="212" spans="1:11" x14ac:dyDescent="0.25">
@@ -8131,25 +8142,25 @@
         <v>14</v>
       </c>
       <c r="E212">
-        <v>0.51060000000000005</v>
+        <v>108.91030000000001</v>
       </c>
       <c r="F212">
-        <v>0.2351</v>
+        <v>9.8512000000000004</v>
       </c>
       <c r="G212">
-        <v>0.73729999999999996</v>
+        <v>117.60420000000001</v>
       </c>
       <c r="H212">
-        <v>1</v>
+        <v>129.21190000000001</v>
       </c>
       <c r="I212">
-        <v>0</v>
+        <v>94.434600000000003</v>
       </c>
       <c r="J212">
-        <v>1</v>
+        <v>34.777299999999997</v>
       </c>
       <c r="K212">
-        <v>80</v>
+        <v>78.947400000000002</v>
       </c>
     </row>
     <row r="213" spans="1:11" x14ac:dyDescent="0.25">
@@ -8166,25 +8177,25 @@
         <v>15</v>
       </c>
       <c r="E213">
-        <v>0.52600000000000002</v>
+        <v>9.1399999999999995E-2</v>
       </c>
       <c r="F213">
-        <v>0.28210000000000002</v>
+        <v>7.0000000000000001E-3</v>
       </c>
       <c r="G213">
-        <v>0.81540000000000001</v>
+        <v>9.7199999999999995E-2</v>
       </c>
       <c r="H213">
-        <v>1</v>
+        <v>0.1018</v>
       </c>
       <c r="I213">
-        <v>0</v>
+        <v>7.6499999999999999E-2</v>
       </c>
       <c r="J213">
-        <v>1</v>
+        <v>2.53E-2</v>
       </c>
       <c r="K213">
-        <v>80</v>
+        <v>78.947400000000002</v>
       </c>
     </row>
     <row r="214" spans="1:11" x14ac:dyDescent="0.25">
@@ -8201,25 +8212,25 @@
         <v>16</v>
       </c>
       <c r="E214">
-        <v>0.24340000000000001</v>
+        <v>240.05260000000001</v>
       </c>
       <c r="F214">
-        <v>0.247</v>
+        <v>12.576000000000001</v>
       </c>
       <c r="G214">
-        <v>0.29659999999999997</v>
+        <v>247.4</v>
       </c>
       <c r="H214">
-        <v>1</v>
+        <v>270</v>
       </c>
       <c r="I214">
-        <v>0</v>
+        <v>217</v>
       </c>
       <c r="J214">
-        <v>1</v>
+        <v>53</v>
       </c>
       <c r="K214">
-        <v>80</v>
+        <v>78.947400000000002</v>
       </c>
     </row>
     <row r="215" spans="1:11" x14ac:dyDescent="0.25">
@@ -8236,25 +8247,25 @@
         <v>17</v>
       </c>
       <c r="E215">
-        <v>0.44669999999999999</v>
+        <v>87.052599999999998</v>
       </c>
       <c r="F215">
-        <v>0.25430000000000003</v>
+        <v>13.172800000000001</v>
       </c>
       <c r="G215">
-        <v>0.64</v>
+        <v>96.8</v>
       </c>
       <c r="H215">
-        <v>1</v>
+        <v>113</v>
       </c>
       <c r="I215">
-        <v>0</v>
+        <v>61</v>
       </c>
       <c r="J215">
-        <v>1</v>
+        <v>52</v>
       </c>
       <c r="K215">
-        <v>83.333299999999994</v>
+        <v>78.947400000000002</v>
       </c>
     </row>
     <row r="216" spans="1:11" x14ac:dyDescent="0.25">
@@ -8271,25 +8282,25 @@
         <v>18</v>
       </c>
       <c r="E216">
-        <v>0.24440000000000001</v>
+        <v>0.28239999999999998</v>
       </c>
       <c r="F216">
-        <v>0.29010000000000002</v>
+        <v>6.83E-2</v>
       </c>
       <c r="G216">
-        <v>0.29759999999999998</v>
+        <v>0.34870000000000001</v>
       </c>
       <c r="H216">
-        <v>1</v>
+        <v>0.41020000000000001</v>
       </c>
       <c r="I216">
-        <v>0</v>
+        <v>0.15090000000000001</v>
       </c>
       <c r="J216">
-        <v>1</v>
+        <v>0.25929999999999997</v>
       </c>
       <c r="K216">
-        <v>80</v>
+        <v>78.947400000000002</v>
       </c>
     </row>
     <row r="217" spans="1:11" x14ac:dyDescent="0.25">
@@ -8306,25 +8317,25 @@
         <v>19</v>
       </c>
       <c r="E217">
-        <v>0.27789999999999998</v>
+        <v>2.9983</v>
       </c>
       <c r="F217">
-        <v>0.3034</v>
+        <v>0.36049999999999999</v>
       </c>
       <c r="G217">
-        <v>0.4083</v>
+        <v>3.2155999999999998</v>
       </c>
       <c r="H217">
-        <v>1</v>
+        <v>3.4365000000000001</v>
       </c>
       <c r="I217">
-        <v>0</v>
+        <v>2.3153000000000001</v>
       </c>
       <c r="J217">
-        <v>1</v>
+        <v>1.1212</v>
       </c>
       <c r="K217">
-        <v>80</v>
+        <v>78.947400000000002</v>
       </c>
     </row>
     <row r="218" spans="1:11" x14ac:dyDescent="0.25">
@@ -8341,25 +8352,25 @@
         <v>20</v>
       </c>
       <c r="E218">
-        <v>0.35370000000000001</v>
+        <v>3.6600000000000001E-2</v>
       </c>
       <c r="F218">
-        <v>0.27050000000000002</v>
+        <v>6.7000000000000002E-3</v>
       </c>
       <c r="G218">
-        <v>0.48249999999999998</v>
+        <v>4.0800000000000003E-2</v>
       </c>
       <c r="H218">
-        <v>1</v>
+        <v>5.0999999999999997E-2</v>
       </c>
       <c r="I218">
-        <v>0</v>
+        <v>2.8799999999999999E-2</v>
       </c>
       <c r="J218">
-        <v>1</v>
+        <v>2.2200000000000001E-2</v>
       </c>
       <c r="K218">
-        <v>80</v>
+        <v>78.947400000000002</v>
       </c>
     </row>
     <row r="219" spans="1:11" x14ac:dyDescent="0.25">
@@ -8376,25 +8387,25 @@
         <v>14</v>
       </c>
       <c r="E219">
-        <v>0.64929999999999999</v>
+        <v>5.0500999999999996</v>
       </c>
       <c r="F219">
-        <v>0.28089999999999998</v>
+        <v>0.52939999999999998</v>
       </c>
       <c r="G219">
-        <v>0.88390000000000002</v>
+        <v>5.5606999999999998</v>
       </c>
       <c r="H219">
-        <v>1</v>
+        <v>6.1523000000000003</v>
       </c>
       <c r="I219">
-        <v>0</v>
+        <v>3.9005000000000001</v>
       </c>
       <c r="J219">
-        <v>1</v>
+        <v>2.2517999999999998</v>
       </c>
       <c r="K219">
-        <v>79.166700000000006</v>
+        <v>80</v>
       </c>
     </row>
     <row r="220" spans="1:11" x14ac:dyDescent="0.25">
@@ -8411,25 +8422,25 @@
         <v>15</v>
       </c>
       <c r="E220">
-        <v>0.4551</v>
+        <v>1.6196999999999999</v>
       </c>
       <c r="F220">
-        <v>0.24379999999999999</v>
+        <v>0.12909999999999999</v>
       </c>
       <c r="G220">
-        <v>0.64039999999999997</v>
+        <v>1.7522</v>
       </c>
       <c r="H220">
-        <v>1</v>
+        <v>1.8367</v>
       </c>
       <c r="I220">
-        <v>0</v>
+        <v>1.3791</v>
       </c>
       <c r="J220">
-        <v>1</v>
+        <v>0.45760000000000001</v>
       </c>
       <c r="K220">
-        <v>79.166700000000006</v>
+        <v>80</v>
       </c>
     </row>
     <row r="221" spans="1:11" x14ac:dyDescent="0.25">
@@ -8446,25 +8457,25 @@
         <v>16</v>
       </c>
       <c r="E221">
-        <v>0.52900000000000003</v>
+        <v>68.666700000000006</v>
       </c>
       <c r="F221">
-        <v>0.26740000000000003</v>
+        <v>21.980799999999999</v>
       </c>
       <c r="G221">
-        <v>0.8</v>
+        <v>73.400000000000006</v>
       </c>
       <c r="H221">
-        <v>1</v>
+        <v>136</v>
       </c>
       <c r="I221">
-        <v>0</v>
+        <v>47</v>
       </c>
       <c r="J221">
-        <v>1</v>
+        <v>89</v>
       </c>
       <c r="K221">
-        <v>79.166700000000006</v>
+        <v>80</v>
       </c>
     </row>
     <row r="222" spans="1:11" x14ac:dyDescent="0.25">
@@ -8481,22 +8492,22 @@
         <v>17</v>
       </c>
       <c r="E222">
-        <v>0.3357</v>
+        <v>41.166699999999999</v>
       </c>
       <c r="F222">
-        <v>0.2427</v>
+        <v>6.3564999999999996</v>
       </c>
       <c r="G222">
-        <v>0.42309999999999998</v>
+        <v>46</v>
       </c>
       <c r="H222">
-        <v>1</v>
+        <v>55</v>
       </c>
       <c r="I222">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="J222">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="K222">
         <v>83.333299999999994</v>
@@ -8516,25 +8527,25 @@
         <v>18</v>
       </c>
       <c r="E223">
-        <v>0.26669999999999999</v>
+        <v>4677.0913</v>
       </c>
       <c r="F223">
-        <v>0.25819999999999999</v>
+        <v>3682.1464000000001</v>
       </c>
       <c r="G223">
-        <v>0.47060000000000002</v>
+        <v>5352.1022999999996</v>
       </c>
       <c r="H223">
-        <v>1</v>
+        <v>14268.4622</v>
       </c>
       <c r="I223">
-        <v>0</v>
+        <v>1575.1105</v>
       </c>
       <c r="J223">
-        <v>1</v>
+        <v>12693.351699999999</v>
       </c>
       <c r="K223">
-        <v>79.166700000000006</v>
+        <v>80</v>
       </c>
     </row>
     <row r="224" spans="1:11" x14ac:dyDescent="0.25">
@@ -8551,25 +8562,25 @@
         <v>19</v>
       </c>
       <c r="E224">
-        <v>0.32690000000000002</v>
+        <v>372.52199999999999</v>
       </c>
       <c r="F224">
-        <v>0.3372</v>
+        <v>196.7466</v>
       </c>
       <c r="G224">
-        <v>0.48199999999999998</v>
+        <v>457.06319999999999</v>
       </c>
       <c r="H224">
-        <v>1</v>
+        <v>840.76520000000005</v>
       </c>
       <c r="I224">
-        <v>0</v>
+        <v>192.3201</v>
       </c>
       <c r="J224">
-        <v>1</v>
+        <v>648.44510000000002</v>
       </c>
       <c r="K224">
-        <v>79.166700000000006</v>
+        <v>80</v>
       </c>
     </row>
     <row r="225" spans="1:11" x14ac:dyDescent="0.25">
@@ -8586,25 +8597,25 @@
         <v>20</v>
       </c>
       <c r="E225">
-        <v>0.45550000000000002</v>
+        <v>3.1585999999999999</v>
       </c>
       <c r="F225">
-        <v>0.307</v>
+        <v>0.84909999999999997</v>
       </c>
       <c r="G225">
-        <v>0.75319999999999998</v>
+        <v>3.5627</v>
       </c>
       <c r="H225">
-        <v>1</v>
+        <v>5.1871</v>
       </c>
       <c r="I225">
-        <v>0</v>
+        <v>2.0482</v>
       </c>
       <c r="J225">
-        <v>1</v>
+        <v>3.1389</v>
       </c>
       <c r="K225">
-        <v>79.166700000000006</v>
+        <v>80</v>
       </c>
     </row>
     <row r="226" spans="1:11" x14ac:dyDescent="0.25">
@@ -8621,25 +8632,25 @@
         <v>14</v>
       </c>
       <c r="E226">
-        <v>0.42309999999999998</v>
+        <v>69.843800000000002</v>
       </c>
       <c r="F226">
-        <v>0.24510000000000001</v>
+        <v>3.4569999999999999</v>
       </c>
       <c r="G226">
-        <v>0.58830000000000005</v>
+        <v>72.730599999999995</v>
       </c>
       <c r="H226">
-        <v>1</v>
+        <v>74.159199999999998</v>
       </c>
       <c r="I226">
-        <v>0</v>
+        <v>61.8538</v>
       </c>
       <c r="J226">
-        <v>1</v>
+        <v>12.305400000000001</v>
       </c>
       <c r="K226">
-        <v>78.260900000000007</v>
+        <v>79.166700000000006</v>
       </c>
     </row>
     <row r="227" spans="1:11" x14ac:dyDescent="0.25">
@@ -8656,25 +8667,25 @@
         <v>15</v>
       </c>
       <c r="E227">
-        <v>0.58730000000000004</v>
+        <v>0.14119999999999999</v>
       </c>
       <c r="F227">
-        <v>0.26100000000000001</v>
+        <v>1.04E-2</v>
       </c>
       <c r="G227">
-        <v>0.83550000000000002</v>
+        <v>0.14910000000000001</v>
       </c>
       <c r="H227">
-        <v>1</v>
+        <v>0.16439999999999999</v>
       </c>
       <c r="I227">
-        <v>0</v>
+        <v>0.12180000000000001</v>
       </c>
       <c r="J227">
-        <v>1</v>
+        <v>4.2599999999999999E-2</v>
       </c>
       <c r="K227">
-        <v>78.260900000000007</v>
+        <v>79.166700000000006</v>
       </c>
     </row>
     <row r="228" spans="1:11" x14ac:dyDescent="0.25">
@@ -8691,25 +8702,25 @@
         <v>16</v>
       </c>
       <c r="E228">
-        <v>0.74890000000000001</v>
+        <v>253.20830000000001</v>
       </c>
       <c r="F228">
-        <v>0.23280000000000001</v>
+        <v>15.7744</v>
       </c>
       <c r="G228">
-        <v>0.86560000000000004</v>
+        <v>269.2</v>
       </c>
       <c r="H228">
-        <v>1</v>
+        <v>281</v>
       </c>
       <c r="I228">
-        <v>0</v>
+        <v>222</v>
       </c>
       <c r="J228">
-        <v>1</v>
+        <v>59</v>
       </c>
       <c r="K228">
-        <v>78.260900000000007</v>
+        <v>79.166700000000006</v>
       </c>
     </row>
     <row r="229" spans="1:11" x14ac:dyDescent="0.25">
@@ -8726,25 +8737,25 @@
         <v>17</v>
       </c>
       <c r="E229">
-        <v>0.23910000000000001</v>
+        <v>58.458300000000001</v>
       </c>
       <c r="F229">
-        <v>0.27060000000000001</v>
+        <v>12.6227</v>
       </c>
       <c r="G229">
-        <v>0.25</v>
+        <v>63</v>
       </c>
       <c r="H229">
-        <v>1</v>
+        <v>93</v>
       </c>
       <c r="I229">
-        <v>0</v>
+        <v>41</v>
       </c>
       <c r="J229">
-        <v>1</v>
+        <v>52</v>
       </c>
       <c r="K229">
-        <v>86.956500000000005</v>
+        <v>83.333299999999994</v>
       </c>
     </row>
     <row r="230" spans="1:11" x14ac:dyDescent="0.25">
@@ -8761,25 +8772,25 @@
         <v>18</v>
       </c>
       <c r="E230">
-        <v>0.55530000000000002</v>
+        <v>1.1482000000000001</v>
       </c>
       <c r="F230">
-        <v>0.29249999999999998</v>
+        <v>0.77949999999999997</v>
       </c>
       <c r="G230">
-        <v>0.80710000000000004</v>
+        <v>1.7636000000000001</v>
       </c>
       <c r="H230">
-        <v>1</v>
+        <v>3.3616999999999999</v>
       </c>
       <c r="I230">
-        <v>0</v>
+        <v>0.34329999999999999</v>
       </c>
       <c r="J230">
-        <v>1</v>
+        <v>3.0184000000000002</v>
       </c>
       <c r="K230">
-        <v>78.260900000000007</v>
+        <v>79.166700000000006</v>
       </c>
     </row>
     <row r="231" spans="1:11" x14ac:dyDescent="0.25">
@@ -8796,25 +8807,25 @@
         <v>19</v>
       </c>
       <c r="E231">
-        <v>0.57489999999999997</v>
+        <v>6.6086</v>
       </c>
       <c r="F231">
-        <v>0.31180000000000002</v>
+        <v>3.5312999999999999</v>
       </c>
       <c r="G231">
-        <v>0.87749999999999995</v>
+        <v>8.2324000000000002</v>
       </c>
       <c r="H231">
-        <v>1</v>
+        <v>13.657</v>
       </c>
       <c r="I231">
-        <v>0</v>
+        <v>3.1850999999999998</v>
       </c>
       <c r="J231">
-        <v>1</v>
+        <v>10.4719</v>
       </c>
       <c r="K231">
-        <v>82.608699999999999</v>
+        <v>79.166700000000006</v>
       </c>
     </row>
     <row r="232" spans="1:11" x14ac:dyDescent="0.25">
@@ -8831,25 +8842,25 @@
         <v>20</v>
       </c>
       <c r="E232">
-        <v>0.47810000000000002</v>
+        <v>6.5500000000000003E-2</v>
       </c>
       <c r="F232">
-        <v>0.27529999999999999</v>
+        <v>1.3899999999999999E-2</v>
       </c>
       <c r="G232">
-        <v>0.73019999999999996</v>
+        <v>7.9000000000000001E-2</v>
       </c>
       <c r="H232">
-        <v>1</v>
+        <v>9.0200000000000002E-2</v>
       </c>
       <c r="I232">
-        <v>0</v>
+        <v>4.48E-2</v>
       </c>
       <c r="J232">
-        <v>1</v>
+        <v>4.5400000000000003E-2</v>
       </c>
       <c r="K232">
-        <v>78.260900000000007</v>
+        <v>79.166700000000006</v>
       </c>
     </row>
     <row r="233" spans="1:11" x14ac:dyDescent="0.25">
@@ -8866,25 +8877,25 @@
         <v>14</v>
       </c>
       <c r="E233">
-        <v>0.4607</v>
+        <v>42.685299999999998</v>
       </c>
       <c r="F233">
-        <v>0.25380000000000003</v>
+        <v>1.9736</v>
       </c>
       <c r="G233">
-        <v>0.66669999999999996</v>
+        <v>44.0152</v>
       </c>
       <c r="H233">
-        <v>1</v>
+        <v>47.33</v>
       </c>
       <c r="I233">
-        <v>0</v>
+        <v>39.2789</v>
       </c>
       <c r="J233">
-        <v>1</v>
+        <v>8.0510999999999999</v>
       </c>
       <c r="K233">
-        <v>80.952399999999997</v>
+        <v>78.260900000000007</v>
       </c>
     </row>
     <row r="234" spans="1:11" x14ac:dyDescent="0.25">
@@ -8901,25 +8912,25 @@
         <v>15</v>
       </c>
       <c r="E234">
-        <v>0.46760000000000002</v>
+        <v>0.20369999999999999</v>
       </c>
       <c r="F234">
-        <v>0.2908</v>
+        <v>1.4E-2</v>
       </c>
       <c r="G234">
-        <v>0.76690000000000003</v>
+        <v>0.217</v>
       </c>
       <c r="H234">
-        <v>1</v>
+        <v>0.2258</v>
       </c>
       <c r="I234">
-        <v>0</v>
+        <v>0.17230000000000001</v>
       </c>
       <c r="J234">
-        <v>1</v>
+        <v>5.3499999999999999E-2</v>
       </c>
       <c r="K234">
-        <v>80.952399999999997</v>
+        <v>78.260900000000007</v>
       </c>
     </row>
     <row r="235" spans="1:11" x14ac:dyDescent="0.25">
@@ -8936,25 +8947,25 @@
         <v>16</v>
       </c>
       <c r="E235">
-        <v>0.55889999999999995</v>
+        <v>224.47829999999999</v>
       </c>
       <c r="F235">
-        <v>0.21920000000000001</v>
+        <v>56.106900000000003</v>
       </c>
       <c r="G235">
-        <v>0.77190000000000003</v>
+        <v>252.6</v>
       </c>
       <c r="H235">
-        <v>1</v>
+        <v>285</v>
       </c>
       <c r="I235">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="J235">
-        <v>1</v>
+        <v>241</v>
       </c>
       <c r="K235">
-        <v>85.714299999999994</v>
+        <v>78.260900000000007</v>
       </c>
     </row>
     <row r="236" spans="1:11" x14ac:dyDescent="0.25">
@@ -8971,25 +8982,25 @@
         <v>17</v>
       </c>
       <c r="E236">
-        <v>0.39410000000000001</v>
+        <v>51.956499999999998</v>
       </c>
       <c r="F236">
-        <v>0.3145</v>
+        <v>1.0826</v>
       </c>
       <c r="G236">
-        <v>0.77590000000000003</v>
+        <v>52</v>
       </c>
       <c r="H236">
-        <v>1</v>
+        <v>55</v>
       </c>
       <c r="I236">
-        <v>0</v>
+        <v>51</v>
       </c>
       <c r="J236">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="K236">
-        <v>80.952399999999997</v>
+        <v>86.956500000000005</v>
       </c>
     </row>
     <row r="237" spans="1:11" x14ac:dyDescent="0.25">
@@ -9006,25 +9017,25 @@
         <v>18</v>
       </c>
       <c r="E237">
-        <v>0.38579999999999998</v>
+        <v>1.3461000000000001</v>
       </c>
       <c r="F237">
-        <v>0.3412</v>
+        <v>0.43180000000000002</v>
       </c>
       <c r="G237">
-        <v>0.79869999999999997</v>
+        <v>1.7179</v>
       </c>
       <c r="H237">
-        <v>1</v>
+        <v>2.0026000000000002</v>
       </c>
       <c r="I237">
-        <v>0</v>
+        <v>0.52629999999999999</v>
       </c>
       <c r="J237">
-        <v>1</v>
+        <v>1.4762999999999999</v>
       </c>
       <c r="K237">
-        <v>80.952399999999997</v>
+        <v>78.260900000000007</v>
       </c>
     </row>
     <row r="238" spans="1:11" x14ac:dyDescent="0.25">
@@ -9041,25 +9052,25 @@
         <v>19</v>
       </c>
       <c r="E238">
-        <v>0.43080000000000002</v>
+        <v>5.6242999999999999</v>
       </c>
       <c r="F238">
-        <v>0.36299999999999999</v>
+        <v>0.99829999999999997</v>
       </c>
       <c r="G238">
-        <v>0.76770000000000005</v>
+        <v>6.593</v>
       </c>
       <c r="H238">
-        <v>1</v>
+        <v>6.9852999999999996</v>
       </c>
       <c r="I238">
-        <v>0</v>
+        <v>3.7831999999999999</v>
       </c>
       <c r="J238">
-        <v>1</v>
+        <v>3.2021000000000002</v>
       </c>
       <c r="K238">
-        <v>80.952399999999997</v>
+        <v>82.608699999999999</v>
       </c>
     </row>
     <row r="239" spans="1:11" x14ac:dyDescent="0.25">
@@ -9076,25 +9087,25 @@
         <v>20</v>
       </c>
       <c r="E239">
-        <v>0.50160000000000005</v>
+        <v>7.17E-2</v>
       </c>
       <c r="F239">
-        <v>0.31540000000000001</v>
+        <v>1.2E-2</v>
       </c>
       <c r="G239">
-        <v>0.87760000000000005</v>
+        <v>8.2699999999999996E-2</v>
       </c>
       <c r="H239">
-        <v>1</v>
+        <v>9.4399999999999998E-2</v>
       </c>
       <c r="I239">
-        <v>0</v>
+        <v>5.0999999999999997E-2</v>
       </c>
       <c r="J239">
-        <v>1</v>
+        <v>4.3499999999999997E-2</v>
       </c>
       <c r="K239">
-        <v>80.952399999999997</v>
+        <v>78.260900000000007</v>
       </c>
     </row>
     <row r="240" spans="1:11" x14ac:dyDescent="0.25">
@@ -9111,25 +9122,25 @@
         <v>14</v>
       </c>
       <c r="E240">
-        <v>0.55710000000000004</v>
+        <v>61.544699999999999</v>
       </c>
       <c r="F240">
-        <v>0.28820000000000001</v>
+        <v>6.5069999999999997</v>
       </c>
       <c r="G240">
-        <v>0.84130000000000005</v>
+        <v>66.826499999999996</v>
       </c>
       <c r="H240">
-        <v>1</v>
+        <v>75.371099999999998</v>
       </c>
       <c r="I240">
-        <v>0</v>
+        <v>49.734000000000002</v>
       </c>
       <c r="J240">
-        <v>1</v>
+        <v>25.6371</v>
       </c>
       <c r="K240">
-        <v>81.25</v>
+        <v>80.952399999999997</v>
       </c>
     </row>
     <row r="241" spans="1:11" x14ac:dyDescent="0.25">
@@ -9146,25 +9157,25 @@
         <v>15</v>
       </c>
       <c r="E241">
-        <v>0.43180000000000002</v>
+        <v>0.15859999999999999</v>
       </c>
       <c r="F241">
-        <v>0.26740000000000003</v>
+        <v>1.7399999999999999E-2</v>
       </c>
       <c r="G241">
-        <v>0.51180000000000003</v>
+        <v>0.17649999999999999</v>
       </c>
       <c r="H241">
-        <v>1</v>
+        <v>0.1905</v>
       </c>
       <c r="I241">
-        <v>0</v>
+        <v>0.1305</v>
       </c>
       <c r="J241">
-        <v>1</v>
+        <v>0.06</v>
       </c>
       <c r="K241">
-        <v>81.25</v>
+        <v>80.952399999999997</v>
       </c>
     </row>
     <row r="242" spans="1:11" x14ac:dyDescent="0.25">
@@ -9181,25 +9192,25 @@
         <v>16</v>
       </c>
       <c r="E242">
-        <v>0.5484</v>
+        <v>245.8571</v>
       </c>
       <c r="F242">
-        <v>0.26390000000000002</v>
+        <v>12.494899999999999</v>
       </c>
       <c r="G242">
-        <v>0.7097</v>
+        <v>258</v>
       </c>
       <c r="H242">
-        <v>1</v>
+        <v>271</v>
       </c>
       <c r="I242">
-        <v>0</v>
+        <v>214</v>
       </c>
       <c r="J242">
-        <v>1</v>
+        <v>57</v>
       </c>
       <c r="K242">
-        <v>81.25</v>
+        <v>85.714299999999994</v>
       </c>
     </row>
     <row r="243" spans="1:11" x14ac:dyDescent="0.25">
@@ -9216,25 +9227,25 @@
         <v>17</v>
       </c>
       <c r="E243">
-        <v>0.42380000000000001</v>
+        <v>67.857100000000003</v>
       </c>
       <c r="F243">
-        <v>0.30109999999999998</v>
+        <v>18.239899999999999</v>
       </c>
       <c r="G243">
-        <v>0.68289999999999995</v>
+        <v>90</v>
       </c>
       <c r="H243">
-        <v>1</v>
+        <v>103</v>
       </c>
       <c r="I243">
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="J243">
-        <v>1</v>
+        <v>58</v>
       </c>
       <c r="K243">
-        <v>81.25</v>
+        <v>80.952399999999997</v>
       </c>
     </row>
     <row r="244" spans="1:11" x14ac:dyDescent="0.25">
@@ -9251,25 +9262,25 @@
         <v>18</v>
       </c>
       <c r="E244">
-        <v>0.3866</v>
+        <v>0.81789999999999996</v>
       </c>
       <c r="F244">
-        <v>0.29770000000000002</v>
+        <v>0.30470000000000003</v>
       </c>
       <c r="G244">
-        <v>0.70609999999999995</v>
+        <v>1.1866000000000001</v>
       </c>
       <c r="H244">
-        <v>1</v>
+        <v>1.3663000000000001</v>
       </c>
       <c r="I244">
-        <v>0</v>
+        <v>0.47339999999999999</v>
       </c>
       <c r="J244">
-        <v>1</v>
+        <v>0.89290000000000003</v>
       </c>
       <c r="K244">
-        <v>81.25</v>
+        <v>80.952399999999997</v>
       </c>
     </row>
     <row r="245" spans="1:11" x14ac:dyDescent="0.25">
@@ -9286,25 +9297,25 @@
         <v>19</v>
       </c>
       <c r="E245">
-        <v>0.48480000000000001</v>
+        <v>4.7652999999999999</v>
       </c>
       <c r="F245">
-        <v>0.34789999999999999</v>
+        <v>1.1611</v>
       </c>
       <c r="G245">
-        <v>0.97419999999999995</v>
+        <v>5.8426999999999998</v>
       </c>
       <c r="H245">
-        <v>1</v>
+        <v>6.5857999999999999</v>
       </c>
       <c r="I245">
-        <v>0</v>
+        <v>3.3873000000000002</v>
       </c>
       <c r="J245">
-        <v>1</v>
+        <v>3.1983999999999999</v>
       </c>
       <c r="K245">
-        <v>81.25</v>
+        <v>80.952399999999997</v>
       </c>
     </row>
     <row r="246" spans="1:11" x14ac:dyDescent="0.25">
@@ -9321,25 +9332,25 @@
         <v>20</v>
       </c>
       <c r="E246">
-        <v>0.55640000000000001</v>
+        <v>6.3899999999999998E-2</v>
       </c>
       <c r="F246">
-        <v>0.28799999999999998</v>
+        <v>9.1999999999999998E-3</v>
       </c>
       <c r="G246">
-        <v>0.81210000000000004</v>
+        <v>7.4800000000000005E-2</v>
       </c>
       <c r="H246">
-        <v>1</v>
+        <v>7.8399999999999997E-2</v>
       </c>
       <c r="I246">
-        <v>0</v>
+        <v>4.9299999999999997E-2</v>
       </c>
       <c r="J246">
-        <v>1</v>
+        <v>2.9000000000000001E-2</v>
       </c>
       <c r="K246">
-        <v>81.25</v>
+        <v>80.952399999999997</v>
       </c>
     </row>
     <row r="247" spans="1:11" x14ac:dyDescent="0.25">
@@ -9356,25 +9367,25 @@
         <v>14</v>
       </c>
       <c r="E247">
-        <v>0.30199999999999999</v>
+        <v>57.839300000000001</v>
       </c>
       <c r="F247">
-        <v>0.21199999999999999</v>
+        <v>8.5884</v>
       </c>
       <c r="G247">
-        <v>0.38119999999999998</v>
+        <v>66.307699999999997</v>
       </c>
       <c r="H247">
-        <v>1</v>
+        <v>71.038600000000002</v>
       </c>
       <c r="I247">
-        <v>0</v>
+        <v>41.235100000000003</v>
       </c>
       <c r="J247">
-        <v>1</v>
+        <v>29.8035</v>
       </c>
       <c r="K247">
-        <v>77.2727</v>
+        <v>81.25</v>
       </c>
     </row>
     <row r="248" spans="1:11" x14ac:dyDescent="0.25">
@@ -9391,25 +9402,25 @@
         <v>15</v>
       </c>
       <c r="E248">
-        <v>0.50619999999999998</v>
+        <v>0.1686</v>
       </c>
       <c r="F248">
-        <v>0.25609999999999999</v>
+        <v>0.02</v>
       </c>
       <c r="G248">
-        <v>0.76370000000000005</v>
+        <v>0.17460000000000001</v>
       </c>
       <c r="H248">
-        <v>1</v>
+        <v>0.21110000000000001</v>
       </c>
       <c r="I248">
-        <v>0</v>
+        <v>0.13639999999999999</v>
       </c>
       <c r="J248">
-        <v>1</v>
+        <v>7.4700000000000003E-2</v>
       </c>
       <c r="K248">
-        <v>77.2727</v>
+        <v>81.25</v>
       </c>
     </row>
     <row r="249" spans="1:11" x14ac:dyDescent="0.25">
@@ -9426,25 +9437,25 @@
         <v>16</v>
       </c>
       <c r="E249">
-        <v>0.58650000000000002</v>
+        <v>238</v>
       </c>
       <c r="F249">
-        <v>0.26569999999999999</v>
+        <v>16.359200000000001</v>
       </c>
       <c r="G249">
-        <v>0.82930000000000004</v>
+        <v>248</v>
       </c>
       <c r="H249">
-        <v>1</v>
+        <v>266</v>
       </c>
       <c r="I249">
-        <v>0</v>
+        <v>204</v>
       </c>
       <c r="J249">
-        <v>1</v>
+        <v>62</v>
       </c>
       <c r="K249">
-        <v>81.818200000000004</v>
+        <v>81.25</v>
       </c>
     </row>
     <row r="250" spans="1:11" x14ac:dyDescent="0.25">
@@ -9461,25 +9472,25 @@
         <v>17</v>
       </c>
       <c r="E250">
-        <v>0.58560000000000001</v>
+        <v>68.375</v>
       </c>
       <c r="F250">
-        <v>0.26740000000000003</v>
+        <v>12.343400000000001</v>
       </c>
       <c r="G250">
-        <v>0.83720000000000006</v>
+        <v>79</v>
       </c>
       <c r="H250">
-        <v>1</v>
+        <v>92</v>
       </c>
       <c r="I250">
-        <v>0</v>
+        <v>51</v>
       </c>
       <c r="J250">
-        <v>1</v>
+        <v>41</v>
       </c>
       <c r="K250">
-        <v>81.818200000000004</v>
+        <v>81.25</v>
       </c>
     </row>
     <row r="251" spans="1:11" x14ac:dyDescent="0.25">
@@ -9496,25 +9507,25 @@
         <v>18</v>
       </c>
       <c r="E251">
-        <v>0.41839999999999999</v>
+        <v>0.9244</v>
       </c>
       <c r="F251">
-        <v>0.3034</v>
+        <v>0.4521</v>
       </c>
       <c r="G251">
-        <v>0.73799999999999999</v>
+        <v>1.4095</v>
       </c>
       <c r="H251">
-        <v>1</v>
+        <v>1.8559000000000001</v>
       </c>
       <c r="I251">
-        <v>0</v>
+        <v>0.33729999999999999</v>
       </c>
       <c r="J251">
-        <v>1</v>
+        <v>1.5186999999999999</v>
       </c>
       <c r="K251">
-        <v>77.2727</v>
+        <v>81.25</v>
       </c>
     </row>
     <row r="252" spans="1:11" x14ac:dyDescent="0.25">
@@ -9531,25 +9542,25 @@
         <v>19</v>
       </c>
       <c r="E252">
-        <v>0.36459999999999998</v>
+        <v>5.5974000000000004</v>
       </c>
       <c r="F252">
-        <v>0.27679999999999999</v>
+        <v>1.8324</v>
       </c>
       <c r="G252">
-        <v>0.60289999999999999</v>
+        <v>8.1752000000000002</v>
       </c>
       <c r="H252">
-        <v>1</v>
+        <v>8.3109999999999999</v>
       </c>
       <c r="I252">
-        <v>0</v>
+        <v>3.0440999999999998</v>
       </c>
       <c r="J252">
-        <v>1</v>
+        <v>5.2668999999999997</v>
       </c>
       <c r="K252">
-        <v>77.2727</v>
+        <v>81.25</v>
       </c>
     </row>
     <row r="253" spans="1:11" x14ac:dyDescent="0.25">
@@ -9566,24 +9577,269 @@
         <v>20</v>
       </c>
       <c r="E253">
-        <v>0.45669999999999999</v>
+        <v>5.62E-2</v>
       </c>
       <c r="F253">
-        <v>0.26450000000000001</v>
+        <v>9.2999999999999992E-3</v>
       </c>
       <c r="G253">
-        <v>0.67210000000000003</v>
+        <v>6.4399999999999999E-2</v>
       </c>
       <c r="H253">
-        <v>1</v>
+        <v>7.0499999999999993E-2</v>
       </c>
       <c r="I253">
-        <v>0</v>
+        <v>3.8100000000000002E-2</v>
       </c>
       <c r="J253">
-        <v>1</v>
+        <v>3.2399999999999998E-2</v>
       </c>
       <c r="K253">
+        <v>81.25</v>
+      </c>
+    </row>
+    <row r="254" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A254" t="s">
+        <v>91</v>
+      </c>
+      <c r="B254" t="s">
+        <v>92</v>
+      </c>
+      <c r="C254" t="s">
+        <v>13</v>
+      </c>
+      <c r="D254" t="s">
+        <v>14</v>
+      </c>
+      <c r="E254">
+        <v>62.111400000000003</v>
+      </c>
+      <c r="F254">
+        <v>5.3074000000000003</v>
+      </c>
+      <c r="G254">
+        <v>64.095299999999995</v>
+      </c>
+      <c r="H254">
+        <v>79.586299999999994</v>
+      </c>
+      <c r="I254">
+        <v>54.550899999999999</v>
+      </c>
+      <c r="J254">
+        <v>25.035299999999999</v>
+      </c>
+      <c r="K254">
+        <v>77.2727</v>
+      </c>
+    </row>
+    <row r="255" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A255" t="s">
+        <v>91</v>
+      </c>
+      <c r="B255" t="s">
+        <v>92</v>
+      </c>
+      <c r="C255" t="s">
+        <v>13</v>
+      </c>
+      <c r="D255" t="s">
+        <v>15</v>
+      </c>
+      <c r="E255">
+        <v>0.1585</v>
+      </c>
+      <c r="F255">
+        <v>1.09E-2</v>
+      </c>
+      <c r="G255">
+        <v>0.16950000000000001</v>
+      </c>
+      <c r="H255">
+        <v>0.17949999999999999</v>
+      </c>
+      <c r="I255">
+        <v>0.13700000000000001</v>
+      </c>
+      <c r="J255">
+        <v>4.2599999999999999E-2</v>
+      </c>
+      <c r="K255">
+        <v>77.2727</v>
+      </c>
+    </row>
+    <row r="256" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A256" t="s">
+        <v>91</v>
+      </c>
+      <c r="B256" t="s">
+        <v>92</v>
+      </c>
+      <c r="C256" t="s">
+        <v>13</v>
+      </c>
+      <c r="D256" t="s">
+        <v>16</v>
+      </c>
+      <c r="E256">
+        <v>238.0909</v>
+      </c>
+      <c r="F256">
+        <v>21.790099999999999</v>
+      </c>
+      <c r="G256">
+        <v>258</v>
+      </c>
+      <c r="H256">
+        <v>272</v>
+      </c>
+      <c r="I256">
+        <v>190</v>
+      </c>
+      <c r="J256">
+        <v>82</v>
+      </c>
+      <c r="K256">
+        <v>81.818200000000004</v>
+      </c>
+    </row>
+    <row r="257" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A257" t="s">
+        <v>91</v>
+      </c>
+      <c r="B257" t="s">
+        <v>92</v>
+      </c>
+      <c r="C257" t="s">
+        <v>13</v>
+      </c>
+      <c r="D257" t="s">
+        <v>17</v>
+      </c>
+      <c r="E257">
+        <v>59.181800000000003</v>
+      </c>
+      <c r="F257">
+        <v>11.499599999999999</v>
+      </c>
+      <c r="G257">
+        <v>70</v>
+      </c>
+      <c r="H257">
+        <v>77</v>
+      </c>
+      <c r="I257">
+        <v>34</v>
+      </c>
+      <c r="J257">
+        <v>43</v>
+      </c>
+      <c r="K257">
+        <v>81.818200000000004</v>
+      </c>
+    </row>
+    <row r="258" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A258" t="s">
+        <v>91</v>
+      </c>
+      <c r="B258" t="s">
+        <v>92</v>
+      </c>
+      <c r="C258" t="s">
+        <v>13</v>
+      </c>
+      <c r="D258" t="s">
+        <v>18</v>
+      </c>
+      <c r="E258">
+        <v>1.0063</v>
+      </c>
+      <c r="F258">
+        <v>0.4995</v>
+      </c>
+      <c r="G258">
+        <v>1.5326</v>
+      </c>
+      <c r="H258">
+        <v>1.964</v>
+      </c>
+      <c r="I258">
+        <v>0.3175</v>
+      </c>
+      <c r="J258">
+        <v>1.6465000000000001</v>
+      </c>
+      <c r="K258">
+        <v>77.2727</v>
+      </c>
+    </row>
+    <row r="259" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A259" t="s">
+        <v>91</v>
+      </c>
+      <c r="B259" t="s">
+        <v>92</v>
+      </c>
+      <c r="C259" t="s">
+        <v>13</v>
+      </c>
+      <c r="D259" t="s">
+        <v>19</v>
+      </c>
+      <c r="E259">
+        <v>5.2851999999999997</v>
+      </c>
+      <c r="F259">
+        <v>1.8645</v>
+      </c>
+      <c r="G259">
+        <v>6.8901000000000003</v>
+      </c>
+      <c r="H259">
+        <v>9.5652000000000008</v>
+      </c>
+      <c r="I259">
+        <v>2.8289</v>
+      </c>
+      <c r="J259">
+        <v>6.7363999999999997</v>
+      </c>
+      <c r="K259">
+        <v>77.2727</v>
+      </c>
+    </row>
+    <row r="260" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A260" t="s">
+        <v>91</v>
+      </c>
+      <c r="B260" t="s">
+        <v>92</v>
+      </c>
+      <c r="C260" t="s">
+        <v>13</v>
+      </c>
+      <c r="D260" t="s">
+        <v>20</v>
+      </c>
+      <c r="E260">
+        <v>6.7599999999999993E-2</v>
+      </c>
+      <c r="F260">
+        <v>1.6E-2</v>
+      </c>
+      <c r="G260">
+        <v>8.0600000000000005E-2</v>
+      </c>
+      <c r="H260">
+        <v>0.1004</v>
+      </c>
+      <c r="I260">
+        <v>3.9899999999999998E-2</v>
+      </c>
+      <c r="J260">
+        <v>6.0499999999999998E-2</v>
+      </c>
+      <c r="K260">
         <v>77.2727</v>
       </c>
     </row>
